--- a/Base para o catálogo.xlsx
+++ b/Base para o catálogo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grupoaguasdobrasil-my.sharepoint.com/personal/bruno_azevedo_aguasdoparaiba_com_br/Documents/Área de Trabalho/Catalogo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Coordenacao Adm Financeiro\CatalogoCAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5057,7 +5057,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="000"/>
+    <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -5140,7 +5140,7 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K746"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5538,7 +5538,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
         <v>177.06</v>
@@ -31182,6 +31182,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B71EA2D9964CC9449323D3108A891EB7" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ff891be549735ec397d6022c2fc7d626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e01e24f2-7f6a-4a90-94b6-6e522386aa06" xmlns:ns4="fa81e86c-0da7-4393-b309-29a6ef7a5f24" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b10f1121eb9749427907c3ca261214ba" ns3:_="" ns4:_="">
     <xsd:import namespace="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
@@ -31408,24 +31425,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F2AC3A-AC86-409D-815E-3B0EA5A11767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31442,29 +31467,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base para o catálogo.xlsx
+++ b/Base para o catálogo.xlsx
@@ -5468,7 +5468,7 @@
   <dimension ref="A1:K746"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5538,7 +5538,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4">
         <v>177.06</v>
@@ -31182,23 +31182,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B71EA2D9964CC9449323D3108A891EB7" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ff891be549735ec397d6022c2fc7d626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e01e24f2-7f6a-4a90-94b6-6e522386aa06" xmlns:ns4="fa81e86c-0da7-4393-b309-29a6ef7a5f24" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b10f1121eb9749427907c3ca261214ba" ns3:_="" ns4:_="">
     <xsd:import namespace="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
@@ -31425,32 +31408,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F2AC3A-AC86-409D-815E-3B0EA5A11767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31467,4 +31442,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
+    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base para o catálogo.xlsx
+++ b/Base para o catálogo.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8850"/>
   </bookViews>
   <sheets>
-    <sheet name="Export" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produtos!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -5467,8 +5467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K746"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,7 +5525,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B2,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B2,Planilha1!A:A,0),1)</f>
         <v>MATERIAIS CHAPARIAS</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -5558,7 +5558,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B3,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B3,Planilha1!A:A,0),1)</f>
         <v>MATERIAIS CHAPARIAS</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -5591,7 +5591,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B4,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B4,Planilha1!A:A,0),1)</f>
         <v>MATERIAIS CHAPARIAS</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -5624,7 +5624,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B5,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B5,Planilha1!A:A,0),1)</f>
         <v>MATERIAIS CHAPARIAS</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -5657,7 +5657,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B6,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B6,Planilha1!A:A,0),1)</f>
         <v>MATERIAIS CHAPARIAS</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -5690,7 +5690,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B7,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B7,Planilha1!A:A,0),1)</f>
         <v>MATERIAIS CHAPARIAS</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -5723,7 +5723,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B8,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B8,Planilha1!A:A,0),1)</f>
         <v>CONSTRUÇÃO</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -5757,7 +5757,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B9,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B9,Planilha1!A:A,0),1)</f>
         <v>CONSTRUÇÃO</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -5790,7 +5790,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B10,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B10,Planilha1!A:A,0),1)</f>
         <v>CONSTRUÇÃO</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -5823,7 +5823,7 @@
         <v>45</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B11,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B11,Planilha1!A:A,0),1)</f>
         <v>CONSTRUÇÃO</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -5856,7 +5856,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B12,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B12,Planilha1!A:A,0),1)</f>
         <v>CONSTRUÇÃO</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -5889,7 +5889,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B13,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B13,Planilha1!A:A,0),1)</f>
         <v>CONSTRUÇÃO</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -5922,7 +5922,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B14,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B14,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -5955,7 +5955,7 @@
         <v>55</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B15,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B15,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -5988,7 +5988,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B16,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B16,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -6021,7 +6021,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B17,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B17,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -6054,7 +6054,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B18,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B18,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -6087,7 +6087,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B19,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B19,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -6120,7 +6120,7 @@
         <v>55</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B20,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B20,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D20" s="11" t="s">
@@ -6153,7 +6153,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B21,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B21,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -6186,7 +6186,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B22,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B22,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -6219,7 +6219,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B23,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B23,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -6252,7 +6252,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B24,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B24,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D24" s="11" t="s">
@@ -6285,7 +6285,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B25,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B25,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -6318,7 +6318,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B26,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B26,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -6351,7 +6351,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B27,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B27,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D27" s="11" t="s">
@@ -6384,7 +6384,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B28,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B28,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -6417,7 +6417,7 @@
         <v>55</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B29,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B29,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D29" s="11" t="s">
@@ -6450,7 +6450,7 @@
         <v>55</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B30,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B30,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -6483,7 +6483,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B31,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B31,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -6516,7 +6516,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B32,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B32,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D32" s="11" t="s">
@@ -6549,7 +6549,7 @@
         <v>55</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B33,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B33,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D33" s="11" t="s">
@@ -6582,7 +6582,7 @@
         <v>55</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B34,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B34,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -6615,7 +6615,7 @@
         <v>55</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B35,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B35,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -6648,7 +6648,7 @@
         <v>55</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B36,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B36,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D36" s="11" t="s">
@@ -6681,7 +6681,7 @@
         <v>55</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B37,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B37,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D37" s="11" t="s">
@@ -6714,7 +6714,7 @@
         <v>55</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B38,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B38,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -6747,7 +6747,7 @@
         <v>55</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B39,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B39,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -6780,7 +6780,7 @@
         <v>55</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B40,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B40,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -6813,7 +6813,7 @@
         <v>55</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B41,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B41,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D41" s="11" t="s">
@@ -6846,7 +6846,7 @@
         <v>55</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B42,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B42,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D42" s="11" t="s">
@@ -6879,7 +6879,7 @@
         <v>55</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B43,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B43,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -6912,7 +6912,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B44,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B44,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -6945,7 +6945,7 @@
         <v>55</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B45,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B45,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -6978,7 +6978,7 @@
         <v>55</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B46,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B46,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -7011,7 +7011,7 @@
         <v>55</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B47,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B47,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -7044,7 +7044,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B48,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B48,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -7077,7 +7077,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B49,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B49,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -7110,7 +7110,7 @@
         <v>55</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B50,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B50,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -7143,7 +7143,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B51,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B51,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -7176,7 +7176,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B52,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B52,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -7209,7 +7209,7 @@
         <v>55</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B53,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B53,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -7242,7 +7242,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B54,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B54,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -7275,7 +7275,7 @@
         <v>55</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B55,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B55,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -7308,7 +7308,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B56,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B56,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -7341,7 +7341,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B57,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B57,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -7374,7 +7374,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B58,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B58,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -7407,7 +7407,7 @@
         <v>55</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B59,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B59,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -7440,7 +7440,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B60,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B60,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -7473,7 +7473,7 @@
         <v>55</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B61,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B61,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -7506,7 +7506,7 @@
         <v>55</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B62,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B62,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -7539,7 +7539,7 @@
         <v>55</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B63,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B63,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -7572,7 +7572,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B64,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B64,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -7605,7 +7605,7 @@
         <v>55</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B65,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B65,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -7638,7 +7638,7 @@
         <v>55</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B66,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B66,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -7671,7 +7671,7 @@
         <v>55</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B67,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B67,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D67" s="11" t="s">
@@ -7704,7 +7704,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B68,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B68,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D68" s="11" t="s">
@@ -7737,7 +7737,7 @@
         <v>55</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B69,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B69,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D69" s="11" t="s">
@@ -7770,7 +7770,7 @@
         <v>55</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B70,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B70,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D70" s="11" t="s">
@@ -7803,7 +7803,7 @@
         <v>55</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B71,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B71,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D71" s="11" t="s">
@@ -7836,7 +7836,7 @@
         <v>55</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B72,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B72,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D72" s="11" t="s">
@@ -7869,7 +7869,7 @@
         <v>55</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B73,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B73,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -7902,7 +7902,7 @@
         <v>55</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B74,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B74,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -7935,7 +7935,7 @@
         <v>55</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B75,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B75,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -7968,7 +7968,7 @@
         <v>55</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B76,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B76,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D76" s="11" t="s">
@@ -8001,7 +8001,7 @@
         <v>55</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B77,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B77,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D77" s="11" t="s">
@@ -8034,7 +8034,7 @@
         <v>55</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B78,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B78,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D78" s="11" t="s">
@@ -8067,7 +8067,7 @@
         <v>55</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B79,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B79,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D79" s="11" t="s">
@@ -8100,7 +8100,7 @@
         <v>55</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B80,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B80,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D80" s="11" t="s">
@@ -8133,7 +8133,7 @@
         <v>55</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B81,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B81,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D81" s="11" t="s">
@@ -8166,7 +8166,7 @@
         <v>55</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B82,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B82,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D82" s="11" t="s">
@@ -8199,7 +8199,7 @@
         <v>55</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B83,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B83,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D83" s="11" t="s">
@@ -8232,7 +8232,7 @@
         <v>55</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B84,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B84,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D84" s="11" t="s">
@@ -8265,7 +8265,7 @@
         <v>55</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B85,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B85,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -8298,7 +8298,7 @@
         <v>55</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B86,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B86,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -8331,7 +8331,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B87,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B87,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D87" s="11" t="s">
@@ -8364,7 +8364,7 @@
         <v>55</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B88,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B88,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D88" s="11" t="s">
@@ -8397,7 +8397,7 @@
         <v>55</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B89,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B89,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D89" s="11" t="s">
@@ -8430,7 +8430,7 @@
         <v>55</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B90,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B90,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D90" s="11" t="s">
@@ -8463,7 +8463,7 @@
         <v>55</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B91,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B91,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D91" s="11" t="s">
@@ -8496,7 +8496,7 @@
         <v>55</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B92,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B92,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D92" s="11" t="s">
@@ -8529,7 +8529,7 @@
         <v>55</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B93,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B93,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D93" s="11" t="s">
@@ -8562,7 +8562,7 @@
         <v>55</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B94,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B94,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D94" s="11" t="s">
@@ -8595,7 +8595,7 @@
         <v>55</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B95,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B95,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -8628,7 +8628,7 @@
         <v>55</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B96,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B96,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D96" s="11" t="s">
@@ -8661,7 +8661,7 @@
         <v>55</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B97,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B97,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D97" s="11" t="s">
@@ -8694,7 +8694,7 @@
         <v>55</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B98,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B98,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D98" s="11" t="s">
@@ -8727,7 +8727,7 @@
         <v>55</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B99,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B99,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D99" s="11" t="s">
@@ -8760,7 +8760,7 @@
         <v>55</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B100,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B100,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D100" s="11" t="s">
@@ -8793,7 +8793,7 @@
         <v>55</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B101,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B101,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D101" s="11" t="s">
@@ -8826,7 +8826,7 @@
         <v>55</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B102,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B102,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D102" s="11" t="s">
@@ -8859,7 +8859,7 @@
         <v>55</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B103,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B103,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D103" s="11" t="s">
@@ -8892,7 +8892,7 @@
         <v>55</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B104,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B104,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D104" s="11" t="s">
@@ -8925,7 +8925,7 @@
         <v>55</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B105,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B105,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D105" s="11" t="s">
@@ -8958,7 +8958,7 @@
         <v>55</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B106,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B106,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D106" s="11" t="s">
@@ -8991,7 +8991,7 @@
         <v>55</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B107,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B107,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D107" s="11" t="s">
@@ -9024,7 +9024,7 @@
         <v>55</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B108,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B108,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D108" s="11" t="s">
@@ -9057,7 +9057,7 @@
         <v>55</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B109,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B109,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D109" s="11" t="s">
@@ -9090,7 +9090,7 @@
         <v>55</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B110,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B110,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D110" s="11" t="s">
@@ -9123,7 +9123,7 @@
         <v>55</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B111,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B111,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D111" s="11" t="s">
@@ -9156,7 +9156,7 @@
         <v>55</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B112,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B112,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D112" s="11" t="s">
@@ -9189,7 +9189,7 @@
         <v>55</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B113,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B113,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D113" s="11" t="s">
@@ -9222,7 +9222,7 @@
         <v>55</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B114,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B114,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D114" s="11" t="s">
@@ -9255,7 +9255,7 @@
         <v>55</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B115,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B115,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D115" s="11" t="s">
@@ -9288,7 +9288,7 @@
         <v>55</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B116,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B116,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D116" s="11" t="s">
@@ -9321,7 +9321,7 @@
         <v>55</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B117,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B117,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D117" s="11" t="s">
@@ -9354,7 +9354,7 @@
         <v>55</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B118,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B118,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D118" s="11" t="s">
@@ -9387,7 +9387,7 @@
         <v>55</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B119,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B119,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D119" s="11" t="s">
@@ -9420,7 +9420,7 @@
         <v>55</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B120,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B120,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D120" s="11" t="s">
@@ -9453,7 +9453,7 @@
         <v>55</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B121,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B121,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D121" s="11" t="s">
@@ -9486,7 +9486,7 @@
         <v>55</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B122,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B122,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D122" s="11" t="s">
@@ -9519,7 +9519,7 @@
         <v>55</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B123,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B123,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D123" s="11" t="s">
@@ -9552,7 +9552,7 @@
         <v>55</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B124,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B124,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D124" s="11" t="s">
@@ -9585,7 +9585,7 @@
         <v>55</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B125,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B125,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D125" s="11" t="s">
@@ -9618,7 +9618,7 @@
         <v>55</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B126,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B126,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D126" s="11" t="s">
@@ -9651,7 +9651,7 @@
         <v>55</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B127,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B127,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D127" s="11" t="s">
@@ -9684,7 +9684,7 @@
         <v>55</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B128,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B128,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D128" s="11" t="s">
@@ -9717,7 +9717,7 @@
         <v>55</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B129,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B129,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D129" s="11" t="s">
@@ -9750,7 +9750,7 @@
         <v>55</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B130,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B130,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D130" s="11" t="s">
@@ -9783,7 +9783,7 @@
         <v>55</v>
       </c>
       <c r="C131" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B131,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B131,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D131" s="11" t="s">
@@ -9816,7 +9816,7 @@
         <v>55</v>
       </c>
       <c r="C132" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B132,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B132,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D132" s="11" t="s">
@@ -9849,7 +9849,7 @@
         <v>55</v>
       </c>
       <c r="C133" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B133,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B133,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D133" s="11" t="s">
@@ -9882,7 +9882,7 @@
         <v>55</v>
       </c>
       <c r="C134" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B134,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B134,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D134" s="11" t="s">
@@ -9915,7 +9915,7 @@
         <v>55</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B135,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B135,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D135" s="11" t="s">
@@ -9948,7 +9948,7 @@
         <v>55</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B136,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B136,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D136" s="11" t="s">
@@ -9981,7 +9981,7 @@
         <v>55</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B137,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B137,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D137" s="11" t="s">
@@ -10014,7 +10014,7 @@
         <v>55</v>
       </c>
       <c r="C138" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B138,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B138,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D138" s="11" t="s">
@@ -10047,7 +10047,7 @@
         <v>55</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B139,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B139,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D139" s="11" t="s">
@@ -10080,7 +10080,7 @@
         <v>55</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B140,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B140,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D140" s="11" t="s">
@@ -10113,7 +10113,7 @@
         <v>55</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B141,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B141,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D141" s="11" t="s">
@@ -10146,7 +10146,7 @@
         <v>55</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B142,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B142,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D142" s="11" t="s">
@@ -10179,7 +10179,7 @@
         <v>55</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B143,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B143,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D143" s="11" t="s">
@@ -10212,7 +10212,7 @@
         <v>55</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B144,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B144,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D144" s="11" t="s">
@@ -10245,7 +10245,7 @@
         <v>55</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B145,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B145,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D145" s="11" t="s">
@@ -10278,7 +10278,7 @@
         <v>55</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B146,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B146,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D146" s="11" t="s">
@@ -10311,7 +10311,7 @@
         <v>55</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B147,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B147,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D147" s="11" t="s">
@@ -10344,7 +10344,7 @@
         <v>55</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B148,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B148,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D148" s="11" t="s">
@@ -10377,7 +10377,7 @@
         <v>55</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B149,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B149,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D149" s="11" t="s">
@@ -10410,7 +10410,7 @@
         <v>55</v>
       </c>
       <c r="C150" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B150,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B150,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D150" s="11" t="s">
@@ -10443,7 +10443,7 @@
         <v>55</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B151,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B151,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D151" s="11" t="s">
@@ -10476,7 +10476,7 @@
         <v>55</v>
       </c>
       <c r="C152" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B152,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B152,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D152" s="11" t="s">
@@ -10509,7 +10509,7 @@
         <v>55</v>
       </c>
       <c r="C153" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B153,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B153,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D153" s="11" t="s">
@@ -10542,7 +10542,7 @@
         <v>55</v>
       </c>
       <c r="C154" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B154,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B154,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D154" s="11" t="s">
@@ -10575,7 +10575,7 @@
         <v>55</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B155,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B155,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D155" s="11" t="s">
@@ -10608,7 +10608,7 @@
         <v>55</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B156,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B156,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D156" s="11" t="s">
@@ -10641,7 +10641,7 @@
         <v>55</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B157,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B157,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D157" s="11" t="s">
@@ -10674,7 +10674,7 @@
         <v>55</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B158,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B158,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D158" s="11" t="s">
@@ -10707,7 +10707,7 @@
         <v>55</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B159,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B159,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D159" s="11" t="s">
@@ -10740,7 +10740,7 @@
         <v>55</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B160,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B160,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D160" s="11" t="s">
@@ -10773,7 +10773,7 @@
         <v>55</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B161,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B161,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D161" s="11" t="s">
@@ -10806,7 +10806,7 @@
         <v>55</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B162,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B162,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D162" s="11" t="s">
@@ -10839,7 +10839,7 @@
         <v>55</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B163,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B163,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D163" s="11" t="s">
@@ -10872,7 +10872,7 @@
         <v>55</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B164,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B164,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D164" s="11" t="s">
@@ -10905,7 +10905,7 @@
         <v>55</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B165,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B165,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D165" s="11" t="s">
@@ -10938,7 +10938,7 @@
         <v>55</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B166,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B166,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D166" s="11" t="s">
@@ -10971,7 +10971,7 @@
         <v>55</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B167,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B167,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D167" s="11" t="s">
@@ -11004,7 +11004,7 @@
         <v>55</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B168,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B168,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D168" s="11" t="s">
@@ -11037,7 +11037,7 @@
         <v>55</v>
       </c>
       <c r="C169" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B169,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B169,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D169" s="11" t="s">
@@ -11070,7 +11070,7 @@
         <v>55</v>
       </c>
       <c r="C170" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B170,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B170,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D170" s="11" t="s">
@@ -11103,7 +11103,7 @@
         <v>55</v>
       </c>
       <c r="C171" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B171,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B171,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D171" s="11" t="s">
@@ -11136,7 +11136,7 @@
         <v>55</v>
       </c>
       <c r="C172" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B172,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B172,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D172" s="11" t="s">
@@ -11169,7 +11169,7 @@
         <v>55</v>
       </c>
       <c r="C173" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B173,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B173,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D173" s="11" t="s">
@@ -11202,7 +11202,7 @@
         <v>55</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B174,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B174,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D174" s="11" t="s">
@@ -11235,7 +11235,7 @@
         <v>55</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B175,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B175,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D175" s="11" t="s">
@@ -11268,7 +11268,7 @@
         <v>55</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B176,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B176,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D176" s="11" t="s">
@@ -11301,7 +11301,7 @@
         <v>55</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B177,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B177,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D177" s="11" t="s">
@@ -11334,7 +11334,7 @@
         <v>55</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B178,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B178,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D178" s="11" t="s">
@@ -11367,7 +11367,7 @@
         <v>55</v>
       </c>
       <c r="C179" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B179,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B179,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D179" s="11" t="s">
@@ -11400,7 +11400,7 @@
         <v>55</v>
       </c>
       <c r="C180" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B180,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B180,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D180" s="11" t="s">
@@ -11433,7 +11433,7 @@
         <v>55</v>
       </c>
       <c r="C181" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B181,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B181,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D181" s="11" t="s">
@@ -11466,7 +11466,7 @@
         <v>55</v>
       </c>
       <c r="C182" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B182,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B182,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D182" s="11" t="s">
@@ -11499,7 +11499,7 @@
         <v>55</v>
       </c>
       <c r="C183" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B183,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B183,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D183" s="11" t="s">
@@ -11532,7 +11532,7 @@
         <v>55</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B184,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B184,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D184" s="11" t="s">
@@ -11565,7 +11565,7 @@
         <v>55</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B185,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B185,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D185" s="11" t="s">
@@ -11598,7 +11598,7 @@
         <v>55</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B186,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B186,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D186" s="11" t="s">
@@ -11631,7 +11631,7 @@
         <v>55</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B187,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B187,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D187" s="11" t="s">
@@ -11664,7 +11664,7 @@
         <v>55</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B188,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B188,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D188" s="11" t="s">
@@ -11697,7 +11697,7 @@
         <v>55</v>
       </c>
       <c r="C189" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B189,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B189,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D189" s="11" t="s">
@@ -11730,7 +11730,7 @@
         <v>55</v>
       </c>
       <c r="C190" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B190,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B190,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D190" s="11" t="s">
@@ -11763,7 +11763,7 @@
         <v>55</v>
       </c>
       <c r="C191" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B191,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B191,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D191" s="11" t="s">
@@ -11796,7 +11796,7 @@
         <v>55</v>
       </c>
       <c r="C192" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B192,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B192,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D192" s="11" t="s">
@@ -11829,7 +11829,7 @@
         <v>55</v>
       </c>
       <c r="C193" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B193,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B193,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D193" s="11" t="s">
@@ -11862,7 +11862,7 @@
         <v>55</v>
       </c>
       <c r="C194" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B194,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B194,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D194" s="11" t="s">
@@ -11895,7 +11895,7 @@
         <v>55</v>
       </c>
       <c r="C195" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B195,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B195,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D195" s="11" t="s">
@@ -11928,7 +11928,7 @@
         <v>55</v>
       </c>
       <c r="C196" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B196,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B196,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D196" s="11" t="s">
@@ -11961,7 +11961,7 @@
         <v>55</v>
       </c>
       <c r="C197" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B197,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B197,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D197" s="11" t="s">
@@ -11994,7 +11994,7 @@
         <v>55</v>
       </c>
       <c r="C198" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B198,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B198,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D198" s="11" t="s">
@@ -12027,7 +12027,7 @@
         <v>55</v>
       </c>
       <c r="C199" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B199,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B199,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D199" s="11" t="s">
@@ -12060,7 +12060,7 @@
         <v>55</v>
       </c>
       <c r="C200" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B200,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B200,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D200" s="11" t="s">
@@ -12093,7 +12093,7 @@
         <v>55</v>
       </c>
       <c r="C201" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B201,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B201,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D201" s="11" t="s">
@@ -12126,7 +12126,7 @@
         <v>55</v>
       </c>
       <c r="C202" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B202,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B202,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D202" s="11" t="s">
@@ -12159,7 +12159,7 @@
         <v>55</v>
       </c>
       <c r="C203" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B203,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B203,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D203" s="11" t="s">
@@ -12192,7 +12192,7 @@
         <v>55</v>
       </c>
       <c r="C204" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B204,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B204,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D204" s="11" t="s">
@@ -12225,7 +12225,7 @@
         <v>55</v>
       </c>
       <c r="C205" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B205,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B205,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D205" s="11" t="s">
@@ -12258,7 +12258,7 @@
         <v>55</v>
       </c>
       <c r="C206" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B206,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B206,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D206" s="11" t="s">
@@ -12291,7 +12291,7 @@
         <v>55</v>
       </c>
       <c r="C207" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B207,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B207,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D207" s="11" t="s">
@@ -12324,7 +12324,7 @@
         <v>55</v>
       </c>
       <c r="C208" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B208,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B208,Planilha1!A:A,0),1)</f>
         <v>ELETRICOS</v>
       </c>
       <c r="D208" s="11" t="s">
@@ -12357,7 +12357,7 @@
         <v>60</v>
       </c>
       <c r="C209" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B209,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B209,Planilha1!A:A,0),1)</f>
         <v>EMBALAGENS</v>
       </c>
       <c r="D209" s="11" t="s">
@@ -12390,7 +12390,7 @@
         <v>60</v>
       </c>
       <c r="C210" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B210,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B210,Planilha1!A:A,0),1)</f>
         <v>EMBALAGENS</v>
       </c>
       <c r="D210" s="11" t="s">
@@ -12423,7 +12423,7 @@
         <v>65</v>
       </c>
       <c r="C211" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B211,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B211,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D211" s="11" t="s">
@@ -12456,7 +12456,7 @@
         <v>65</v>
       </c>
       <c r="C212" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B212,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B212,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D212" s="11" t="s">
@@ -12489,7 +12489,7 @@
         <v>65</v>
       </c>
       <c r="C213" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B213,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B213,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D213" s="11" t="s">
@@ -12522,7 +12522,7 @@
         <v>65</v>
       </c>
       <c r="C214" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B214,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B214,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D214" s="11" t="s">
@@ -12555,7 +12555,7 @@
         <v>65</v>
       </c>
       <c r="C215" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B215,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B215,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D215" s="11" t="s">
@@ -12588,7 +12588,7 @@
         <v>65</v>
       </c>
       <c r="C216" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B216,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B216,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D216" s="11" t="s">
@@ -12621,7 +12621,7 @@
         <v>65</v>
       </c>
       <c r="C217" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B217,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B217,Planilha1!A:A,0),1)</f>
         <v>ESCRITORIO</v>
       </c>
       <c r="D217" s="11" t="s">
@@ -12654,7 +12654,7 @@
         <v>70</v>
       </c>
       <c r="C218" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B218,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B218,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D218" s="11" t="s">
@@ -12687,7 +12687,7 @@
         <v>70</v>
       </c>
       <c r="C219" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B219,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B219,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D219" s="11" t="s">
@@ -12720,7 +12720,7 @@
         <v>70</v>
       </c>
       <c r="C220" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B220,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B220,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D220" s="11" t="s">
@@ -12753,7 +12753,7 @@
         <v>70</v>
       </c>
       <c r="C221" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B221,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B221,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D221" s="11" t="s">
@@ -12786,7 +12786,7 @@
         <v>70</v>
       </c>
       <c r="C222" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B222,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B222,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D222" s="11" t="s">
@@ -12819,7 +12819,7 @@
         <v>70</v>
       </c>
       <c r="C223" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B223,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B223,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D223" s="11" t="s">
@@ -12852,7 +12852,7 @@
         <v>70</v>
       </c>
       <c r="C224" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B224,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B224,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D224" s="11" t="s">
@@ -12885,7 +12885,7 @@
         <v>70</v>
       </c>
       <c r="C225" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B225,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B225,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D225" s="11" t="s">
@@ -12918,7 +12918,7 @@
         <v>70</v>
       </c>
       <c r="C226" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B226,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B226,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D226" s="11" t="s">
@@ -12951,7 +12951,7 @@
         <v>70</v>
       </c>
       <c r="C227" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B227,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B227,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D227" s="11" t="s">
@@ -12984,7 +12984,7 @@
         <v>70</v>
       </c>
       <c r="C228" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B228,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B228,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D228" s="11" t="s">
@@ -13017,7 +13017,7 @@
         <v>70</v>
       </c>
       <c r="C229" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B229,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B229,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D229" s="11" t="s">
@@ -13050,7 +13050,7 @@
         <v>70</v>
       </c>
       <c r="C230" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B230,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B230,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D230" s="11" t="s">
@@ -13083,7 +13083,7 @@
         <v>70</v>
       </c>
       <c r="C231" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B231,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B231,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D231" s="11" t="s">
@@ -13116,7 +13116,7 @@
         <v>70</v>
       </c>
       <c r="C232" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B232,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B232,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D232" s="11" t="s">
@@ -13149,7 +13149,7 @@
         <v>70</v>
       </c>
       <c r="C233" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B233,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B233,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D233" s="11" t="s">
@@ -13182,7 +13182,7 @@
         <v>70</v>
       </c>
       <c r="C234" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B234,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B234,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D234" s="11" t="s">
@@ -13215,7 +13215,7 @@
         <v>70</v>
       </c>
       <c r="C235" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B235,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B235,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D235" s="11" t="s">
@@ -13248,7 +13248,7 @@
         <v>70</v>
       </c>
       <c r="C236" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B236,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B236,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D236" s="11" t="s">
@@ -13281,7 +13281,7 @@
         <v>70</v>
       </c>
       <c r="C237" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B237,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B237,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D237" s="11" t="s">
@@ -13314,7 +13314,7 @@
         <v>70</v>
       </c>
       <c r="C238" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B238,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B238,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D238" s="11" t="s">
@@ -13347,7 +13347,7 @@
         <v>70</v>
       </c>
       <c r="C239" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B239,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B239,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D239" s="11" t="s">
@@ -13380,7 +13380,7 @@
         <v>70</v>
       </c>
       <c r="C240" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B240,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B240,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D240" s="11" t="s">
@@ -13413,7 +13413,7 @@
         <v>70</v>
       </c>
       <c r="C241" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B241,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B241,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D241" s="11" t="s">
@@ -13446,7 +13446,7 @@
         <v>70</v>
       </c>
       <c r="C242" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B242,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B242,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D242" s="11" t="s">
@@ -13479,7 +13479,7 @@
         <v>70</v>
       </c>
       <c r="C243" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B243,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B243,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D243" s="11" t="s">
@@ -13512,7 +13512,7 @@
         <v>70</v>
       </c>
       <c r="C244" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B244,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B244,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D244" s="11" t="s">
@@ -13545,7 +13545,7 @@
         <v>70</v>
       </c>
       <c r="C245" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B245,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B245,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D245" s="11" t="s">
@@ -13578,7 +13578,7 @@
         <v>70</v>
       </c>
       <c r="C246" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B246,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B246,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D246" s="11" t="s">
@@ -13611,7 +13611,7 @@
         <v>70</v>
       </c>
       <c r="C247" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B247,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B247,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D247" s="11" t="s">
@@ -13644,7 +13644,7 @@
         <v>70</v>
       </c>
       <c r="C248" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B248,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B248,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D248" s="11" t="s">
@@ -13677,7 +13677,7 @@
         <v>70</v>
       </c>
       <c r="C249" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B249,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B249,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D249" s="11" t="s">
@@ -13710,7 +13710,7 @@
         <v>70</v>
       </c>
       <c r="C250" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B250,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B250,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D250" s="11" t="s">
@@ -13743,7 +13743,7 @@
         <v>70</v>
       </c>
       <c r="C251" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B251,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B251,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D251" s="11" t="s">
@@ -13776,7 +13776,7 @@
         <v>70</v>
       </c>
       <c r="C252" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B252,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B252,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D252" s="11" t="s">
@@ -13809,7 +13809,7 @@
         <v>70</v>
       </c>
       <c r="C253" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B253,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B253,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D253" s="11" t="s">
@@ -13842,7 +13842,7 @@
         <v>70</v>
       </c>
       <c r="C254" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B254,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B254,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D254" s="11" t="s">
@@ -13875,7 +13875,7 @@
         <v>70</v>
       </c>
       <c r="C255" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B255,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B255,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D255" s="11" t="s">
@@ -13908,7 +13908,7 @@
         <v>70</v>
       </c>
       <c r="C256" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B256,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B256,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D256" s="11" t="s">
@@ -13941,7 +13941,7 @@
         <v>70</v>
       </c>
       <c r="C257" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B257,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B257,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D257" s="11" t="s">
@@ -13974,7 +13974,7 @@
         <v>70</v>
       </c>
       <c r="C258" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B258,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B258,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D258" s="11" t="s">
@@ -14007,7 +14007,7 @@
         <v>70</v>
       </c>
       <c r="C259" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B259,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B259,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D259" s="11" t="s">
@@ -14040,7 +14040,7 @@
         <v>70</v>
       </c>
       <c r="C260" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B260,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B260,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D260" s="11" t="s">
@@ -14073,7 +14073,7 @@
         <v>70</v>
       </c>
       <c r="C261" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B261,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B261,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D261" s="11" t="s">
@@ -14106,7 +14106,7 @@
         <v>70</v>
       </c>
       <c r="C262" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B262,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B262,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D262" s="11" t="s">
@@ -14139,7 +14139,7 @@
         <v>70</v>
       </c>
       <c r="C263" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B263,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B263,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D263" s="11" t="s">
@@ -14172,7 +14172,7 @@
         <v>70</v>
       </c>
       <c r="C264" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B264,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B264,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D264" s="11" t="s">
@@ -14205,7 +14205,7 @@
         <v>70</v>
       </c>
       <c r="C265" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B265,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B265,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D265" s="11" t="s">
@@ -14238,7 +14238,7 @@
         <v>70</v>
       </c>
       <c r="C266" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B266,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B266,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D266" s="11" t="s">
@@ -14271,7 +14271,7 @@
         <v>70</v>
       </c>
       <c r="C267" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B267,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B267,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D267" s="11" t="s">
@@ -14304,7 +14304,7 @@
         <v>70</v>
       </c>
       <c r="C268" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B268,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B268,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D268" s="11" t="s">
@@ -14337,7 +14337,7 @@
         <v>70</v>
       </c>
       <c r="C269" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B269,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B269,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D269" s="11" t="s">
@@ -14370,7 +14370,7 @@
         <v>70</v>
       </c>
       <c r="C270" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B270,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B270,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D270" s="11" t="s">
@@ -14403,7 +14403,7 @@
         <v>70</v>
       </c>
       <c r="C271" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B271,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B271,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D271" s="11" t="s">
@@ -14436,7 +14436,7 @@
         <v>70</v>
       </c>
       <c r="C272" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B272,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B272,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D272" s="11" t="s">
@@ -14469,7 +14469,7 @@
         <v>70</v>
       </c>
       <c r="C273" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B273,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B273,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D273" s="11" t="s">
@@ -14502,7 +14502,7 @@
         <v>70</v>
       </c>
       <c r="C274" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B274,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B274,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D274" s="11" t="s">
@@ -14535,7 +14535,7 @@
         <v>70</v>
       </c>
       <c r="C275" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B275,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B275,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D275" s="11" t="s">
@@ -14568,7 +14568,7 @@
         <v>70</v>
       </c>
       <c r="C276" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B276,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B276,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D276" s="11" t="s">
@@ -14601,7 +14601,7 @@
         <v>70</v>
       </c>
       <c r="C277" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B277,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B277,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D277" s="11" t="s">
@@ -14634,7 +14634,7 @@
         <v>70</v>
       </c>
       <c r="C278" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B278,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B278,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D278" s="11" t="s">
@@ -14667,7 +14667,7 @@
         <v>70</v>
       </c>
       <c r="C279" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B279,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B279,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D279" s="11" t="s">
@@ -14700,7 +14700,7 @@
         <v>70</v>
       </c>
       <c r="C280" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B280,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B280,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D280" s="11" t="s">
@@ -14733,7 +14733,7 @@
         <v>70</v>
       </c>
       <c r="C281" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B281,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B281,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D281" s="11" t="s">
@@ -14766,7 +14766,7 @@
         <v>70</v>
       </c>
       <c r="C282" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B282,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B282,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D282" s="11" t="s">
@@ -14799,7 +14799,7 @@
         <v>70</v>
       </c>
       <c r="C283" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B283,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B283,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D283" s="11" t="s">
@@ -14832,7 +14832,7 @@
         <v>70</v>
       </c>
       <c r="C284" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B284,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B284,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D284" s="11" t="s">
@@ -14865,7 +14865,7 @@
         <v>70</v>
       </c>
       <c r="C285" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B285,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B285,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D285" s="11" t="s">
@@ -14898,7 +14898,7 @@
         <v>70</v>
       </c>
       <c r="C286" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B286,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B286,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D286" s="11" t="s">
@@ -14931,7 +14931,7 @@
         <v>70</v>
       </c>
       <c r="C287" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B287,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B287,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D287" s="11" t="s">
@@ -14964,7 +14964,7 @@
         <v>70</v>
       </c>
       <c r="C288" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B288,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B288,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D288" s="11" t="s">
@@ -14997,7 +14997,7 @@
         <v>70</v>
       </c>
       <c r="C289" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B289,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B289,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D289" s="11" t="s">
@@ -15030,7 +15030,7 @@
         <v>70</v>
       </c>
       <c r="C290" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B290,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B290,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D290" s="11" t="s">
@@ -15063,7 +15063,7 @@
         <v>70</v>
       </c>
       <c r="C291" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B291,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B291,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D291" s="11" t="s">
@@ -15096,7 +15096,7 @@
         <v>70</v>
       </c>
       <c r="C292" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B292,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B292,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D292" s="11" t="s">
@@ -15129,7 +15129,7 @@
         <v>70</v>
       </c>
       <c r="C293" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B293,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B293,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D293" s="11" t="s">
@@ -15162,7 +15162,7 @@
         <v>70</v>
       </c>
       <c r="C294" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B294,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B294,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D294" s="11" t="s">
@@ -15195,7 +15195,7 @@
         <v>70</v>
       </c>
       <c r="C295" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B295,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B295,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D295" s="11" t="s">
@@ -15228,7 +15228,7 @@
         <v>70</v>
       </c>
       <c r="C296" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B296,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B296,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D296" s="11" t="s">
@@ -15261,7 +15261,7 @@
         <v>70</v>
       </c>
       <c r="C297" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B297,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B297,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D297" s="11" t="s">
@@ -15294,7 +15294,7 @@
         <v>70</v>
       </c>
       <c r="C298" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B298,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B298,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D298" s="11" t="s">
@@ -15327,7 +15327,7 @@
         <v>70</v>
       </c>
       <c r="C299" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B299,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B299,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D299" s="11" t="s">
@@ -15360,7 +15360,7 @@
         <v>70</v>
       </c>
       <c r="C300" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B300,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B300,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D300" s="11" t="s">
@@ -15393,7 +15393,7 @@
         <v>70</v>
       </c>
       <c r="C301" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B301,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B301,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D301" s="11" t="s">
@@ -15426,7 +15426,7 @@
         <v>70</v>
       </c>
       <c r="C302" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B302,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B302,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D302" s="11" t="s">
@@ -15459,7 +15459,7 @@
         <v>70</v>
       </c>
       <c r="C303" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B303,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B303,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D303" s="11" t="s">
@@ -15492,7 +15492,7 @@
         <v>70</v>
       </c>
       <c r="C304" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B304,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B304,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D304" s="11" t="s">
@@ -15525,7 +15525,7 @@
         <v>70</v>
       </c>
       <c r="C305" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B305,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B305,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D305" s="11" t="s">
@@ -15558,7 +15558,7 @@
         <v>70</v>
       </c>
       <c r="C306" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B306,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B306,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D306" s="11" t="s">
@@ -15591,7 +15591,7 @@
         <v>70</v>
       </c>
       <c r="C307" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B307,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B307,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D307" s="11" t="s">
@@ -15624,7 +15624,7 @@
         <v>70</v>
       </c>
       <c r="C308" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B308,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B308,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D308" s="11" t="s">
@@ -15657,7 +15657,7 @@
         <v>70</v>
       </c>
       <c r="C309" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B309,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B309,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D309" s="11" t="s">
@@ -15690,7 +15690,7 @@
         <v>70</v>
       </c>
       <c r="C310" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B310,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B310,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D310" s="11" t="s">
@@ -15723,7 +15723,7 @@
         <v>70</v>
       </c>
       <c r="C311" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B311,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B311,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D311" s="11" t="s">
@@ -15756,7 +15756,7 @@
         <v>70</v>
       </c>
       <c r="C312" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B312,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B312,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D312" s="11" t="s">
@@ -15789,7 +15789,7 @@
         <v>70</v>
       </c>
       <c r="C313" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B313,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B313,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D313" s="11" t="s">
@@ -15822,7 +15822,7 @@
         <v>70</v>
       </c>
       <c r="C314" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B314,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B314,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D314" s="11" t="s">
@@ -15855,7 +15855,7 @@
         <v>70</v>
       </c>
       <c r="C315" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B315,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B315,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D315" s="11" t="s">
@@ -15888,7 +15888,7 @@
         <v>70</v>
       </c>
       <c r="C316" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B316,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B316,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D316" s="11" t="s">
@@ -15921,7 +15921,7 @@
         <v>70</v>
       </c>
       <c r="C317" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B317,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B317,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D317" s="11" t="s">
@@ -15954,7 +15954,7 @@
         <v>70</v>
       </c>
       <c r="C318" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B318,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B318,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D318" s="11" t="s">
@@ -15987,7 +15987,7 @@
         <v>70</v>
       </c>
       <c r="C319" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B319,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B319,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D319" s="11" t="s">
@@ -16020,7 +16020,7 @@
         <v>70</v>
       </c>
       <c r="C320" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B320,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B320,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D320" s="11" t="s">
@@ -16053,7 +16053,7 @@
         <v>70</v>
       </c>
       <c r="C321" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B321,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B321,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D321" s="11" t="s">
@@ -16086,7 +16086,7 @@
         <v>70</v>
       </c>
       <c r="C322" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B322,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B322,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D322" s="11" t="s">
@@ -16119,7 +16119,7 @@
         <v>70</v>
       </c>
       <c r="C323" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B323,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B323,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D323" s="11" t="s">
@@ -16152,7 +16152,7 @@
         <v>70</v>
       </c>
       <c r="C324" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B324,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B324,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D324" s="11" t="s">
@@ -16185,7 +16185,7 @@
         <v>70</v>
       </c>
       <c r="C325" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B325,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B325,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D325" s="11" t="s">
@@ -16218,7 +16218,7 @@
         <v>70</v>
       </c>
       <c r="C326" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B326,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B326,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D326" s="11" t="s">
@@ -16251,7 +16251,7 @@
         <v>70</v>
       </c>
       <c r="C327" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B327,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B327,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D327" s="11" t="s">
@@ -16284,7 +16284,7 @@
         <v>70</v>
       </c>
       <c r="C328" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B328,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B328,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D328" s="11" t="s">
@@ -16317,7 +16317,7 @@
         <v>70</v>
       </c>
       <c r="C329" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B329,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B329,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D329" s="11" t="s">
@@ -16350,7 +16350,7 @@
         <v>70</v>
       </c>
       <c r="C330" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B330,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B330,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D330" s="11" t="s">
@@ -16383,7 +16383,7 @@
         <v>70</v>
       </c>
       <c r="C331" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B331,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B331,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D331" s="11" t="s">
@@ -16416,7 +16416,7 @@
         <v>70</v>
       </c>
       <c r="C332" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B332,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B332,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D332" s="11" t="s">
@@ -16449,7 +16449,7 @@
         <v>70</v>
       </c>
       <c r="C333" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B333,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B333,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D333" s="11" t="s">
@@ -16482,7 +16482,7 @@
         <v>70</v>
       </c>
       <c r="C334" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B334,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B334,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D334" s="11" t="s">
@@ -16515,7 +16515,7 @@
         <v>70</v>
       </c>
       <c r="C335" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B335,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B335,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D335" s="11" t="s">
@@ -16548,7 +16548,7 @@
         <v>70</v>
       </c>
       <c r="C336" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B336,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B336,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D336" s="11" t="s">
@@ -16581,7 +16581,7 @@
         <v>70</v>
       </c>
       <c r="C337" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B337,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B337,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D337" s="11" t="s">
@@ -16614,7 +16614,7 @@
         <v>70</v>
       </c>
       <c r="C338" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B338,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B338,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D338" s="11" t="s">
@@ -16647,7 +16647,7 @@
         <v>70</v>
       </c>
       <c r="C339" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B339,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B339,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D339" s="11" t="s">
@@ -16680,7 +16680,7 @@
         <v>70</v>
       </c>
       <c r="C340" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B340,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B340,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D340" s="11" t="s">
@@ -16713,7 +16713,7 @@
         <v>70</v>
       </c>
       <c r="C341" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B341,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B341,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D341" s="11" t="s">
@@ -16746,7 +16746,7 @@
         <v>70</v>
       </c>
       <c r="C342" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B342,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B342,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D342" s="11" t="s">
@@ -16779,7 +16779,7 @@
         <v>70</v>
       </c>
       <c r="C343" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B343,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B343,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D343" s="11" t="s">
@@ -16812,7 +16812,7 @@
         <v>70</v>
       </c>
       <c r="C344" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B344,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B344,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D344" s="11" t="s">
@@ -16845,7 +16845,7 @@
         <v>70</v>
       </c>
       <c r="C345" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B345,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B345,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D345" s="11" t="s">
@@ -16878,7 +16878,7 @@
         <v>70</v>
       </c>
       <c r="C346" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B346,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B346,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D346" s="11" t="s">
@@ -16911,7 +16911,7 @@
         <v>70</v>
       </c>
       <c r="C347" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B347,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B347,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D347" s="11" t="s">
@@ -16944,7 +16944,7 @@
         <v>70</v>
       </c>
       <c r="C348" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B348,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B348,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D348" s="11" t="s">
@@ -16977,7 +16977,7 @@
         <v>70</v>
       </c>
       <c r="C349" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B349,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B349,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D349" s="11" t="s">
@@ -17010,7 +17010,7 @@
         <v>70</v>
       </c>
       <c r="C350" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B350,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B350,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D350" s="11" t="s">
@@ -17043,7 +17043,7 @@
         <v>70</v>
       </c>
       <c r="C351" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B351,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B351,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D351" s="11" t="s">
@@ -17076,7 +17076,7 @@
         <v>70</v>
       </c>
       <c r="C352" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B352,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B352,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D352" s="11" t="s">
@@ -17109,7 +17109,7 @@
         <v>70</v>
       </c>
       <c r="C353" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B353,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B353,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D353" s="11" t="s">
@@ -17142,7 +17142,7 @@
         <v>70</v>
       </c>
       <c r="C354" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B354,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B354,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D354" s="11" t="s">
@@ -17175,7 +17175,7 @@
         <v>70</v>
       </c>
       <c r="C355" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B355,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B355,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D355" s="11" t="s">
@@ -17208,7 +17208,7 @@
         <v>70</v>
       </c>
       <c r="C356" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B356,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B356,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D356" s="11" t="s">
@@ -17241,7 +17241,7 @@
         <v>70</v>
       </c>
       <c r="C357" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B357,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B357,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D357" s="11" t="s">
@@ -17274,7 +17274,7 @@
         <v>70</v>
       </c>
       <c r="C358" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B358,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B358,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D358" s="11" t="s">
@@ -17307,7 +17307,7 @@
         <v>70</v>
       </c>
       <c r="C359" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B359,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B359,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D359" s="11" t="s">
@@ -17340,7 +17340,7 @@
         <v>70</v>
       </c>
       <c r="C360" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B360,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B360,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D360" s="11" t="s">
@@ -17373,7 +17373,7 @@
         <v>70</v>
       </c>
       <c r="C361" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B361,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B361,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D361" s="11" t="s">
@@ -17406,7 +17406,7 @@
         <v>70</v>
       </c>
       <c r="C362" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B362,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B362,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D362" s="11" t="s">
@@ -17439,7 +17439,7 @@
         <v>70</v>
       </c>
       <c r="C363" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B363,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B363,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D363" s="11" t="s">
@@ -17472,7 +17472,7 @@
         <v>70</v>
       </c>
       <c r="C364" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B364,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B364,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D364" s="11" t="s">
@@ -17505,7 +17505,7 @@
         <v>70</v>
       </c>
       <c r="C365" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B365,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B365,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D365" s="11" t="s">
@@ -17538,7 +17538,7 @@
         <v>70</v>
       </c>
       <c r="C366" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B366,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B366,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D366" s="11" t="s">
@@ -17571,7 +17571,7 @@
         <v>70</v>
       </c>
       <c r="C367" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B367,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B367,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D367" s="11" t="s">
@@ -17604,7 +17604,7 @@
         <v>70</v>
       </c>
       <c r="C368" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B368,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B368,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D368" s="11" t="s">
@@ -17637,7 +17637,7 @@
         <v>70</v>
       </c>
       <c r="C369" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B369,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B369,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D369" s="11" t="s">
@@ -17670,7 +17670,7 @@
         <v>70</v>
       </c>
       <c r="C370" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B370,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B370,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D370" s="11" t="s">
@@ -17703,7 +17703,7 @@
         <v>70</v>
       </c>
       <c r="C371" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B371,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B371,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D371" s="11" t="s">
@@ -17736,7 +17736,7 @@
         <v>70</v>
       </c>
       <c r="C372" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B372,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B372,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D372" s="11" t="s">
@@ -17769,7 +17769,7 @@
         <v>70</v>
       </c>
       <c r="C373" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B373,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B373,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D373" s="11" t="s">
@@ -17802,7 +17802,7 @@
         <v>70</v>
       </c>
       <c r="C374" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B374,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B374,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D374" s="11" t="s">
@@ -17835,7 +17835,7 @@
         <v>70</v>
       </c>
       <c r="C375" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B375,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B375,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D375" s="11" t="s">
@@ -17868,7 +17868,7 @@
         <v>70</v>
       </c>
       <c r="C376" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B376,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B376,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D376" s="11" t="s">
@@ -17901,7 +17901,7 @@
         <v>70</v>
       </c>
       <c r="C377" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B377,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B377,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D377" s="11" t="s">
@@ -17934,7 +17934,7 @@
         <v>70</v>
       </c>
       <c r="C378" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B378,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B378,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D378" s="11" t="s">
@@ -17967,7 +17967,7 @@
         <v>70</v>
       </c>
       <c r="C379" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B379,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B379,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D379" s="11" t="s">
@@ -18000,7 +18000,7 @@
         <v>70</v>
       </c>
       <c r="C380" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B380,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B380,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D380" s="11" t="s">
@@ -18033,7 +18033,7 @@
         <v>70</v>
       </c>
       <c r="C381" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B381,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B381,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D381" s="11" t="s">
@@ -18066,7 +18066,7 @@
         <v>70</v>
       </c>
       <c r="C382" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B382,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B382,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D382" s="11" t="s">
@@ -18099,7 +18099,7 @@
         <v>70</v>
       </c>
       <c r="C383" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B383,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B383,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D383" s="11" t="s">
@@ -18132,7 +18132,7 @@
         <v>70</v>
       </c>
       <c r="C384" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B384,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B384,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D384" s="11" t="s">
@@ -18165,7 +18165,7 @@
         <v>70</v>
       </c>
       <c r="C385" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B385,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B385,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D385" s="11" t="s">
@@ -18198,7 +18198,7 @@
         <v>70</v>
       </c>
       <c r="C386" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B386,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B386,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D386" s="11" t="s">
@@ -18231,7 +18231,7 @@
         <v>70</v>
       </c>
       <c r="C387" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B387,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B387,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D387" s="11" t="s">
@@ -18264,7 +18264,7 @@
         <v>70</v>
       </c>
       <c r="C388" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B388,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B388,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D388" s="11" t="s">
@@ -18297,7 +18297,7 @@
         <v>70</v>
       </c>
       <c r="C389" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B389,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B389,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D389" s="11" t="s">
@@ -18330,7 +18330,7 @@
         <v>70</v>
       </c>
       <c r="C390" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B390,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B390,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D390" s="11" t="s">
@@ -18363,7 +18363,7 @@
         <v>70</v>
       </c>
       <c r="C391" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B391,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B391,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D391" s="11" t="s">
@@ -18396,7 +18396,7 @@
         <v>70</v>
       </c>
       <c r="C392" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B392,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B392,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D392" s="11" t="s">
@@ -18429,7 +18429,7 @@
         <v>70</v>
       </c>
       <c r="C393" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B393,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B393,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D393" s="11" t="s">
@@ -18462,7 +18462,7 @@
         <v>70</v>
       </c>
       <c r="C394" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B394,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B394,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D394" s="11" t="s">
@@ -18495,7 +18495,7 @@
         <v>70</v>
       </c>
       <c r="C395" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B395,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B395,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D395" s="11" t="s">
@@ -18528,7 +18528,7 @@
         <v>70</v>
       </c>
       <c r="C396" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B396,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B396,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D396" s="11" t="s">
@@ -18561,7 +18561,7 @@
         <v>70</v>
       </c>
       <c r="C397" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B397,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B397,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D397" s="11" t="s">
@@ -18594,7 +18594,7 @@
         <v>70</v>
       </c>
       <c r="C398" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B398,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B398,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D398" s="11" t="s">
@@ -18627,7 +18627,7 @@
         <v>70</v>
       </c>
       <c r="C399" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B399,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B399,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D399" s="11" t="s">
@@ -18660,7 +18660,7 @@
         <v>70</v>
       </c>
       <c r="C400" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B400,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B400,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D400" s="11" t="s">
@@ -18693,7 +18693,7 @@
         <v>70</v>
       </c>
       <c r="C401" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B401,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B401,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D401" s="11" t="s">
@@ -18726,7 +18726,7 @@
         <v>70</v>
       </c>
       <c r="C402" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B402,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B402,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D402" s="11" t="s">
@@ -18759,7 +18759,7 @@
         <v>70</v>
       </c>
       <c r="C403" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B403,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B403,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D403" s="11" t="s">
@@ -18792,7 +18792,7 @@
         <v>70</v>
       </c>
       <c r="C404" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B404,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B404,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D404" s="11" t="s">
@@ -18825,7 +18825,7 @@
         <v>70</v>
       </c>
       <c r="C405" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B405,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B405,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D405" s="11" t="s">
@@ -18858,7 +18858,7 @@
         <v>70</v>
       </c>
       <c r="C406" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B406,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B406,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D406" s="11" t="s">
@@ -18891,7 +18891,7 @@
         <v>70</v>
       </c>
       <c r="C407" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B407,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B407,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D407" s="11" t="s">
@@ -18924,7 +18924,7 @@
         <v>70</v>
       </c>
       <c r="C408" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B408,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B408,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D408" s="11" t="s">
@@ -18957,7 +18957,7 @@
         <v>70</v>
       </c>
       <c r="C409" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B409,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B409,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D409" s="11" t="s">
@@ -18990,7 +18990,7 @@
         <v>70</v>
       </c>
       <c r="C410" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B410,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B410,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D410" s="11" t="s">
@@ -19023,7 +19023,7 @@
         <v>70</v>
       </c>
       <c r="C411" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B411,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B411,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D411" s="11" t="s">
@@ -19056,7 +19056,7 @@
         <v>70</v>
       </c>
       <c r="C412" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B412,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B412,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D412" s="11" t="s">
@@ -19089,7 +19089,7 @@
         <v>70</v>
       </c>
       <c r="C413" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B413,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B413,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D413" s="11" t="s">
@@ -19122,7 +19122,7 @@
         <v>70</v>
       </c>
       <c r="C414" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B414,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B414,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D414" s="11" t="s">
@@ -19155,7 +19155,7 @@
         <v>70</v>
       </c>
       <c r="C415" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B415,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B415,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D415" s="11" t="s">
@@ -19188,7 +19188,7 @@
         <v>70</v>
       </c>
       <c r="C416" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B416,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B416,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D416" s="11" t="s">
@@ -19221,7 +19221,7 @@
         <v>70</v>
       </c>
       <c r="C417" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B417,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B417,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D417" s="11" t="s">
@@ -19254,7 +19254,7 @@
         <v>70</v>
       </c>
       <c r="C418" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B418,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B418,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D418" s="11" t="s">
@@ -19287,7 +19287,7 @@
         <v>70</v>
       </c>
       <c r="C419" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B419,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B419,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D419" s="11" t="s">
@@ -19320,7 +19320,7 @@
         <v>70</v>
       </c>
       <c r="C420" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B420,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B420,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D420" s="11" t="s">
@@ -19353,7 +19353,7 @@
         <v>70</v>
       </c>
       <c r="C421" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B421,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B421,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D421" s="11" t="s">
@@ -19386,7 +19386,7 @@
         <v>70</v>
       </c>
       <c r="C422" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B422,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B422,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D422" s="11" t="s">
@@ -19419,7 +19419,7 @@
         <v>70</v>
       </c>
       <c r="C423" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B423,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B423,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D423" s="11" t="s">
@@ -19452,7 +19452,7 @@
         <v>70</v>
       </c>
       <c r="C424" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B424,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B424,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D424" s="11" t="s">
@@ -19485,7 +19485,7 @@
         <v>70</v>
       </c>
       <c r="C425" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B425,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B425,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D425" s="11" t="s">
@@ -19518,7 +19518,7 @@
         <v>70</v>
       </c>
       <c r="C426" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B426,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B426,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D426" s="11" t="s">
@@ -19551,7 +19551,7 @@
         <v>70</v>
       </c>
       <c r="C427" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B427,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B427,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D427" s="11" t="s">
@@ -19584,7 +19584,7 @@
         <v>70</v>
       </c>
       <c r="C428" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B428,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B428,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D428" s="11" t="s">
@@ -19617,7 +19617,7 @@
         <v>70</v>
       </c>
       <c r="C429" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B429,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B429,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D429" s="11" t="s">
@@ -19650,7 +19650,7 @@
         <v>70</v>
       </c>
       <c r="C430" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B430,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B430,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D430" s="11" t="s">
@@ -19683,7 +19683,7 @@
         <v>70</v>
       </c>
       <c r="C431" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B431,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B431,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D431" s="11" t="s">
@@ -19716,7 +19716,7 @@
         <v>70</v>
       </c>
       <c r="C432" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B432,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B432,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D432" s="11" t="s">
@@ -19749,7 +19749,7 @@
         <v>70</v>
       </c>
       <c r="C433" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B433,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B433,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D433" s="11" t="s">
@@ -19782,7 +19782,7 @@
         <v>70</v>
       </c>
       <c r="C434" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B434,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B434,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D434" s="11" t="s">
@@ -19815,7 +19815,7 @@
         <v>70</v>
       </c>
       <c r="C435" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B435,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B435,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D435" s="11" t="s">
@@ -19848,7 +19848,7 @@
         <v>70</v>
       </c>
       <c r="C436" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B436,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B436,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D436" s="11" t="s">
@@ -19881,7 +19881,7 @@
         <v>70</v>
       </c>
       <c r="C437" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B437,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B437,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D437" s="11" t="s">
@@ -19914,7 +19914,7 @@
         <v>70</v>
       </c>
       <c r="C438" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B438,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B438,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D438" s="11" t="s">
@@ -19947,7 +19947,7 @@
         <v>70</v>
       </c>
       <c r="C439" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B439,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B439,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D439" s="11" t="s">
@@ -19980,7 +19980,7 @@
         <v>70</v>
       </c>
       <c r="C440" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B440,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B440,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D440" s="11" t="s">
@@ -20013,7 +20013,7 @@
         <v>70</v>
       </c>
       <c r="C441" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B441,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B441,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D441" s="11" t="s">
@@ -20046,7 +20046,7 @@
         <v>70</v>
       </c>
       <c r="C442" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B442,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B442,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D442" s="11" t="s">
@@ -20079,7 +20079,7 @@
         <v>70</v>
       </c>
       <c r="C443" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B443,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B443,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D443" s="11" t="s">
@@ -20112,7 +20112,7 @@
         <v>70</v>
       </c>
       <c r="C444" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B444,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B444,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D444" s="11" t="s">
@@ -20145,7 +20145,7 @@
         <v>70</v>
       </c>
       <c r="C445" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B445,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B445,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D445" s="11" t="s">
@@ -20178,7 +20178,7 @@
         <v>70</v>
       </c>
       <c r="C446" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B446,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B446,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D446" s="11" t="s">
@@ -20211,7 +20211,7 @@
         <v>70</v>
       </c>
       <c r="C447" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B447,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B447,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D447" s="11" t="s">
@@ -20244,7 +20244,7 @@
         <v>70</v>
       </c>
       <c r="C448" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B448,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B448,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D448" s="11" t="s">
@@ -20277,7 +20277,7 @@
         <v>70</v>
       </c>
       <c r="C449" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B449,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B449,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D449" s="11" t="s">
@@ -20310,7 +20310,7 @@
         <v>70</v>
       </c>
       <c r="C450" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B450,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B450,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D450" s="11" t="s">
@@ -20343,7 +20343,7 @@
         <v>70</v>
       </c>
       <c r="C451" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B451,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B451,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D451" s="11" t="s">
@@ -20376,7 +20376,7 @@
         <v>70</v>
       </c>
       <c r="C452" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B452,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B452,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D452" s="11" t="s">
@@ -20409,7 +20409,7 @@
         <v>70</v>
       </c>
       <c r="C453" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B453,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B453,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D453" s="11" t="s">
@@ -20442,7 +20442,7 @@
         <v>70</v>
       </c>
       <c r="C454" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B454,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B454,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D454" s="11" t="s">
@@ -20475,7 +20475,7 @@
         <v>70</v>
       </c>
       <c r="C455" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B455,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B455,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D455" s="11" t="s">
@@ -20508,7 +20508,7 @@
         <v>70</v>
       </c>
       <c r="C456" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B456,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B456,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D456" s="11" t="s">
@@ -20541,7 +20541,7 @@
         <v>70</v>
       </c>
       <c r="C457" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B457,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B457,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D457" s="11" t="s">
@@ -20574,7 +20574,7 @@
         <v>70</v>
       </c>
       <c r="C458" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B458,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B458,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D458" s="11" t="s">
@@ -20607,7 +20607,7 @@
         <v>70</v>
       </c>
       <c r="C459" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B459,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B459,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D459" s="11" t="s">
@@ -20640,7 +20640,7 @@
         <v>70</v>
       </c>
       <c r="C460" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B460,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B460,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D460" s="11" t="s">
@@ -20673,7 +20673,7 @@
         <v>70</v>
       </c>
       <c r="C461" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B461,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B461,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D461" s="11" t="s">
@@ -20706,7 +20706,7 @@
         <v>70</v>
       </c>
       <c r="C462" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B462,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B462,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D462" s="11" t="s">
@@ -20739,7 +20739,7 @@
         <v>70</v>
       </c>
       <c r="C463" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B463,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B463,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D463" s="11" t="s">
@@ -20772,7 +20772,7 @@
         <v>70</v>
       </c>
       <c r="C464" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B464,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B464,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D464" s="11" t="s">
@@ -20805,7 +20805,7 @@
         <v>70</v>
       </c>
       <c r="C465" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B465,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B465,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D465" s="11" t="s">
@@ -20838,7 +20838,7 @@
         <v>70</v>
       </c>
       <c r="C466" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B466,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B466,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D466" s="11" t="s">
@@ -20871,7 +20871,7 @@
         <v>70</v>
       </c>
       <c r="C467" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B467,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B467,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D467" s="11" t="s">
@@ -20904,7 +20904,7 @@
         <v>70</v>
       </c>
       <c r="C468" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B468,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B468,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D468" s="11" t="s">
@@ -20937,7 +20937,7 @@
         <v>70</v>
       </c>
       <c r="C469" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B469,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B469,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D469" s="11" t="s">
@@ -20970,7 +20970,7 @@
         <v>70</v>
       </c>
       <c r="C470" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B470,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B470,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D470" s="11" t="s">
@@ -21003,7 +21003,7 @@
         <v>70</v>
       </c>
       <c r="C471" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B471,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B471,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D471" s="11" t="s">
@@ -21036,7 +21036,7 @@
         <v>70</v>
       </c>
       <c r="C472" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B472,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B472,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D472" s="11" t="s">
@@ -21069,7 +21069,7 @@
         <v>70</v>
       </c>
       <c r="C473" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B473,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B473,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D473" s="11" t="s">
@@ -21102,7 +21102,7 @@
         <v>70</v>
       </c>
       <c r="C474" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B474,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B474,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D474" s="11" t="s">
@@ -21135,7 +21135,7 @@
         <v>70</v>
       </c>
       <c r="C475" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B475,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B475,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D475" s="11" t="s">
@@ -21168,7 +21168,7 @@
         <v>70</v>
       </c>
       <c r="C476" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B476,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B476,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D476" s="11" t="s">
@@ -21201,7 +21201,7 @@
         <v>70</v>
       </c>
       <c r="C477" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B477,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B477,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D477" s="11" t="s">
@@ -21234,7 +21234,7 @@
         <v>70</v>
       </c>
       <c r="C478" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B478,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B478,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D478" s="11" t="s">
@@ -21267,7 +21267,7 @@
         <v>70</v>
       </c>
       <c r="C479" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B479,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B479,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D479" s="11" t="s">
@@ -21300,7 +21300,7 @@
         <v>70</v>
       </c>
       <c r="C480" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B480,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B480,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D480" s="11" t="s">
@@ -21333,7 +21333,7 @@
         <v>70</v>
       </c>
       <c r="C481" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B481,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B481,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D481" s="11" t="s">
@@ -21366,7 +21366,7 @@
         <v>70</v>
       </c>
       <c r="C482" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B482,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B482,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D482" s="11" t="s">
@@ -21399,7 +21399,7 @@
         <v>70</v>
       </c>
       <c r="C483" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B483,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B483,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D483" s="11" t="s">
@@ -21432,7 +21432,7 @@
         <v>70</v>
       </c>
       <c r="C484" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B484,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B484,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D484" s="11" t="s">
@@ -21465,7 +21465,7 @@
         <v>70</v>
       </c>
       <c r="C485" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B485,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B485,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D485" s="11" t="s">
@@ -21498,7 +21498,7 @@
         <v>70</v>
       </c>
       <c r="C486" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B486,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B486,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D486" s="11" t="s">
@@ -21531,7 +21531,7 @@
         <v>70</v>
       </c>
       <c r="C487" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B487,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B487,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D487" s="11" t="s">
@@ -21564,7 +21564,7 @@
         <v>70</v>
       </c>
       <c r="C488" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B488,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B488,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D488" s="11" t="s">
@@ -21597,7 +21597,7 @@
         <v>70</v>
       </c>
       <c r="C489" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B489,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B489,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D489" s="11" t="s">
@@ -21630,7 +21630,7 @@
         <v>70</v>
       </c>
       <c r="C490" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B490,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B490,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D490" s="11" t="s">
@@ -21663,7 +21663,7 @@
         <v>70</v>
       </c>
       <c r="C491" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B491,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B491,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D491" s="11" t="s">
@@ -21696,7 +21696,7 @@
         <v>70</v>
       </c>
       <c r="C492" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B492,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B492,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D492" s="11" t="s">
@@ -21729,7 +21729,7 @@
         <v>70</v>
       </c>
       <c r="C493" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B493,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B493,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D493" s="11" t="s">
@@ -21762,7 +21762,7 @@
         <v>70</v>
       </c>
       <c r="C494" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B494,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B494,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D494" s="11" t="s">
@@ -21795,7 +21795,7 @@
         <v>70</v>
       </c>
       <c r="C495" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B495,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B495,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D495" s="11" t="s">
@@ -21828,7 +21828,7 @@
         <v>70</v>
       </c>
       <c r="C496" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B496,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B496,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D496" s="11" t="s">
@@ -21861,7 +21861,7 @@
         <v>70</v>
       </c>
       <c r="C497" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B497,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B497,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D497" s="11" t="s">
@@ -21894,7 +21894,7 @@
         <v>70</v>
       </c>
       <c r="C498" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B498,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B498,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D498" s="11" t="s">
@@ -21927,7 +21927,7 @@
         <v>70</v>
       </c>
       <c r="C499" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B499,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B499,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D499" s="11" t="s">
@@ -21960,7 +21960,7 @@
         <v>70</v>
       </c>
       <c r="C500" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B500,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B500,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D500" s="11" t="s">
@@ -21993,7 +21993,7 @@
         <v>70</v>
       </c>
       <c r="C501" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B501,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B501,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D501" s="11" t="s">
@@ -22026,7 +22026,7 @@
         <v>70</v>
       </c>
       <c r="C502" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B502,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B502,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D502" s="11" t="s">
@@ -22059,7 +22059,7 @@
         <v>70</v>
       </c>
       <c r="C503" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B503,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B503,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D503" s="11" t="s">
@@ -22092,7 +22092,7 @@
         <v>70</v>
       </c>
       <c r="C504" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B504,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B504,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D504" s="11" t="s">
@@ -22125,7 +22125,7 @@
         <v>70</v>
       </c>
       <c r="C505" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B505,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B505,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D505" s="11" t="s">
@@ -22158,7 +22158,7 @@
         <v>70</v>
       </c>
       <c r="C506" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B506,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B506,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D506" s="11" t="s">
@@ -22191,7 +22191,7 @@
         <v>70</v>
       </c>
       <c r="C507" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B507,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B507,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D507" s="11" t="s">
@@ -22224,7 +22224,7 @@
         <v>70</v>
       </c>
       <c r="C508" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B508,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B508,Planilha1!A:A,0),1)</f>
         <v>HIDRAULICOS</v>
       </c>
       <c r="D508" s="11" t="s">
@@ -22257,7 +22257,7 @@
         <v>80</v>
       </c>
       <c r="C509" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B509,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B509,Planilha1!A:A,0),1)</f>
         <v>INFORMATICA</v>
       </c>
       <c r="D509" s="11" t="s">
@@ -22290,7 +22290,7 @@
         <v>85</v>
       </c>
       <c r="C510" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B510,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B510,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D510" s="11" t="s">
@@ -22323,7 +22323,7 @@
         <v>85</v>
       </c>
       <c r="C511" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B511,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B511,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D511" s="11" t="s">
@@ -22356,7 +22356,7 @@
         <v>85</v>
       </c>
       <c r="C512" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B512,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B512,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D512" s="11" t="s">
@@ -22389,7 +22389,7 @@
         <v>85</v>
       </c>
       <c r="C513" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B513,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B513,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D513" s="11" t="s">
@@ -22422,7 +22422,7 @@
         <v>85</v>
       </c>
       <c r="C514" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B514,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B514,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D514" s="11" t="s">
@@ -22455,7 +22455,7 @@
         <v>85</v>
       </c>
       <c r="C515" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B515,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B515,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D515" s="11" t="s">
@@ -22488,7 +22488,7 @@
         <v>85</v>
       </c>
       <c r="C516" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B516,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B516,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D516" s="11" t="s">
@@ -22521,7 +22521,7 @@
         <v>85</v>
       </c>
       <c r="C517" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B517,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B517,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D517" s="11" t="s">
@@ -22554,7 +22554,7 @@
         <v>85</v>
       </c>
       <c r="C518" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B518,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B518,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D518" s="11" t="s">
@@ -22587,7 +22587,7 @@
         <v>85</v>
       </c>
       <c r="C519" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B519,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B519,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D519" s="11" t="s">
@@ -22620,7 +22620,7 @@
         <v>85</v>
       </c>
       <c r="C520" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B520,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B520,Planilha1!A:A,0),1)</f>
         <v>INSTRUMENTACAO</v>
       </c>
       <c r="D520" s="11" t="s">
@@ -22653,7 +22653,7 @@
         <v>95</v>
       </c>
       <c r="C521" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B521,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B521,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D521" s="11" t="s">
@@ -22686,7 +22686,7 @@
         <v>95</v>
       </c>
       <c r="C522" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B522,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B522,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D522" s="11" t="s">
@@ -22719,7 +22719,7 @@
         <v>95</v>
       </c>
       <c r="C523" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B523,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B523,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D523" s="11" t="s">
@@ -22752,7 +22752,7 @@
         <v>95</v>
       </c>
       <c r="C524" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B524,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B524,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D524" s="11" t="s">
@@ -22785,7 +22785,7 @@
         <v>95</v>
       </c>
       <c r="C525" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B525,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B525,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D525" s="11" t="s">
@@ -22818,7 +22818,7 @@
         <v>95</v>
       </c>
       <c r="C526" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B526,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B526,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D526" s="11" t="s">
@@ -22851,7 +22851,7 @@
         <v>95</v>
       </c>
       <c r="C527" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B527,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B527,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D527" s="11" t="s">
@@ -22884,7 +22884,7 @@
         <v>95</v>
       </c>
       <c r="C528" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B528,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B528,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D528" s="11" t="s">
@@ -22917,7 +22917,7 @@
         <v>95</v>
       </c>
       <c r="C529" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B529,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B529,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D529" s="11" t="s">
@@ -22950,7 +22950,7 @@
         <v>95</v>
       </c>
       <c r="C530" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B530,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B530,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D530" s="11" t="s">
@@ -22983,7 +22983,7 @@
         <v>95</v>
       </c>
       <c r="C531" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B531,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B531,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D531" s="11" t="s">
@@ -23016,7 +23016,7 @@
         <v>95</v>
       </c>
       <c r="C532" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B532,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B532,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D532" s="11" t="s">
@@ -23049,7 +23049,7 @@
         <v>95</v>
       </c>
       <c r="C533" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B533,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B533,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D533" s="11" t="s">
@@ -23082,7 +23082,7 @@
         <v>95</v>
       </c>
       <c r="C534" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B534,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B534,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D534" s="11" t="s">
@@ -23115,7 +23115,7 @@
         <v>95</v>
       </c>
       <c r="C535" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B535,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B535,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D535" s="11" t="s">
@@ -23148,7 +23148,7 @@
         <v>95</v>
       </c>
       <c r="C536" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B536,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B536,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D536" s="11" t="s">
@@ -23181,7 +23181,7 @@
         <v>95</v>
       </c>
       <c r="C537" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B537,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B537,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D537" s="11" t="s">
@@ -23214,7 +23214,7 @@
         <v>95</v>
       </c>
       <c r="C538" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B538,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B538,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D538" s="11" t="s">
@@ -23247,7 +23247,7 @@
         <v>95</v>
       </c>
       <c r="C539" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B539,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B539,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D539" s="11" t="s">
@@ -23280,7 +23280,7 @@
         <v>95</v>
       </c>
       <c r="C540" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B540,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B540,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D540" s="11" t="s">
@@ -23313,7 +23313,7 @@
         <v>95</v>
       </c>
       <c r="C541" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B541,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B541,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D541" s="11" t="s">
@@ -23346,7 +23346,7 @@
         <v>95</v>
       </c>
       <c r="C542" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B542,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B542,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D542" s="11" t="s">
@@ -23379,7 +23379,7 @@
         <v>95</v>
       </c>
       <c r="C543" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B543,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B543,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D543" s="11" t="s">
@@ -23412,7 +23412,7 @@
         <v>95</v>
       </c>
       <c r="C544" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B544,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B544,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D544" s="11" t="s">
@@ -23445,7 +23445,7 @@
         <v>95</v>
       </c>
       <c r="C545" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B545,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B545,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D545" s="11" t="s">
@@ -23478,7 +23478,7 @@
         <v>95</v>
       </c>
       <c r="C546" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B546,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B546,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D546" s="11" t="s">
@@ -23511,7 +23511,7 @@
         <v>95</v>
       </c>
       <c r="C547" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B547,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B547,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D547" s="11" t="s">
@@ -23544,7 +23544,7 @@
         <v>95</v>
       </c>
       <c r="C548" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B548,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B548,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D548" s="11" t="s">
@@ -23577,7 +23577,7 @@
         <v>95</v>
       </c>
       <c r="C549" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B549,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B549,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D549" s="11" t="s">
@@ -23610,7 +23610,7 @@
         <v>95</v>
       </c>
       <c r="C550" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B550,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B550,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D550" s="11" t="s">
@@ -23643,7 +23643,7 @@
         <v>95</v>
       </c>
       <c r="C551" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B551,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B551,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D551" s="11" t="s">
@@ -23676,7 +23676,7 @@
         <v>95</v>
       </c>
       <c r="C552" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B552,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B552,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D552" s="11" t="s">
@@ -23709,7 +23709,7 @@
         <v>95</v>
       </c>
       <c r="C553" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B553,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B553,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D553" s="11" t="s">
@@ -23742,7 +23742,7 @@
         <v>95</v>
       </c>
       <c r="C554" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B554,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B554,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D554" s="11" t="s">
@@ -23775,7 +23775,7 @@
         <v>95</v>
       </c>
       <c r="C555" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B555,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B555,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D555" s="11" t="s">
@@ -23808,7 +23808,7 @@
         <v>95</v>
       </c>
       <c r="C556" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B556,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B556,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D556" s="11" t="s">
@@ -23841,7 +23841,7 @@
         <v>95</v>
       </c>
       <c r="C557" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B557,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B557,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D557" s="11" t="s">
@@ -23874,7 +23874,7 @@
         <v>95</v>
       </c>
       <c r="C558" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B558,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B558,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D558" s="11" t="s">
@@ -23907,7 +23907,7 @@
         <v>95</v>
       </c>
       <c r="C559" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B559,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B559,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D559" s="11" t="s">
@@ -23940,7 +23940,7 @@
         <v>95</v>
       </c>
       <c r="C560" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B560,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B560,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D560" s="11" t="s">
@@ -23973,7 +23973,7 @@
         <v>95</v>
       </c>
       <c r="C561" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B561,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B561,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D561" s="11" t="s">
@@ -24006,7 +24006,7 @@
         <v>95</v>
       </c>
       <c r="C562" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B562,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B562,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D562" s="11" t="s">
@@ -24039,7 +24039,7 @@
         <v>95</v>
       </c>
       <c r="C563" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B563,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B563,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D563" s="11" t="s">
@@ -24072,7 +24072,7 @@
         <v>95</v>
       </c>
       <c r="C564" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B564,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B564,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D564" s="11" t="s">
@@ -24105,7 +24105,7 @@
         <v>95</v>
       </c>
       <c r="C565" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B565,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B565,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D565" s="11" t="s">
@@ -24138,7 +24138,7 @@
         <v>95</v>
       </c>
       <c r="C566" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B566,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B566,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D566" s="11" t="s">
@@ -24171,7 +24171,7 @@
         <v>95</v>
       </c>
       <c r="C567" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B567,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B567,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D567" s="11" t="s">
@@ -24204,7 +24204,7 @@
         <v>95</v>
       </c>
       <c r="C568" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B568,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B568,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D568" s="11" t="s">
@@ -24237,7 +24237,7 @@
         <v>95</v>
       </c>
       <c r="C569" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B569,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B569,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D569" s="11" t="s">
@@ -24270,7 +24270,7 @@
         <v>95</v>
       </c>
       <c r="C570" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B570,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B570,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D570" s="11" t="s">
@@ -24303,7 +24303,7 @@
         <v>95</v>
       </c>
       <c r="C571" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B571,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B571,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D571" s="11" t="s">
@@ -24336,7 +24336,7 @@
         <v>95</v>
       </c>
       <c r="C572" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B572,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B572,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D572" s="11" t="s">
@@ -24369,7 +24369,7 @@
         <v>95</v>
       </c>
       <c r="C573" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B573,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B573,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D573" s="11" t="s">
@@ -24402,7 +24402,7 @@
         <v>95</v>
       </c>
       <c r="C574" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B574,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B574,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D574" s="11" t="s">
@@ -24435,7 +24435,7 @@
         <v>95</v>
       </c>
       <c r="C575" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B575,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B575,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D575" s="11" t="s">
@@ -24468,7 +24468,7 @@
         <v>95</v>
       </c>
       <c r="C576" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B576,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B576,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D576" s="11" t="s">
@@ -24501,7 +24501,7 @@
         <v>95</v>
       </c>
       <c r="C577" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B577,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B577,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D577" s="11" t="s">
@@ -24534,7 +24534,7 @@
         <v>95</v>
       </c>
       <c r="C578" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B578,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B578,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D578" s="11" t="s">
@@ -24567,7 +24567,7 @@
         <v>95</v>
       </c>
       <c r="C579" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B579,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B579,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D579" s="11" t="s">
@@ -24600,7 +24600,7 @@
         <v>95</v>
       </c>
       <c r="C580" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B580,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B580,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D580" s="11" t="s">
@@ -24633,7 +24633,7 @@
         <v>95</v>
       </c>
       <c r="C581" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B581,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B581,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D581" s="11" t="s">
@@ -24666,7 +24666,7 @@
         <v>95</v>
       </c>
       <c r="C582" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B582,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B582,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D582" s="11" t="s">
@@ -24699,7 +24699,7 @@
         <v>95</v>
       </c>
       <c r="C583" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B583,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B583,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D583" s="11" t="s">
@@ -24732,7 +24732,7 @@
         <v>95</v>
       </c>
       <c r="C584" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B584,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B584,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D584" s="11" t="s">
@@ -24765,7 +24765,7 @@
         <v>95</v>
       </c>
       <c r="C585" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B585,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B585,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D585" s="11" t="s">
@@ -24798,7 +24798,7 @@
         <v>95</v>
       </c>
       <c r="C586" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B586,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B586,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D586" s="11" t="s">
@@ -24831,7 +24831,7 @@
         <v>95</v>
       </c>
       <c r="C587" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B587,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B587,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D587" s="11" t="s">
@@ -24864,7 +24864,7 @@
         <v>95</v>
       </c>
       <c r="C588" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B588,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B588,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D588" s="11" t="s">
@@ -24897,7 +24897,7 @@
         <v>95</v>
       </c>
       <c r="C589" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B589,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B589,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D589" s="11" t="s">
@@ -24930,7 +24930,7 @@
         <v>95</v>
       </c>
       <c r="C590" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B590,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B590,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D590" s="11" t="s">
@@ -24963,7 +24963,7 @@
         <v>95</v>
       </c>
       <c r="C591" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B591,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B591,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D591" s="11" t="s">
@@ -24996,7 +24996,7 @@
         <v>95</v>
       </c>
       <c r="C592" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B592,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B592,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D592" s="11" t="s">
@@ -25029,7 +25029,7 @@
         <v>95</v>
       </c>
       <c r="C593" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B593,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B593,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D593" s="11" t="s">
@@ -25062,7 +25062,7 @@
         <v>95</v>
       </c>
       <c r="C594" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B594,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B594,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D594" s="11" t="s">
@@ -25095,7 +25095,7 @@
         <v>95</v>
       </c>
       <c r="C595" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B595,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B595,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D595" s="11" t="s">
@@ -25128,7 +25128,7 @@
         <v>95</v>
       </c>
       <c r="C596" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B596,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B596,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D596" s="11" t="s">
@@ -25161,7 +25161,7 @@
         <v>95</v>
       </c>
       <c r="C597" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B597,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B597,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D597" s="11" t="s">
@@ -25194,7 +25194,7 @@
         <v>95</v>
       </c>
       <c r="C598" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B598,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B598,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D598" s="11" t="s">
@@ -25227,7 +25227,7 @@
         <v>95</v>
       </c>
       <c r="C599" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B599,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B599,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D599" s="11" t="s">
@@ -25260,7 +25260,7 @@
         <v>95</v>
       </c>
       <c r="C600" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B600,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B600,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D600" s="11" t="s">
@@ -25293,7 +25293,7 @@
         <v>95</v>
       </c>
       <c r="C601" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B601,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B601,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D601" s="11" t="s">
@@ -25326,7 +25326,7 @@
         <v>95</v>
       </c>
       <c r="C602" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B602,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B602,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D602" s="11" t="s">
@@ -25359,7 +25359,7 @@
         <v>95</v>
       </c>
       <c r="C603" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B603,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B603,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D603" s="11" t="s">
@@ -25392,7 +25392,7 @@
         <v>95</v>
       </c>
       <c r="C604" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B604,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B604,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D604" s="11" t="s">
@@ -25425,7 +25425,7 @@
         <v>95</v>
       </c>
       <c r="C605" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B605,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B605,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D605" s="11" t="s">
@@ -25458,7 +25458,7 @@
         <v>95</v>
       </c>
       <c r="C606" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B606,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B606,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D606" s="11" t="s">
@@ -25491,7 +25491,7 @@
         <v>95</v>
       </c>
       <c r="C607" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B607,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B607,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D607" s="11" t="s">
@@ -25524,7 +25524,7 @@
         <v>95</v>
       </c>
       <c r="C608" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B608,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B608,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D608" s="11" t="s">
@@ -25557,7 +25557,7 @@
         <v>95</v>
       </c>
       <c r="C609" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B609,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B609,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D609" s="11" t="s">
@@ -25590,7 +25590,7 @@
         <v>95</v>
       </c>
       <c r="C610" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B610,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B610,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D610" s="11" t="s">
@@ -25623,7 +25623,7 @@
         <v>95</v>
       </c>
       <c r="C611" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B611,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B611,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D611" s="11" t="s">
@@ -25656,7 +25656,7 @@
         <v>95</v>
       </c>
       <c r="C612" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B612,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B612,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D612" s="11" t="s">
@@ -25689,7 +25689,7 @@
         <v>95</v>
       </c>
       <c r="C613" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B613,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B613,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D613" s="11" t="s">
@@ -25722,7 +25722,7 @@
         <v>95</v>
       </c>
       <c r="C614" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B614,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B614,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D614" s="11" t="s">
@@ -25755,7 +25755,7 @@
         <v>95</v>
       </c>
       <c r="C615" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B615,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B615,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D615" s="11" t="s">
@@ -25788,7 +25788,7 @@
         <v>95</v>
       </c>
       <c r="C616" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B616,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B616,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D616" s="11" t="s">
@@ -25821,7 +25821,7 @@
         <v>95</v>
       </c>
       <c r="C617" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B617,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B617,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D617" s="11" t="s">
@@ -25854,7 +25854,7 @@
         <v>95</v>
       </c>
       <c r="C618" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B618,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B618,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D618" s="11" t="s">
@@ -25887,7 +25887,7 @@
         <v>95</v>
       </c>
       <c r="C619" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B619,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B619,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D619" s="11" t="s">
@@ -25920,7 +25920,7 @@
         <v>95</v>
       </c>
       <c r="C620" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B620,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B620,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D620" s="11" t="s">
@@ -25953,7 +25953,7 @@
         <v>95</v>
       </c>
       <c r="C621" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B621,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B621,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D621" s="11" t="s">
@@ -25986,7 +25986,7 @@
         <v>95</v>
       </c>
       <c r="C622" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B622,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B622,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D622" s="11" t="s">
@@ -26019,7 +26019,7 @@
         <v>95</v>
       </c>
       <c r="C623" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B623,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B623,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D623" s="11" t="s">
@@ -26052,7 +26052,7 @@
         <v>95</v>
       </c>
       <c r="C624" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B624,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B624,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D624" s="11" t="s">
@@ -26085,7 +26085,7 @@
         <v>95</v>
       </c>
       <c r="C625" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B625,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B625,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D625" s="11" t="s">
@@ -26118,7 +26118,7 @@
         <v>95</v>
       </c>
       <c r="C626" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B626,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B626,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D626" s="11" t="s">
@@ -26151,7 +26151,7 @@
         <v>95</v>
       </c>
       <c r="C627" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B627,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B627,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D627" s="11" t="s">
@@ -26184,7 +26184,7 @@
         <v>95</v>
       </c>
       <c r="C628" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B628,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B628,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D628" s="11" t="s">
@@ -26217,7 +26217,7 @@
         <v>95</v>
       </c>
       <c r="C629" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B629,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B629,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D629" s="11" t="s">
@@ -26250,7 +26250,7 @@
         <v>95</v>
       </c>
       <c r="C630" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B630,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B630,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D630" s="11" t="s">
@@ -26283,7 +26283,7 @@
         <v>95</v>
       </c>
       <c r="C631" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B631,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B631,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D631" s="11" t="s">
@@ -26316,7 +26316,7 @@
         <v>95</v>
       </c>
       <c r="C632" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B632,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B632,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D632" s="11" t="s">
@@ -26349,7 +26349,7 @@
         <v>95</v>
       </c>
       <c r="C633" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B633,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B633,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D633" s="11" t="s">
@@ -26382,7 +26382,7 @@
         <v>95</v>
       </c>
       <c r="C634" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B634,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B634,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D634" s="11" t="s">
@@ -26415,7 +26415,7 @@
         <v>95</v>
       </c>
       <c r="C635" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B635,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B635,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D635" s="11" t="s">
@@ -26448,7 +26448,7 @@
         <v>95</v>
       </c>
       <c r="C636" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B636,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B636,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D636" s="11" t="s">
@@ -26481,7 +26481,7 @@
         <v>95</v>
       </c>
       <c r="C637" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B637,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B637,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D637" s="11" t="s">
@@ -26514,7 +26514,7 @@
         <v>95</v>
       </c>
       <c r="C638" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B638,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B638,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D638" s="11" t="s">
@@ -26547,7 +26547,7 @@
         <v>95</v>
       </c>
       <c r="C639" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B639,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B639,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D639" s="11" t="s">
@@ -26580,7 +26580,7 @@
         <v>95</v>
       </c>
       <c r="C640" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B640,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B640,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D640" s="11" t="s">
@@ -26613,7 +26613,7 @@
         <v>95</v>
       </c>
       <c r="C641" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B641,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B641,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D641" s="11" t="s">
@@ -26646,7 +26646,7 @@
         <v>95</v>
       </c>
       <c r="C642" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B642,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B642,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D642" s="11" t="s">
@@ -26679,7 +26679,7 @@
         <v>95</v>
       </c>
       <c r="C643" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B643,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B643,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D643" s="11" t="s">
@@ -26712,7 +26712,7 @@
         <v>95</v>
       </c>
       <c r="C644" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B644,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B644,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D644" s="11" t="s">
@@ -26745,7 +26745,7 @@
         <v>95</v>
       </c>
       <c r="C645" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B645,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B645,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D645" s="11" t="s">
@@ -26778,7 +26778,7 @@
         <v>95</v>
       </c>
       <c r="C646" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B646,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B646,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D646" s="11" t="s">
@@ -26811,7 +26811,7 @@
         <v>95</v>
       </c>
       <c r="C647" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B647,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B647,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D647" s="11" t="s">
@@ -26844,7 +26844,7 @@
         <v>95</v>
       </c>
       <c r="C648" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B648,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B648,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D648" s="11" t="s">
@@ -26877,7 +26877,7 @@
         <v>95</v>
       </c>
       <c r="C649" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B649,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B649,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D649" s="11" t="s">
@@ -26910,7 +26910,7 @@
         <v>95</v>
       </c>
       <c r="C650" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B650,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B650,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D650" s="11" t="s">
@@ -26943,7 +26943,7 @@
         <v>95</v>
       </c>
       <c r="C651" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B651,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B651,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D651" s="11" t="s">
@@ -26976,7 +26976,7 @@
         <v>95</v>
       </c>
       <c r="C652" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B652,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B652,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D652" s="11" t="s">
@@ -27009,7 +27009,7 @@
         <v>95</v>
       </c>
       <c r="C653" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B653,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B653,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D653" s="11" t="s">
@@ -27042,7 +27042,7 @@
         <v>95</v>
       </c>
       <c r="C654" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B654,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B654,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D654" s="11" t="s">
@@ -27075,7 +27075,7 @@
         <v>95</v>
       </c>
       <c r="C655" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B655,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B655,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D655" s="11" t="s">
@@ -27108,7 +27108,7 @@
         <v>95</v>
       </c>
       <c r="C656" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B656,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B656,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D656" s="11" t="s">
@@ -27141,7 +27141,7 @@
         <v>95</v>
       </c>
       <c r="C657" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B657,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B657,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D657" s="11" t="s">
@@ -27174,7 +27174,7 @@
         <v>95</v>
       </c>
       <c r="C658" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B658,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B658,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D658" s="11" t="s">
@@ -27207,7 +27207,7 @@
         <v>95</v>
       </c>
       <c r="C659" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B659,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B659,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D659" s="11" t="s">
@@ -27240,7 +27240,7 @@
         <v>95</v>
       </c>
       <c r="C660" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B660,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B660,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D660" s="11" t="s">
@@ -27273,7 +27273,7 @@
         <v>95</v>
       </c>
       <c r="C661" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B661,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B661,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D661" s="11" t="s">
@@ -27306,7 +27306,7 @@
         <v>95</v>
       </c>
       <c r="C662" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B662,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B662,Planilha1!A:A,0),1)</f>
         <v>MECANICA</v>
       </c>
       <c r="D662" s="11" t="s">
@@ -27339,7 +27339,7 @@
         <v>100</v>
       </c>
       <c r="C663" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B663,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B663,Planilha1!A:A,0),1)</f>
         <v>BOMBAS E CONEXÕES</v>
       </c>
       <c r="D663" s="11" t="s">
@@ -27372,7 +27372,7 @@
         <v>100</v>
       </c>
       <c r="C664" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B664,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B664,Planilha1!A:A,0),1)</f>
         <v>BOMBAS E CONEXÕES</v>
       </c>
       <c r="D664" s="11" t="s">
@@ -27405,7 +27405,7 @@
         <v>100</v>
       </c>
       <c r="C665" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B665,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B665,Planilha1!A:A,0),1)</f>
         <v>BOMBAS E CONEXÕES</v>
       </c>
       <c r="D665" s="11" t="s">
@@ -27438,7 +27438,7 @@
         <v>100</v>
       </c>
       <c r="C666" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B666,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B666,Planilha1!A:A,0),1)</f>
         <v>BOMBAS E CONEXÕES</v>
       </c>
       <c r="D666" s="11" t="s">
@@ -27471,7 +27471,7 @@
         <v>100</v>
       </c>
       <c r="C667" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B667,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B667,Planilha1!A:A,0),1)</f>
         <v>BOMBAS E CONEXÕES</v>
       </c>
       <c r="D667" s="11" t="s">
@@ -27504,7 +27504,7 @@
         <v>105</v>
       </c>
       <c r="C668" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B668,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B668,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D668" s="11" t="s">
@@ -27537,7 +27537,7 @@
         <v>105</v>
       </c>
       <c r="C669" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B669,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B669,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D669" s="11" t="s">
@@ -27570,7 +27570,7 @@
         <v>105</v>
       </c>
       <c r="C670" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B670,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B670,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D670" s="11" t="s">
@@ -27603,7 +27603,7 @@
         <v>105</v>
       </c>
       <c r="C671" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B671,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B671,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D671" s="11" t="s">
@@ -27636,7 +27636,7 @@
         <v>105</v>
       </c>
       <c r="C672" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B672,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B672,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D672" s="11" t="s">
@@ -27669,7 +27669,7 @@
         <v>105</v>
       </c>
       <c r="C673" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B673,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B673,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D673" s="11" t="s">
@@ -27702,7 +27702,7 @@
         <v>105</v>
       </c>
       <c r="C674" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B674,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B674,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D674" s="11" t="s">
@@ -27735,7 +27735,7 @@
         <v>105</v>
       </c>
       <c r="C675" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B675,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B675,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D675" s="11" t="s">
@@ -27768,7 +27768,7 @@
         <v>105</v>
       </c>
       <c r="C676" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B676,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B676,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D676" s="11" t="s">
@@ -27801,7 +27801,7 @@
         <v>105</v>
       </c>
       <c r="C677" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B677,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B677,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D677" s="11" t="s">
@@ -27834,7 +27834,7 @@
         <v>105</v>
       </c>
       <c r="C678" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B678,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B678,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D678" s="11" t="s">
@@ -27867,7 +27867,7 @@
         <v>105</v>
       </c>
       <c r="C679" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B679,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B679,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D679" s="11" t="s">
@@ -27900,7 +27900,7 @@
         <v>105</v>
       </c>
       <c r="C680" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B680,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B680,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D680" s="11" t="s">
@@ -27933,7 +27933,7 @@
         <v>105</v>
       </c>
       <c r="C681" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B681,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B681,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D681" s="11" t="s">
@@ -27966,7 +27966,7 @@
         <v>105</v>
       </c>
       <c r="C682" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B682,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B682,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D682" s="11" t="s">
@@ -27999,7 +27999,7 @@
         <v>105</v>
       </c>
       <c r="C683" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B683,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B683,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D683" s="11" t="s">
@@ -28032,7 +28032,7 @@
         <v>105</v>
       </c>
       <c r="C684" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B684,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B684,Planilha1!A:A,0),1)</f>
         <v>SEGURANÇA</v>
       </c>
       <c r="D684" s="11" t="s">
@@ -28065,7 +28065,7 @@
         <v>115</v>
       </c>
       <c r="C685" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B685,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B685,Planilha1!A:A,0),1)</f>
         <v>OLEOS E GRAXAS</v>
       </c>
       <c r="D685" s="11" t="s">
@@ -28098,7 +28098,7 @@
         <v>115</v>
       </c>
       <c r="C686" s="2" t="str">
-        <f>INDEX(Planilha1!B:B,MATCH(Export!B686,Planilha1!A:A,0),1)</f>
+        <f>INDEX(Planilha1!B:B,MATCH(Produtos!B686,Planilha1!A:A,0),1)</f>
         <v>OLEOS E GRAXAS</v>
       </c>
       <c r="D686" s="11" t="s">
@@ -31182,6 +31182,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B71EA2D9964CC9449323D3108A891EB7" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ff891be549735ec397d6022c2fc7d626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e01e24f2-7f6a-4a90-94b6-6e522386aa06" xmlns:ns4="fa81e86c-0da7-4393-b309-29a6ef7a5f24" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b10f1121eb9749427907c3ca261214ba" ns3:_="" ns4:_="">
     <xsd:import namespace="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
@@ -31408,24 +31425,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
+    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F2AC3A-AC86-409D-815E-3B0EA5A11767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31442,29 +31467,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
-    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base para o catálogo.xlsx
+++ b/Base para o catálogo.xlsx
@@ -5299,7 +5299,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K746"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30613,6 +30615,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B71EA2D9964CC9449323D3108A891EB7" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ff891be549735ec397d6022c2fc7d626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e01e24f2-7f6a-4a90-94b6-6e522386aa06" xmlns:ns4="fa81e86c-0da7-4393-b309-29a6ef7a5f24" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b10f1121eb9749427907c3ca261214ba" ns3:_="" ns4:_="">
     <xsd:import namespace="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
@@ -30839,24 +30858,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
+    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F2AC3A-AC86-409D-815E-3B0EA5A11767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30873,29 +30900,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
-    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Base para o catálogo.xlsx
+++ b/Base para o catálogo.xlsx
@@ -2969,9 +2969,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="0000000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -3485,7 +3486,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3514,6 +3515,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3874,12 +3884,12 @@
   <dimension ref="A1:K746"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.28515625" style="1" customWidth="1"/>
@@ -3892,7 +3902,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -3924,7 +3934,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="13">
         <v>400050047</v>
       </c>
       <c r="B2" s="9">
@@ -3958,7 +3968,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="13">
         <v>400300043</v>
       </c>
       <c r="B3" s="9">
@@ -3984,7 +3994,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" ref="I3:J66" si="0">H3/G3</f>
+        <f t="shared" ref="I3:I66" si="0">H3/G3</f>
         <v>18</v>
       </c>
       <c r="J3" s="4">
@@ -3992,7 +4002,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="13">
         <v>400350029</v>
       </c>
       <c r="B4" s="9">
@@ -4026,7 +4036,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="13">
         <v>400550054</v>
       </c>
       <c r="B5" s="9">
@@ -4060,7 +4070,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="13">
         <v>450600065</v>
       </c>
       <c r="B6" s="9">
@@ -4094,7 +4104,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="13">
         <v>450600102</v>
       </c>
       <c r="B7" s="9">
@@ -4128,7 +4138,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="13">
         <v>450800001</v>
       </c>
       <c r="B8" s="9">
@@ -4163,7 +4173,7 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="13">
         <v>450900202</v>
       </c>
       <c r="B9" s="9">
@@ -4197,7 +4207,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="13">
         <v>550150035</v>
       </c>
       <c r="B10" s="9">
@@ -4231,7 +4241,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="13">
         <v>550150103</v>
       </c>
       <c r="B11" s="9">
@@ -4265,7 +4275,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="13">
         <v>550150105</v>
       </c>
       <c r="B12" s="9">
@@ -4299,7 +4309,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="13">
         <v>550150106</v>
       </c>
       <c r="B13" s="9">
@@ -4333,7 +4343,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="13">
         <v>550150107</v>
       </c>
       <c r="B14" s="9">
@@ -4367,7 +4377,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="13">
         <v>550150108</v>
       </c>
       <c r="B15" s="9">
@@ -4401,7 +4411,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="13">
         <v>550150110</v>
       </c>
       <c r="B16" s="9">
@@ -4435,7 +4445,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="13">
         <v>550150137</v>
       </c>
       <c r="B17" s="9">
@@ -4469,7 +4479,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="13">
         <v>550150165</v>
       </c>
       <c r="B18" s="9">
@@ -4503,7 +4513,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="13">
         <v>550150166</v>
       </c>
       <c r="B19" s="9">
@@ -4537,7 +4547,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="13">
         <v>550150216</v>
       </c>
       <c r="B20" s="9">
@@ -4571,7 +4581,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="13">
         <v>550150221</v>
       </c>
       <c r="B21" s="9">
@@ -4605,7 +4615,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="13">
         <v>550150222</v>
       </c>
       <c r="B22" s="9">
@@ -4639,7 +4649,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="13">
         <v>550150223</v>
       </c>
       <c r="B23" s="9">
@@ -4673,7 +4683,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="13">
         <v>550150224</v>
       </c>
       <c r="B24" s="9">
@@ -4707,7 +4717,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="13">
         <v>550150225</v>
       </c>
       <c r="B25" s="9">
@@ -4741,7 +4751,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="13">
         <v>550150226</v>
       </c>
       <c r="B26" s="9">
@@ -4775,7 +4785,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="13">
         <v>550150227</v>
       </c>
       <c r="B27" s="9">
@@ -4809,7 +4819,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="13">
         <v>550150320</v>
       </c>
       <c r="B28" s="9">
@@ -4843,7 +4853,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="13">
         <v>550250085</v>
       </c>
       <c r="B29" s="9">
@@ -4877,7 +4887,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="13">
         <v>550250089</v>
       </c>
       <c r="B30" s="9">
@@ -4911,7 +4921,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="13">
         <v>550300035</v>
       </c>
       <c r="B31" s="9">
@@ -4945,7 +4955,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="13">
         <v>550300037</v>
       </c>
       <c r="B32" s="9">
@@ -4979,7 +4989,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="13">
         <v>550300060</v>
       </c>
       <c r="B33" s="9">
@@ -5013,7 +5023,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="13">
         <v>550300099</v>
       </c>
       <c r="B34" s="9">
@@ -5047,7 +5057,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="13">
         <v>550300136</v>
       </c>
       <c r="B35" s="9">
@@ -5081,7 +5091,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="13">
         <v>550300189</v>
       </c>
       <c r="B36" s="9">
@@ -5115,7 +5125,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="13">
         <v>550300237</v>
       </c>
       <c r="B37" s="9">
@@ -5149,7 +5159,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="13">
         <v>550300286</v>
       </c>
       <c r="B38" s="9">
@@ -5183,7 +5193,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="13">
         <v>550300344</v>
       </c>
       <c r="B39" s="9">
@@ -5217,7 +5227,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="13">
         <v>550300345</v>
       </c>
       <c r="B40" s="9">
@@ -5251,7 +5261,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="13">
         <v>550350005</v>
       </c>
       <c r="B41" s="9">
@@ -5285,7 +5295,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="13">
         <v>550350031</v>
       </c>
       <c r="B42" s="9">
@@ -5319,7 +5329,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="13">
         <v>550350043</v>
       </c>
       <c r="B43" s="9">
@@ -5353,7 +5363,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="13">
         <v>550350065</v>
       </c>
       <c r="B44" s="9">
@@ -5387,7 +5397,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="13">
         <v>550350084</v>
       </c>
       <c r="B45" s="9">
@@ -5421,7 +5431,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="13">
         <v>550350118</v>
       </c>
       <c r="B46" s="9">
@@ -5455,7 +5465,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="13">
         <v>550350135</v>
       </c>
       <c r="B47" s="9">
@@ -5489,7 +5499,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="13">
         <v>550350142</v>
       </c>
       <c r="B48" s="9">
@@ -5523,7 +5533,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="13">
         <v>550350391</v>
       </c>
       <c r="B49" s="9">
@@ -5557,7 +5567,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="13">
         <v>550350394</v>
       </c>
       <c r="B50" s="9">
@@ -5591,7 +5601,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="13">
         <v>550350400</v>
       </c>
       <c r="B51" s="9">
@@ -5625,7 +5635,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="13">
         <v>550350401</v>
       </c>
       <c r="B52" s="9">
@@ -5659,7 +5669,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="13">
         <v>550400004</v>
       </c>
       <c r="B53" s="9">
@@ -5693,7 +5703,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="13">
         <v>550400005</v>
       </c>
       <c r="B54" s="9">
@@ -5727,7 +5737,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="13">
         <v>550400006</v>
       </c>
       <c r="B55" s="9">
@@ -5761,7 +5771,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="13">
         <v>550400007</v>
       </c>
       <c r="B56" s="9">
@@ -5795,7 +5805,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="13">
         <v>550400008</v>
       </c>
       <c r="B57" s="9">
@@ -5829,7 +5839,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="13">
         <v>550400009</v>
       </c>
       <c r="B58" s="9">
@@ -5863,7 +5873,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="13">
         <v>550400010</v>
       </c>
       <c r="B59" s="9">
@@ -5897,7 +5907,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="13">
         <v>550400030</v>
       </c>
       <c r="B60" s="9">
@@ -5931,7 +5941,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="13">
         <v>550400041</v>
       </c>
       <c r="B61" s="9">
@@ -5965,7 +5975,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="13">
         <v>550400050</v>
       </c>
       <c r="B62" s="9">
@@ -5999,7 +6009,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="13">
         <v>550400079</v>
       </c>
       <c r="B63" s="9">
@@ -6033,7 +6043,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="13">
         <v>550400105</v>
       </c>
       <c r="B64" s="9">
@@ -6067,7 +6077,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="13">
         <v>550400215</v>
       </c>
       <c r="B65" s="9">
@@ -6101,7 +6111,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="13">
         <v>550400216</v>
       </c>
       <c r="B66" s="9">
@@ -6135,7 +6145,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="13">
         <v>550400248</v>
       </c>
       <c r="B67" s="9">
@@ -6161,7 +6171,7 @@
         <v>46.81</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" ref="I67:J130" si="1">H67/G67</f>
+        <f t="shared" ref="I67:I130" si="1">H67/G67</f>
         <v>3.1206666666666667</v>
       </c>
       <c r="J67" s="4">
@@ -6169,7 +6179,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="13">
         <v>550400259</v>
       </c>
       <c r="B68" s="9">
@@ -6203,7 +6213,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="13">
         <v>550400275</v>
       </c>
       <c r="B69" s="9">
@@ -6237,7 +6247,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="13">
         <v>550400319</v>
       </c>
       <c r="B70" s="9">
@@ -6271,7 +6281,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="13">
         <v>550400337</v>
       </c>
       <c r="B71" s="9">
@@ -6305,7 +6315,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="13">
         <v>550400338</v>
       </c>
       <c r="B72" s="9">
@@ -6339,7 +6349,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="13">
         <v>550400357</v>
       </c>
       <c r="B73" s="9">
@@ -6373,7 +6383,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="13">
         <v>550400358</v>
       </c>
       <c r="B74" s="9">
@@ -6407,7 +6417,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="13">
         <v>550400360</v>
       </c>
       <c r="B75" s="9">
@@ -6441,7 +6451,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="13">
         <v>550400376</v>
       </c>
       <c r="B76" s="9">
@@ -6475,7 +6485,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="13">
         <v>550400418</v>
       </c>
       <c r="B77" s="9">
@@ -6509,7 +6519,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="13">
         <v>550400419</v>
       </c>
       <c r="B78" s="9">
@@ -6543,7 +6553,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="13">
         <v>550400446</v>
       </c>
       <c r="B79" s="9">
@@ -6577,7 +6587,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="13">
         <v>550400495</v>
       </c>
       <c r="B80" s="9">
@@ -6611,7 +6621,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="13">
         <v>550400577</v>
       </c>
       <c r="B81" s="9">
@@ -6645,7 +6655,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="13">
         <v>550400725</v>
       </c>
       <c r="B82" s="9">
@@ -6679,7 +6689,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="13">
         <v>550500030</v>
       </c>
       <c r="B83" s="9">
@@ -6713,7 +6723,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="13">
         <v>550500031</v>
       </c>
       <c r="B84" s="9">
@@ -6747,7 +6757,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="13">
         <v>550500036</v>
       </c>
       <c r="B85" s="9">
@@ -6781,7 +6791,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="13">
         <v>550500037</v>
       </c>
       <c r="B86" s="9">
@@ -6815,7 +6825,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="13">
         <v>550500049</v>
       </c>
       <c r="B87" s="9">
@@ -6849,7 +6859,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="13">
         <v>550500051</v>
       </c>
       <c r="B88" s="9">
@@ -6883,7 +6893,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+      <c r="A89" s="13">
         <v>550500054</v>
       </c>
       <c r="B89" s="9">
@@ -6917,7 +6927,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="13">
         <v>550500069</v>
       </c>
       <c r="B90" s="9">
@@ -6951,7 +6961,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="13">
         <v>550500073</v>
       </c>
       <c r="B91" s="9">
@@ -6985,7 +6995,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="13">
         <v>550500111</v>
       </c>
       <c r="B92" s="9">
@@ -7019,7 +7029,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+      <c r="A93" s="13">
         <v>550500120</v>
       </c>
       <c r="B93" s="9">
@@ -7053,7 +7063,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="13">
         <v>550500140</v>
       </c>
       <c r="B94" s="9">
@@ -7087,7 +7097,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+      <c r="A95" s="13">
         <v>550500142</v>
       </c>
       <c r="B95" s="9">
@@ -7121,7 +7131,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="13">
         <v>550500143</v>
       </c>
       <c r="B96" s="9">
@@ -7155,7 +7165,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="13">
         <v>550500144</v>
       </c>
       <c r="B97" s="9">
@@ -7189,7 +7199,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="13">
         <v>550500148</v>
       </c>
       <c r="B98" s="9">
@@ -7223,7 +7233,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="13">
         <v>550500182</v>
       </c>
       <c r="B99" s="9">
@@ -7257,7 +7267,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="13">
         <v>550500211</v>
       </c>
       <c r="B100" s="9">
@@ -7291,7 +7301,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="13">
         <v>550500229</v>
       </c>
       <c r="B101" s="9">
@@ -7325,7 +7335,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="13">
         <v>550500534</v>
       </c>
       <c r="B102" s="9">
@@ -7359,7 +7369,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="13">
         <v>550500588</v>
       </c>
       <c r="B103" s="9">
@@ -7393,7 +7403,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="13">
         <v>550500684</v>
       </c>
       <c r="B104" s="9">
@@ -7427,7 +7437,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="13">
         <v>550500697</v>
       </c>
       <c r="B105" s="9">
@@ -7461,7 +7471,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="13">
         <v>550500801</v>
       </c>
       <c r="B106" s="9">
@@ -7495,7 +7505,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="13">
         <v>550500855</v>
       </c>
       <c r="B107" s="9">
@@ -7529,7 +7539,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="13">
         <v>550501153</v>
       </c>
       <c r="B108" s="9">
@@ -7563,7 +7573,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="13">
         <v>550501237</v>
       </c>
       <c r="B109" s="9">
@@ -7597,7 +7607,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="13">
         <v>550600031</v>
       </c>
       <c r="B110" s="9">
@@ -7631,7 +7641,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="13">
         <v>550600033</v>
       </c>
       <c r="B111" s="9">
@@ -7665,7 +7675,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="13">
         <v>550600038</v>
       </c>
       <c r="B112" s="9">
@@ -7699,7 +7709,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="13">
         <v>550600048</v>
       </c>
       <c r="B113" s="9">
@@ -7733,7 +7743,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="13">
         <v>550600050</v>
       </c>
       <c r="B114" s="9">
@@ -7767,7 +7777,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="13">
         <v>550600052</v>
       </c>
       <c r="B115" s="9">
@@ -7801,7 +7811,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="13">
         <v>550600056</v>
       </c>
       <c r="B116" s="9">
@@ -7835,7 +7845,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="13">
         <v>550600058</v>
       </c>
       <c r="B117" s="9">
@@ -7869,7 +7879,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="13">
         <v>550600060</v>
       </c>
       <c r="B118" s="9">
@@ -7903,7 +7913,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="13">
         <v>550600069</v>
       </c>
       <c r="B119" s="9">
@@ -7937,7 +7947,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+      <c r="A120" s="13">
         <v>550600110</v>
       </c>
       <c r="B120" s="9">
@@ -7971,7 +7981,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+      <c r="A121" s="13">
         <v>550600111</v>
       </c>
       <c r="B121" s="9">
@@ -8005,7 +8015,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+      <c r="A122" s="13">
         <v>550600116</v>
       </c>
       <c r="B122" s="9">
@@ -8039,7 +8049,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
+      <c r="A123" s="13">
         <v>550600129</v>
       </c>
       <c r="B123" s="9">
@@ -8073,7 +8083,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+      <c r="A124" s="13">
         <v>550650047</v>
       </c>
       <c r="B124" s="9">
@@ -8107,7 +8117,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+      <c r="A125" s="13">
         <v>550650050</v>
       </c>
       <c r="B125" s="9">
@@ -8141,7 +8151,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+      <c r="A126" s="13">
         <v>550750060</v>
       </c>
       <c r="B126" s="9">
@@ -8175,7 +8185,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+      <c r="A127" s="13">
         <v>550750124</v>
       </c>
       <c r="B127" s="9">
@@ -8209,7 +8219,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+      <c r="A128" s="13">
         <v>550800008</v>
       </c>
       <c r="B128" s="9">
@@ -8243,7 +8253,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+      <c r="A129" s="13">
         <v>550800013</v>
       </c>
       <c r="B129" s="9">
@@ -8277,7 +8287,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+      <c r="A130" s="13">
         <v>550800016</v>
       </c>
       <c r="B130" s="9">
@@ -8311,7 +8321,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+      <c r="A131" s="13">
         <v>550800038</v>
       </c>
       <c r="B131" s="9">
@@ -8337,7 +8347,7 @@
         <v>99.82</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" ref="I131:J194" si="2">H131/G131</f>
+        <f t="shared" ref="I131:I194" si="2">H131/G131</f>
         <v>16.636666666666667</v>
       </c>
       <c r="J131" s="4">
@@ -8345,7 +8355,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+      <c r="A132" s="13">
         <v>550800055</v>
       </c>
       <c r="B132" s="9">
@@ -8379,7 +8389,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
+      <c r="A133" s="13">
         <v>550800220</v>
       </c>
       <c r="B133" s="9">
@@ -8413,7 +8423,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+      <c r="A134" s="13">
         <v>550800231</v>
       </c>
       <c r="B134" s="9">
@@ -8447,7 +8457,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+      <c r="A135" s="13">
         <v>550800292</v>
       </c>
       <c r="B135" s="9">
@@ -8481,7 +8491,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+      <c r="A136" s="13">
         <v>550800391</v>
       </c>
       <c r="B136" s="9">
@@ -8515,7 +8525,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+      <c r="A137" s="13">
         <v>550800501</v>
       </c>
       <c r="B137" s="9">
@@ -8549,7 +8559,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+      <c r="A138" s="13">
         <v>550850001</v>
       </c>
       <c r="B138" s="9">
@@ -8583,7 +8593,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+      <c r="A139" s="13">
         <v>551100111</v>
       </c>
       <c r="B139" s="9">
@@ -8617,7 +8627,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+      <c r="A140" s="13">
         <v>551150004</v>
       </c>
       <c r="B140" s="9">
@@ -8651,7 +8661,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+      <c r="A141" s="13">
         <v>551150017</v>
       </c>
       <c r="B141" s="9">
@@ -8685,7 +8695,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+      <c r="A142" s="13">
         <v>551150026</v>
       </c>
       <c r="B142" s="9">
@@ -8719,7 +8729,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="13">
         <v>551150028</v>
       </c>
       <c r="B143" s="9">
@@ -8753,7 +8763,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="A144" s="13">
         <v>551150032</v>
       </c>
       <c r="B144" s="9">
@@ -8787,7 +8797,7 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+      <c r="A145" s="13">
         <v>551150033</v>
       </c>
       <c r="B145" s="9">
@@ -8821,7 +8831,7 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+      <c r="A146" s="13">
         <v>551150034</v>
       </c>
       <c r="B146" s="9">
@@ -8855,7 +8865,7 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+      <c r="A147" s="13">
         <v>551150036</v>
       </c>
       <c r="B147" s="9">
@@ -8889,7 +8899,7 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+      <c r="A148" s="13">
         <v>551150037</v>
       </c>
       <c r="B148" s="9">
@@ -8923,7 +8933,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+      <c r="A149" s="13">
         <v>551150038</v>
       </c>
       <c r="B149" s="9">
@@ -8957,7 +8967,7 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+      <c r="A150" s="13">
         <v>551150039</v>
       </c>
       <c r="B150" s="9">
@@ -8991,7 +9001,7 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+      <c r="A151" s="13">
         <v>551150166</v>
       </c>
       <c r="B151" s="9">
@@ -9025,7 +9035,7 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+      <c r="A152" s="13">
         <v>551150223</v>
       </c>
       <c r="B152" s="9">
@@ -9059,7 +9069,7 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
+      <c r="A153" s="13">
         <v>551150224</v>
       </c>
       <c r="B153" s="9">
@@ -9093,7 +9103,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+      <c r="A154" s="13">
         <v>551150225</v>
       </c>
       <c r="B154" s="9">
@@ -9127,7 +9137,7 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+      <c r="A155" s="13">
         <v>551150228</v>
       </c>
       <c r="B155" s="9">
@@ -9161,7 +9171,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="13">
         <v>551150239</v>
       </c>
       <c r="B156" s="9">
@@ -9195,7 +9205,7 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+      <c r="A157" s="13">
         <v>551150240</v>
       </c>
       <c r="B157" s="9">
@@ -9229,7 +9239,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+      <c r="A158" s="13">
         <v>551150241</v>
       </c>
       <c r="B158" s="9">
@@ -9263,7 +9273,7 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+      <c r="A159" s="13">
         <v>551150243</v>
       </c>
       <c r="B159" s="9">
@@ -9297,7 +9307,7 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+      <c r="A160" s="13">
         <v>551150244</v>
       </c>
       <c r="B160" s="9">
@@ -9331,7 +9341,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+      <c r="A161" s="13">
         <v>551150245</v>
       </c>
       <c r="B161" s="9">
@@ -9365,7 +9375,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+      <c r="A162" s="13">
         <v>551150246</v>
       </c>
       <c r="B162" s="9">
@@ -9399,7 +9409,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
+      <c r="A163" s="13">
         <v>600450007</v>
       </c>
       <c r="B163" s="9">
@@ -9433,7 +9443,7 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+      <c r="A164" s="13">
         <v>650050034</v>
       </c>
       <c r="B164" s="9">
@@ -9467,7 +9477,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+      <c r="A165" s="13">
         <v>650050087</v>
       </c>
       <c r="B165" s="9">
@@ -9501,7 +9511,7 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+      <c r="A166" s="13">
         <v>650050088</v>
       </c>
       <c r="B166" s="9">
@@ -9535,7 +9545,7 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+      <c r="A167" s="13">
         <v>650050089</v>
       </c>
       <c r="B167" s="9">
@@ -9569,7 +9579,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+      <c r="A168" s="13">
         <v>650200096</v>
       </c>
       <c r="B168" s="9">
@@ -9603,7 +9613,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="A169" s="13">
         <v>700150015</v>
       </c>
       <c r="B169" s="9">
@@ -9637,7 +9647,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+      <c r="A170" s="13">
         <v>700150263</v>
       </c>
       <c r="B170" s="9">
@@ -9671,7 +9681,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+      <c r="A171" s="13">
         <v>700150264</v>
       </c>
       <c r="B171" s="9">
@@ -9705,7 +9715,7 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+      <c r="A172" s="13">
         <v>700150265</v>
       </c>
       <c r="B172" s="9">
@@ -9739,7 +9749,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
+      <c r="A173" s="13">
         <v>700150266</v>
       </c>
       <c r="B173" s="9">
@@ -9773,7 +9783,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+      <c r="A174" s="13">
         <v>700150267</v>
       </c>
       <c r="B174" s="9">
@@ -9807,7 +9817,7 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+      <c r="A175" s="13">
         <v>700150270</v>
       </c>
       <c r="B175" s="9">
@@ -9841,7 +9851,7 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+      <c r="A176" s="13">
         <v>700150271</v>
       </c>
       <c r="B176" s="9">
@@ -9875,7 +9885,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+      <c r="A177" s="13">
         <v>700150276</v>
       </c>
       <c r="B177" s="9">
@@ -9909,7 +9919,7 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+      <c r="A178" s="13">
         <v>700150373</v>
       </c>
       <c r="B178" s="9">
@@ -9943,7 +9953,7 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+      <c r="A179" s="13">
         <v>700150501</v>
       </c>
       <c r="B179" s="9">
@@ -9977,7 +9987,7 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+      <c r="A180" s="13">
         <v>700200034</v>
       </c>
       <c r="B180" s="9">
@@ -10011,7 +10021,7 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+      <c r="A181" s="13">
         <v>700200153</v>
       </c>
       <c r="B181" s="9">
@@ -10045,7 +10055,7 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+      <c r="A182" s="13">
         <v>700500154</v>
       </c>
       <c r="B182" s="9">
@@ -10079,7 +10089,7 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
+      <c r="A183" s="13">
         <v>700500192</v>
       </c>
       <c r="B183" s="9">
@@ -10113,7 +10123,7 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+      <c r="A184" s="13">
         <v>700500408</v>
       </c>
       <c r="B184" s="9">
@@ -10147,7 +10157,7 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+      <c r="A185" s="13">
         <v>700500410</v>
       </c>
       <c r="B185" s="9">
@@ -10181,7 +10191,7 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+      <c r="A186" s="13">
         <v>700500412</v>
       </c>
       <c r="B186" s="9">
@@ -10215,7 +10225,7 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="13">
         <v>700500418</v>
       </c>
       <c r="B187" s="9">
@@ -10249,7 +10259,7 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+      <c r="A188" s="13">
         <v>700500419</v>
       </c>
       <c r="B188" s="9">
@@ -10283,7 +10293,7 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+      <c r="A189" s="13">
         <v>700500421</v>
       </c>
       <c r="B189" s="9">
@@ -10317,7 +10327,7 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+      <c r="A190" s="13">
         <v>700500433</v>
       </c>
       <c r="B190" s="9">
@@ -10351,7 +10361,7 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+      <c r="A191" s="13">
         <v>700500440</v>
       </c>
       <c r="B191" s="9">
@@ -10385,7 +10395,7 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+      <c r="A192" s="13">
         <v>700500500</v>
       </c>
       <c r="B192" s="9">
@@ -10419,7 +10429,7 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
+      <c r="A193" s="13">
         <v>700500512</v>
       </c>
       <c r="B193" s="9">
@@ -10453,7 +10463,7 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+      <c r="A194" s="13">
         <v>700500521</v>
       </c>
       <c r="B194" s="9">
@@ -10487,7 +10497,7 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+      <c r="A195" s="13">
         <v>700500536</v>
       </c>
       <c r="B195" s="9">
@@ -10513,7 +10523,7 @@
         <v>31.92</v>
       </c>
       <c r="I195" s="4">
-        <f t="shared" ref="I195:J258" si="3">H195/G195</f>
+        <f t="shared" ref="I195:I258" si="3">H195/G195</f>
         <v>31.92</v>
       </c>
       <c r="J195" s="4">
@@ -10521,7 +10531,7 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="13">
         <v>700500554</v>
       </c>
       <c r="B196" s="9">
@@ -10555,7 +10565,7 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+      <c r="A197" s="13">
         <v>700500557</v>
       </c>
       <c r="B197" s="9">
@@ -10589,7 +10599,7 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+      <c r="A198" s="13">
         <v>700500571</v>
       </c>
       <c r="B198" s="9">
@@ -10623,7 +10633,7 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+      <c r="A199" s="13">
         <v>700500600</v>
       </c>
       <c r="B199" s="9">
@@ -10657,7 +10667,7 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+      <c r="A200" s="13">
         <v>700500699</v>
       </c>
       <c r="B200" s="9">
@@ -10691,7 +10701,7 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+      <c r="A201" s="13">
         <v>700500722</v>
       </c>
       <c r="B201" s="9">
@@ -10725,7 +10735,7 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+      <c r="A202" s="13">
         <v>700500727</v>
       </c>
       <c r="B202" s="9">
@@ -10759,7 +10769,7 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
+      <c r="A203" s="13">
         <v>700500735</v>
       </c>
       <c r="B203" s="9">
@@ -10793,7 +10803,7 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+      <c r="A204" s="13">
         <v>700500753</v>
       </c>
       <c r="B204" s="9">
@@ -10827,7 +10837,7 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+      <c r="A205" s="13">
         <v>700500782</v>
       </c>
       <c r="B205" s="9">
@@ -10861,7 +10871,7 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+      <c r="A206" s="13">
         <v>700550183</v>
       </c>
       <c r="B206" s="9">
@@ -10895,7 +10905,7 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+      <c r="A207" s="13">
         <v>700550264</v>
       </c>
       <c r="B207" s="9">
@@ -10929,7 +10939,7 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+      <c r="A208" s="13">
         <v>700550332</v>
       </c>
       <c r="B208" s="9">
@@ -10963,7 +10973,7 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+      <c r="A209" s="13">
         <v>700550333</v>
       </c>
       <c r="B209" s="9">
@@ -10997,7 +11007,7 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+      <c r="A210" s="13">
         <v>700550334</v>
       </c>
       <c r="B210" s="9">
@@ -11031,7 +11041,7 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+      <c r="A211" s="13">
         <v>700550383</v>
       </c>
       <c r="B211" s="9">
@@ -11065,7 +11075,7 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="13">
         <v>700550392</v>
       </c>
       <c r="B212" s="9">
@@ -11099,7 +11109,7 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
+      <c r="A213" s="13">
         <v>700600002</v>
       </c>
       <c r="B213" s="9">
@@ -11133,7 +11143,7 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+      <c r="A214" s="13">
         <v>700650021</v>
       </c>
       <c r="B214" s="9">
@@ -11167,7 +11177,7 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+      <c r="A215" s="13">
         <v>700850020</v>
       </c>
       <c r="B215" s="9">
@@ -11201,7 +11211,7 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+      <c r="A216" s="13">
         <v>700850038</v>
       </c>
       <c r="B216" s="9">
@@ -11235,7 +11245,7 @@
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+      <c r="A217" s="13">
         <v>700850050</v>
       </c>
       <c r="B217" s="9">
@@ -11269,7 +11279,7 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="A218" s="13">
         <v>700850056</v>
       </c>
       <c r="B218" s="9">
@@ -11303,7 +11313,7 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+      <c r="A219" s="13">
         <v>700850059</v>
       </c>
       <c r="B219" s="9">
@@ -11337,7 +11347,7 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="A220" s="13">
         <v>700850074</v>
       </c>
       <c r="B220" s="9">
@@ -11371,7 +11381,7 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="A221" s="13">
         <v>700850078</v>
       </c>
       <c r="B221" s="9">
@@ -11405,7 +11415,7 @@
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="A222" s="13">
         <v>700850079</v>
       </c>
       <c r="B222" s="9">
@@ -11439,7 +11449,7 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="A223" s="13">
         <v>700850097</v>
       </c>
       <c r="B223" s="9">
@@ -11473,7 +11483,7 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="A224" s="13">
         <v>700850098</v>
       </c>
       <c r="B224" s="9">
@@ -11507,7 +11517,7 @@
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="A225" s="13">
         <v>700850099</v>
       </c>
       <c r="B225" s="9">
@@ -11541,7 +11551,7 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="A226" s="13">
         <v>700850102</v>
       </c>
       <c r="B226" s="9">
@@ -11575,7 +11585,7 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="A227" s="13">
         <v>700850107</v>
       </c>
       <c r="B227" s="9">
@@ -11609,7 +11619,7 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="A228" s="13">
         <v>700850110</v>
       </c>
       <c r="B228" s="9">
@@ -11643,7 +11653,7 @@
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="A229" s="13">
         <v>700850115</v>
       </c>
       <c r="B229" s="9">
@@ -11677,7 +11687,7 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="A230" s="13">
         <v>700850116</v>
       </c>
       <c r="B230" s="9">
@@ -11711,7 +11721,7 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="A231" s="13">
         <v>700850119</v>
       </c>
       <c r="B231" s="9">
@@ -11745,7 +11755,7 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="13">
         <v>700850124</v>
       </c>
       <c r="B232" s="9">
@@ -11779,7 +11789,7 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="A233" s="13">
         <v>700850130</v>
       </c>
       <c r="B233" s="9">
@@ -11813,7 +11823,7 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="A234" s="13">
         <v>700850147</v>
       </c>
       <c r="B234" s="9">
@@ -11847,7 +11857,7 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="A235" s="13">
         <v>700850148</v>
       </c>
       <c r="B235" s="9">
@@ -11881,7 +11891,7 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="A236" s="13">
         <v>700850151</v>
       </c>
       <c r="B236" s="9">
@@ -11915,7 +11925,7 @@
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="A237" s="13">
         <v>700850161</v>
       </c>
       <c r="B237" s="9">
@@ -11949,7 +11959,7 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="A238" s="13">
         <v>700850162</v>
       </c>
       <c r="B238" s="9">
@@ -11983,7 +11993,7 @@
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+      <c r="A239" s="13">
         <v>700850171</v>
       </c>
       <c r="B239" s="9">
@@ -12017,7 +12027,7 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+      <c r="A240" s="13">
         <v>700850173</v>
       </c>
       <c r="B240" s="9">
@@ -12051,7 +12061,7 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+      <c r="A241" s="13">
         <v>700850263</v>
       </c>
       <c r="B241" s="9">
@@ -12085,7 +12095,7 @@
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="A242" s="13">
         <v>700850301</v>
       </c>
       <c r="B242" s="9">
@@ -12119,7 +12129,7 @@
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+      <c r="A243" s="13">
         <v>700850310</v>
       </c>
       <c r="B243" s="9">
@@ -12153,7 +12163,7 @@
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="A244" s="13">
         <v>700850323</v>
       </c>
       <c r="B244" s="9">
@@ -12187,7 +12197,7 @@
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="A245" s="13">
         <v>700850324</v>
       </c>
       <c r="B245" s="9">
@@ -12221,7 +12231,7 @@
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="A246" s="13">
         <v>700850325</v>
       </c>
       <c r="B246" s="9">
@@ -12255,7 +12265,7 @@
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="A247" s="13">
         <v>700850352</v>
       </c>
       <c r="B247" s="9">
@@ -12289,7 +12299,7 @@
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+      <c r="A248" s="13">
         <v>700850427</v>
       </c>
       <c r="B248" s="9">
@@ -12323,7 +12333,7 @@
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+      <c r="A249" s="13">
         <v>700850443</v>
       </c>
       <c r="B249" s="9">
@@ -12357,7 +12367,7 @@
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+      <c r="A250" s="13">
         <v>700850446</v>
       </c>
       <c r="B250" s="9">
@@ -12391,7 +12401,7 @@
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+      <c r="A251" s="13">
         <v>700850448</v>
       </c>
       <c r="B251" s="9">
@@ -12425,7 +12435,7 @@
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+      <c r="A252" s="13">
         <v>700850449</v>
       </c>
       <c r="B252" s="9">
@@ -12459,7 +12469,7 @@
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
+      <c r="A253" s="13">
         <v>700850452</v>
       </c>
       <c r="B253" s="9">
@@ -12493,7 +12503,7 @@
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+      <c r="A254" s="13">
         <v>700850454</v>
       </c>
       <c r="B254" s="9">
@@ -12527,7 +12537,7 @@
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+      <c r="A255" s="13">
         <v>700850498</v>
       </c>
       <c r="B255" s="9">
@@ -12561,7 +12571,7 @@
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+      <c r="A256" s="13">
         <v>700850499</v>
       </c>
       <c r="B256" s="9">
@@ -12595,7 +12605,7 @@
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+      <c r="A257" s="13">
         <v>700850755</v>
       </c>
       <c r="B257" s="9">
@@ -12629,7 +12639,7 @@
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+      <c r="A258" s="13">
         <v>700850820</v>
       </c>
       <c r="B258" s="9">
@@ -12663,7 +12673,7 @@
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+      <c r="A259" s="13">
         <v>700850921</v>
       </c>
       <c r="B259" s="9">
@@ -12689,7 +12699,7 @@
         <v>428.61</v>
       </c>
       <c r="I259" s="4">
-        <f t="shared" ref="I259:J322" si="4">H259/G259</f>
+        <f t="shared" ref="I259:I322" si="4">H259/G259</f>
         <v>30.615000000000002</v>
       </c>
       <c r="J259" s="4">
@@ -12697,7 +12707,7 @@
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+      <c r="A260" s="13">
         <v>700850925</v>
       </c>
       <c r="B260" s="9">
@@ -12731,7 +12741,7 @@
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="13">
         <v>700851022</v>
       </c>
       <c r="B261" s="9">
@@ -12765,7 +12775,7 @@
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="13">
         <v>700851026</v>
       </c>
       <c r="B262" s="9">
@@ -12799,7 +12809,7 @@
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="13">
         <v>700851327</v>
       </c>
       <c r="B263" s="9">
@@ -12833,7 +12843,7 @@
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="13">
         <v>700851372</v>
       </c>
       <c r="B264" s="9">
@@ -12867,7 +12877,7 @@
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="13">
         <v>700851717</v>
       </c>
       <c r="B265" s="9">
@@ -12901,7 +12911,7 @@
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="13">
         <v>700851724</v>
       </c>
       <c r="B266" s="9">
@@ -12935,7 +12945,7 @@
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+      <c r="A267" s="13">
         <v>700851761</v>
       </c>
       <c r="B267" s="9">
@@ -12969,7 +12979,7 @@
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+      <c r="A268" s="13">
         <v>700851890</v>
       </c>
       <c r="B268" s="9">
@@ -13003,7 +13013,7 @@
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+      <c r="A269" s="13">
         <v>700851924</v>
       </c>
       <c r="B269" s="9">
@@ -13037,7 +13047,7 @@
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+      <c r="A270" s="13">
         <v>700852014</v>
       </c>
       <c r="B270" s="9">
@@ -13071,7 +13081,7 @@
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+      <c r="A271" s="13">
         <v>700852059</v>
       </c>
       <c r="B271" s="9">
@@ -13105,7 +13115,7 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+      <c r="A272" s="13">
         <v>700852081</v>
       </c>
       <c r="B272" s="9">
@@ -13139,7 +13149,7 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
+      <c r="A273" s="13">
         <v>700852238</v>
       </c>
       <c r="B273" s="9">
@@ -13173,7 +13183,7 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+      <c r="A274" s="13">
         <v>700852256</v>
       </c>
       <c r="B274" s="9">
@@ -13207,7 +13217,7 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+      <c r="A275" s="13">
         <v>700852258</v>
       </c>
       <c r="B275" s="9">
@@ -13241,7 +13251,7 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+      <c r="A276" s="13">
         <v>700852265</v>
       </c>
       <c r="B276" s="9">
@@ -13275,7 +13285,7 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+      <c r="A277" s="13">
         <v>700852289</v>
       </c>
       <c r="B277" s="9">
@@ -13309,7 +13319,7 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+      <c r="A278" s="13">
         <v>700852357</v>
       </c>
       <c r="B278" s="9">
@@ -13343,7 +13353,7 @@
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+      <c r="A279" s="13">
         <v>700852360</v>
       </c>
       <c r="B279" s="9">
@@ -13377,7 +13387,7 @@
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+      <c r="A280" s="13">
         <v>700852377</v>
       </c>
       <c r="B280" s="9">
@@ -13411,7 +13421,7 @@
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+      <c r="A281" s="13">
         <v>700852420</v>
       </c>
       <c r="B281" s="9">
@@ -13445,7 +13455,7 @@
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+      <c r="A282" s="13">
         <v>700852489</v>
       </c>
       <c r="B282" s="9">
@@ -13479,7 +13489,7 @@
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
+      <c r="A283" s="13">
         <v>700852606</v>
       </c>
       <c r="B283" s="9">
@@ -13513,7 +13523,7 @@
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+      <c r="A284" s="13">
         <v>700852635</v>
       </c>
       <c r="B284" s="9">
@@ -13547,7 +13557,7 @@
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+      <c r="A285" s="13">
         <v>700852638</v>
       </c>
       <c r="B285" s="9">
@@ -13581,7 +13591,7 @@
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+      <c r="A286" s="13">
         <v>700852642</v>
       </c>
       <c r="B286" s="9">
@@ -13615,7 +13625,7 @@
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+      <c r="A287" s="13">
         <v>700852733</v>
       </c>
       <c r="B287" s="9">
@@ -13649,7 +13659,7 @@
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+      <c r="A288" s="13">
         <v>700852734</v>
       </c>
       <c r="B288" s="9">
@@ -13683,7 +13693,7 @@
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+      <c r="A289" s="13">
         <v>700852736</v>
       </c>
       <c r="B289" s="9">
@@ -13717,7 +13727,7 @@
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+      <c r="A290" s="13">
         <v>700852740</v>
       </c>
       <c r="B290" s="9">
@@ -13751,7 +13761,7 @@
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+      <c r="A291" s="13">
         <v>700852741</v>
       </c>
       <c r="B291" s="9">
@@ -13785,7 +13795,7 @@
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+      <c r="A292" s="13">
         <v>700852768</v>
       </c>
       <c r="B292" s="9">
@@ -13819,7 +13829,7 @@
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
+      <c r="A293" s="13">
         <v>700852775</v>
       </c>
       <c r="B293" s="9">
@@ -13853,7 +13863,7 @@
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+      <c r="A294" s="13">
         <v>700852776</v>
       </c>
       <c r="B294" s="9">
@@ -13887,7 +13897,7 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+      <c r="A295" s="13">
         <v>700852779</v>
       </c>
       <c r="B295" s="9">
@@ -13921,7 +13931,7 @@
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+      <c r="A296" s="13">
         <v>700852780</v>
       </c>
       <c r="B296" s="9">
@@ -13955,7 +13965,7 @@
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+      <c r="A297" s="13">
         <v>700852781</v>
       </c>
       <c r="B297" s="9">
@@ -13989,7 +13999,7 @@
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+      <c r="A298" s="13">
         <v>700852796</v>
       </c>
       <c r="B298" s="9">
@@ -14023,7 +14033,7 @@
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+      <c r="A299" s="13">
         <v>700852797</v>
       </c>
       <c r="B299" s="9">
@@ -14057,7 +14067,7 @@
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+      <c r="A300" s="13">
         <v>700852798</v>
       </c>
       <c r="B300" s="9">
@@ -14091,7 +14101,7 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+      <c r="A301" s="13">
         <v>700852816</v>
       </c>
       <c r="B301" s="9">
@@ -14125,7 +14135,7 @@
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+      <c r="A302" s="13">
         <v>700852821</v>
       </c>
       <c r="B302" s="9">
@@ -14159,7 +14169,7 @@
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
+      <c r="A303" s="13">
         <v>700852883</v>
       </c>
       <c r="B303" s="9">
@@ -14193,7 +14203,7 @@
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+      <c r="A304" s="13">
         <v>700852957</v>
       </c>
       <c r="B304" s="9">
@@ -14227,7 +14237,7 @@
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+      <c r="A305" s="13">
         <v>700853024</v>
       </c>
       <c r="B305" s="9">
@@ -14261,7 +14271,7 @@
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+      <c r="A306" s="13">
         <v>700853026</v>
       </c>
       <c r="B306" s="9">
@@ -14295,7 +14305,7 @@
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+      <c r="A307" s="13">
         <v>700853027</v>
       </c>
       <c r="B307" s="9">
@@ -14329,7 +14339,7 @@
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+      <c r="A308" s="13">
         <v>700853028</v>
       </c>
       <c r="B308" s="9">
@@ -14363,7 +14373,7 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+      <c r="A309" s="13">
         <v>700853029</v>
       </c>
       <c r="B309" s="9">
@@ -14397,7 +14407,7 @@
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+      <c r="A310" s="13">
         <v>700853033</v>
       </c>
       <c r="B310" s="9">
@@ -14431,7 +14441,7 @@
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+      <c r="A311" s="13">
         <v>700853380</v>
       </c>
       <c r="B311" s="9">
@@ -14465,7 +14475,7 @@
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+      <c r="A312" s="13">
         <v>700853388</v>
       </c>
       <c r="B312" s="9">
@@ -14499,7 +14509,7 @@
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
+      <c r="A313" s="13">
         <v>700853389</v>
       </c>
       <c r="B313" s="9">
@@ -14533,7 +14543,7 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+      <c r="A314" s="13">
         <v>700853417</v>
       </c>
       <c r="B314" s="9">
@@ -14567,7 +14577,7 @@
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+      <c r="A315" s="13">
         <v>700853458</v>
       </c>
       <c r="B315" s="9">
@@ -14601,7 +14611,7 @@
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+      <c r="A316" s="13">
         <v>700853459</v>
       </c>
       <c r="B316" s="9">
@@ -14635,7 +14645,7 @@
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+      <c r="A317" s="13">
         <v>700853487</v>
       </c>
       <c r="B317" s="9">
@@ -14669,7 +14679,7 @@
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+      <c r="A318" s="13">
         <v>700853697</v>
       </c>
       <c r="B318" s="9">
@@ -14703,7 +14713,7 @@
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+      <c r="A319" s="13">
         <v>700853706</v>
       </c>
       <c r="B319" s="9">
@@ -14737,7 +14747,7 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+      <c r="A320" s="13">
         <v>700853779</v>
       </c>
       <c r="B320" s="9">
@@ -14771,7 +14781,7 @@
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+      <c r="A321" s="13">
         <v>700853867</v>
       </c>
       <c r="B321" s="9">
@@ -14805,7 +14815,7 @@
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+      <c r="A322" s="13">
         <v>700854016</v>
       </c>
       <c r="B322" s="9">
@@ -14839,7 +14849,7 @@
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
+      <c r="A323" s="13">
         <v>700854463</v>
       </c>
       <c r="B323" s="9">
@@ -14865,7 +14875,7 @@
         <v>2428.73</v>
       </c>
       <c r="I323" s="4">
-        <f t="shared" ref="I323:J386" si="5">H323/G323</f>
+        <f t="shared" ref="I323:I386" si="5">H323/G323</f>
         <v>2428.73</v>
       </c>
       <c r="J323" s="4">
@@ -14873,7 +14883,7 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+      <c r="A324" s="13">
         <v>700900001</v>
       </c>
       <c r="B324" s="9">
@@ -14907,7 +14917,7 @@
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+      <c r="A325" s="13">
         <v>700950012</v>
       </c>
       <c r="B325" s="9">
@@ -14941,7 +14951,7 @@
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+      <c r="A326" s="13">
         <v>700950054</v>
       </c>
       <c r="B326" s="9">
@@ -14975,7 +14985,7 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+      <c r="A327" s="13">
         <v>700950085</v>
       </c>
       <c r="B327" s="9">
@@ -15009,7 +15019,7 @@
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+      <c r="A328" s="13">
         <v>700950215</v>
       </c>
       <c r="B328" s="9">
@@ -15043,7 +15053,7 @@
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+      <c r="A329" s="13">
         <v>700950222</v>
       </c>
       <c r="B329" s="9">
@@ -15077,7 +15087,7 @@
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+      <c r="A330" s="13">
         <v>700950233</v>
       </c>
       <c r="B330" s="9">
@@ -15111,7 +15121,7 @@
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+      <c r="A331" s="13">
         <v>700950286</v>
       </c>
       <c r="B331" s="9">
@@ -15145,7 +15155,7 @@
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+      <c r="A332" s="13">
         <v>700950358</v>
       </c>
       <c r="B332" s="9">
@@ -15179,7 +15189,7 @@
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
+      <c r="A333" s="13">
         <v>700950403</v>
       </c>
       <c r="B333" s="9">
@@ -15213,7 +15223,7 @@
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+      <c r="A334" s="13">
         <v>700950468</v>
       </c>
       <c r="B334" s="9">
@@ -15247,7 +15257,7 @@
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+      <c r="A335" s="13">
         <v>700950469</v>
       </c>
       <c r="B335" s="9">
@@ -15281,7 +15291,7 @@
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+      <c r="A336" s="13">
         <v>700950501</v>
       </c>
       <c r="B336" s="9">
@@ -15315,7 +15325,7 @@
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+      <c r="A337" s="13">
         <v>701000001</v>
       </c>
       <c r="B337" s="9">
@@ -15349,7 +15359,7 @@
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+      <c r="A338" s="13">
         <v>701000051</v>
       </c>
       <c r="B338" s="9">
@@ -15383,7 +15393,7 @@
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+      <c r="A339" s="13">
         <v>701000109</v>
       </c>
       <c r="B339" s="9">
@@ -15417,7 +15427,7 @@
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+      <c r="A340" s="13">
         <v>701000266</v>
       </c>
       <c r="B340" s="9">
@@ -15451,7 +15461,7 @@
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+      <c r="A341" s="13">
         <v>701050012</v>
       </c>
       <c r="B341" s="9">
@@ -15485,7 +15495,7 @@
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+      <c r="A342" s="13">
         <v>701050013</v>
       </c>
       <c r="B342" s="9">
@@ -15519,7 +15529,7 @@
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
+      <c r="A343" s="13">
         <v>701050074</v>
       </c>
       <c r="B343" s="9">
@@ -15553,7 +15563,7 @@
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+      <c r="A344" s="13">
         <v>701050125</v>
       </c>
       <c r="B344" s="9">
@@ -15587,7 +15597,7 @@
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+      <c r="A345" s="13">
         <v>701050132</v>
       </c>
       <c r="B345" s="9">
@@ -15621,7 +15631,7 @@
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+      <c r="A346" s="13">
         <v>701050172</v>
       </c>
       <c r="B346" s="9">
@@ -15655,7 +15665,7 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+      <c r="A347" s="13">
         <v>701050177</v>
       </c>
       <c r="B347" s="9">
@@ -15689,7 +15699,7 @@
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+      <c r="A348" s="13">
         <v>701050213</v>
       </c>
       <c r="B348" s="9">
@@ -15723,7 +15733,7 @@
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+      <c r="A349" s="13">
         <v>701050223</v>
       </c>
       <c r="B349" s="9">
@@ -15757,7 +15767,7 @@
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+      <c r="A350" s="13">
         <v>701050259</v>
       </c>
       <c r="B350" s="9">
@@ -15791,7 +15801,7 @@
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+      <c r="A351" s="13">
         <v>701050263</v>
       </c>
       <c r="B351" s="9">
@@ -15825,7 +15835,7 @@
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+      <c r="A352" s="13">
         <v>701050267</v>
       </c>
       <c r="B352" s="9">
@@ -15859,7 +15869,7 @@
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
+      <c r="A353" s="13">
         <v>701050279</v>
       </c>
       <c r="B353" s="9">
@@ -15893,7 +15903,7 @@
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+      <c r="A354" s="13">
         <v>701100051</v>
       </c>
       <c r="B354" s="9">
@@ -15927,7 +15937,7 @@
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+      <c r="A355" s="13">
         <v>701100064</v>
       </c>
       <c r="B355" s="9">
@@ -15961,7 +15971,7 @@
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+      <c r="A356" s="13">
         <v>701100066</v>
       </c>
       <c r="B356" s="9">
@@ -15995,7 +16005,7 @@
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+      <c r="A357" s="13">
         <v>701150025</v>
       </c>
       <c r="B357" s="9">
@@ -16029,7 +16039,7 @@
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+      <c r="A358" s="13">
         <v>701150026</v>
       </c>
       <c r="B358" s="9">
@@ -16063,7 +16073,7 @@
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+      <c r="A359" s="13">
         <v>701150028</v>
       </c>
       <c r="B359" s="9">
@@ -16097,7 +16107,7 @@
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+      <c r="A360" s="13">
         <v>701150029</v>
       </c>
       <c r="B360" s="9">
@@ -16131,7 +16141,7 @@
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+      <c r="A361" s="13">
         <v>701150066</v>
       </c>
       <c r="B361" s="9">
@@ -16165,7 +16175,7 @@
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+      <c r="A362" s="13">
         <v>701150069</v>
       </c>
       <c r="B362" s="9">
@@ -16199,7 +16209,7 @@
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
+      <c r="A363" s="13">
         <v>701150091</v>
       </c>
       <c r="B363" s="9">
@@ -16233,7 +16243,7 @@
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+      <c r="A364" s="13">
         <v>701150093</v>
       </c>
       <c r="B364" s="9">
@@ -16267,7 +16277,7 @@
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+      <c r="A365" s="13">
         <v>701150098</v>
       </c>
       <c r="B365" s="9">
@@ -16301,7 +16311,7 @@
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+      <c r="A366" s="13">
         <v>701150103</v>
       </c>
       <c r="B366" s="9">
@@ -16335,7 +16345,7 @@
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+      <c r="A367" s="13">
         <v>701150113</v>
       </c>
       <c r="B367" s="9">
@@ -16369,7 +16379,7 @@
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+      <c r="A368" s="13">
         <v>701150138</v>
       </c>
       <c r="B368" s="9">
@@ -16403,7 +16413,7 @@
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+      <c r="A369" s="13">
         <v>701150140</v>
       </c>
       <c r="B369" s="9">
@@ -16437,7 +16447,7 @@
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+      <c r="A370" s="13">
         <v>701150219</v>
       </c>
       <c r="B370" s="9">
@@ -16471,7 +16481,7 @@
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+      <c r="A371" s="13">
         <v>701200016</v>
       </c>
       <c r="B371" s="9">
@@ -16505,7 +16515,7 @@
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+      <c r="A372" s="13">
         <v>701200036</v>
       </c>
       <c r="B372" s="9">
@@ -16539,7 +16549,7 @@
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
+      <c r="A373" s="13">
         <v>701200047</v>
       </c>
       <c r="B373" s="9">
@@ -16573,7 +16583,7 @@
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+      <c r="A374" s="13">
         <v>701200048</v>
       </c>
       <c r="B374" s="9">
@@ -16607,7 +16617,7 @@
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+      <c r="A375" s="13">
         <v>701200056</v>
       </c>
       <c r="B375" s="9">
@@ -16641,7 +16651,7 @@
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+      <c r="A376" s="13">
         <v>701250011</v>
       </c>
       <c r="B376" s="9">
@@ -16675,7 +16685,7 @@
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+      <c r="A377" s="13">
         <v>701250015</v>
       </c>
       <c r="B377" s="9">
@@ -16709,7 +16719,7 @@
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+      <c r="A378" s="13">
         <v>701250016</v>
       </c>
       <c r="B378" s="9">
@@ -16743,7 +16753,7 @@
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+      <c r="A379" s="13">
         <v>701250021</v>
       </c>
       <c r="B379" s="9">
@@ -16777,7 +16787,7 @@
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+      <c r="A380" s="13">
         <v>701250029</v>
       </c>
       <c r="B380" s="9">
@@ -16811,7 +16821,7 @@
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+      <c r="A381" s="13">
         <v>701250048</v>
       </c>
       <c r="B381" s="9">
@@ -16845,7 +16855,7 @@
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A382" s="2">
+      <c r="A382" s="13">
         <v>701250053</v>
       </c>
       <c r="B382" s="9">
@@ -16879,7 +16889,7 @@
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="2">
+      <c r="A383" s="13">
         <v>701250055</v>
       </c>
       <c r="B383" s="9">
@@ -16913,7 +16923,7 @@
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A384" s="2">
+      <c r="A384" s="13">
         <v>701250057</v>
       </c>
       <c r="B384" s="9">
@@ -16947,7 +16957,7 @@
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A385" s="2">
+      <c r="A385" s="13">
         <v>701250061</v>
       </c>
       <c r="B385" s="9">
@@ -16981,7 +16991,7 @@
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A386" s="2">
+      <c r="A386" s="13">
         <v>701250062</v>
       </c>
       <c r="B386" s="9">
@@ -17015,7 +17025,7 @@
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A387" s="2">
+      <c r="A387" s="13">
         <v>701250065</v>
       </c>
       <c r="B387" s="9">
@@ -17041,7 +17051,7 @@
         <v>75.260000000000005</v>
       </c>
       <c r="I387" s="4">
-        <f t="shared" ref="I387:J450" si="6">H387/G387</f>
+        <f t="shared" ref="I387:I450" si="6">H387/G387</f>
         <v>75.260000000000005</v>
       </c>
       <c r="J387" s="4">
@@ -17049,7 +17059,7 @@
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="2">
+      <c r="A388" s="13">
         <v>701250075</v>
       </c>
       <c r="B388" s="9">
@@ -17083,7 +17093,7 @@
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A389" s="2">
+      <c r="A389" s="13">
         <v>701250076</v>
       </c>
       <c r="B389" s="9">
@@ -17117,7 +17127,7 @@
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A390" s="2">
+      <c r="A390" s="13">
         <v>701250091</v>
       </c>
       <c r="B390" s="9">
@@ -17151,7 +17161,7 @@
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A391" s="2">
+      <c r="A391" s="13">
         <v>701250092</v>
       </c>
       <c r="B391" s="9">
@@ -17185,7 +17195,7 @@
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="2">
+      <c r="A392" s="13">
         <v>701250094</v>
       </c>
       <c r="B392" s="9">
@@ -17219,7 +17229,7 @@
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A393" s="2">
+      <c r="A393" s="13">
         <v>701250101</v>
       </c>
       <c r="B393" s="9">
@@ -17253,7 +17263,7 @@
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A394" s="2">
+      <c r="A394" s="13">
         <v>701250107</v>
       </c>
       <c r="B394" s="9">
@@ -17287,7 +17297,7 @@
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A395" s="2">
+      <c r="A395" s="13">
         <v>701250111</v>
       </c>
       <c r="B395" s="9">
@@ -17321,7 +17331,7 @@
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A396" s="2">
+      <c r="A396" s="13">
         <v>701250120</v>
       </c>
       <c r="B396" s="9">
@@ -17355,7 +17365,7 @@
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="2">
+      <c r="A397" s="13">
         <v>701250148</v>
       </c>
       <c r="B397" s="9">
@@ -17389,7 +17399,7 @@
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A398" s="2">
+      <c r="A398" s="13">
         <v>701250152</v>
       </c>
       <c r="B398" s="9">
@@ -17423,7 +17433,7 @@
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A399" s="2">
+      <c r="A399" s="13">
         <v>701250156</v>
       </c>
       <c r="B399" s="9">
@@ -17457,7 +17467,7 @@
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A400" s="2">
+      <c r="A400" s="13">
         <v>701250163</v>
       </c>
       <c r="B400" s="9">
@@ -17491,7 +17501,7 @@
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A401" s="2">
+      <c r="A401" s="13">
         <v>701250166</v>
       </c>
       <c r="B401" s="9">
@@ -17525,7 +17535,7 @@
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A402" s="2">
+      <c r="A402" s="13">
         <v>701250168</v>
       </c>
       <c r="B402" s="9">
@@ -17559,7 +17569,7 @@
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A403" s="2">
+      <c r="A403" s="13">
         <v>701250171</v>
       </c>
       <c r="B403" s="9">
@@ -17593,7 +17603,7 @@
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A404" s="2">
+      <c r="A404" s="13">
         <v>701250172</v>
       </c>
       <c r="B404" s="9">
@@ -17627,7 +17637,7 @@
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A405" s="2">
+      <c r="A405" s="13">
         <v>701250175</v>
       </c>
       <c r="B405" s="9">
@@ -17661,7 +17671,7 @@
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A406" s="2">
+      <c r="A406" s="13">
         <v>701250192</v>
       </c>
       <c r="B406" s="9">
@@ -17695,7 +17705,7 @@
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A407" s="2">
+      <c r="A407" s="13">
         <v>701250194</v>
       </c>
       <c r="B407" s="9">
@@ -17729,7 +17739,7 @@
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A408" s="2">
+      <c r="A408" s="13">
         <v>701250196</v>
       </c>
       <c r="B408" s="9">
@@ -17763,7 +17773,7 @@
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A409" s="2">
+      <c r="A409" s="13">
         <v>701250198</v>
       </c>
       <c r="B409" s="9">
@@ -17797,7 +17807,7 @@
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A410" s="2">
+      <c r="A410" s="13">
         <v>701250204</v>
       </c>
       <c r="B410" s="9">
@@ -17831,7 +17841,7 @@
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A411" s="2">
+      <c r="A411" s="13">
         <v>701250210</v>
       </c>
       <c r="B411" s="9">
@@ -17865,7 +17875,7 @@
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A412" s="2">
+      <c r="A412" s="13">
         <v>701250214</v>
       </c>
       <c r="B412" s="9">
@@ -17899,7 +17909,7 @@
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A413" s="2">
+      <c r="A413" s="13">
         <v>701250215</v>
       </c>
       <c r="B413" s="9">
@@ -17933,7 +17943,7 @@
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A414" s="2">
+      <c r="A414" s="13">
         <v>701250219</v>
       </c>
       <c r="B414" s="9">
@@ -17967,7 +17977,7 @@
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A415" s="2">
+      <c r="A415" s="13">
         <v>701250226</v>
       </c>
       <c r="B415" s="9">
@@ -18001,7 +18011,7 @@
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A416" s="2">
+      <c r="A416" s="13">
         <v>701250230</v>
       </c>
       <c r="B416" s="9">
@@ -18035,7 +18045,7 @@
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A417" s="2">
+      <c r="A417" s="13">
         <v>701250278</v>
       </c>
       <c r="B417" s="9">
@@ -18069,7 +18079,7 @@
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A418" s="2">
+      <c r="A418" s="13">
         <v>701250407</v>
       </c>
       <c r="B418" s="9">
@@ -18103,7 +18113,7 @@
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A419" s="2">
+      <c r="A419" s="13">
         <v>701250416</v>
       </c>
       <c r="B419" s="9">
@@ -18137,7 +18147,7 @@
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A420" s="2">
+      <c r="A420" s="13">
         <v>701250449</v>
       </c>
       <c r="B420" s="9">
@@ -18171,7 +18181,7 @@
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A421" s="2">
+      <c r="A421" s="13">
         <v>701250462</v>
       </c>
       <c r="B421" s="9">
@@ -18205,7 +18215,7 @@
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A422" s="2">
+      <c r="A422" s="13">
         <v>701250464</v>
       </c>
       <c r="B422" s="9">
@@ -18239,7 +18249,7 @@
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A423" s="2">
+      <c r="A423" s="13">
         <v>701250465</v>
       </c>
       <c r="B423" s="9">
@@ -18273,7 +18283,7 @@
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A424" s="2">
+      <c r="A424" s="13">
         <v>701250467</v>
       </c>
       <c r="B424" s="9">
@@ -18307,7 +18317,7 @@
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A425" s="2">
+      <c r="A425" s="13">
         <v>701250524</v>
       </c>
       <c r="B425" s="9">
@@ -18341,7 +18351,7 @@
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A426" s="2">
+      <c r="A426" s="13">
         <v>701250578</v>
       </c>
       <c r="B426" s="9">
@@ -18375,7 +18385,7 @@
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A427" s="2">
+      <c r="A427" s="13">
         <v>701250593</v>
       </c>
       <c r="B427" s="9">
@@ -18409,7 +18419,7 @@
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="2">
+      <c r="A428" s="13">
         <v>701250612</v>
       </c>
       <c r="B428" s="9">
@@ -18443,7 +18453,7 @@
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A429" s="2">
+      <c r="A429" s="13">
         <v>701250906</v>
       </c>
       <c r="B429" s="9">
@@ -18477,7 +18487,7 @@
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A430" s="2">
+      <c r="A430" s="13">
         <v>701250907</v>
       </c>
       <c r="B430" s="9">
@@ -18511,7 +18521,7 @@
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A431" s="2">
+      <c r="A431" s="13">
         <v>701450034</v>
       </c>
       <c r="B431" s="9">
@@ -18545,7 +18555,7 @@
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A432" s="2">
+      <c r="A432" s="13">
         <v>701450071</v>
       </c>
       <c r="B432" s="9">
@@ -18579,7 +18589,7 @@
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="2">
+      <c r="A433" s="13">
         <v>701450271</v>
       </c>
       <c r="B433" s="9">
@@ -18613,7 +18623,7 @@
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="2">
+      <c r="A434" s="13">
         <v>701500014</v>
       </c>
       <c r="B434" s="9">
@@ -18647,7 +18657,7 @@
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A435" s="2">
+      <c r="A435" s="13">
         <v>701550005</v>
       </c>
       <c r="B435" s="9">
@@ -18681,7 +18691,7 @@
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A436" s="2">
+      <c r="A436" s="13">
         <v>701650010</v>
       </c>
       <c r="B436" s="9">
@@ -18715,7 +18725,7 @@
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="2">
+      <c r="A437" s="13">
         <v>701650017</v>
       </c>
       <c r="B437" s="9">
@@ -18749,7 +18759,7 @@
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A438" s="2">
+      <c r="A438" s="13">
         <v>701650030</v>
       </c>
       <c r="B438" s="9">
@@ -18783,7 +18793,7 @@
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A439" s="2">
+      <c r="A439" s="13">
         <v>701650078</v>
       </c>
       <c r="B439" s="9">
@@ -18817,7 +18827,7 @@
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A440" s="2">
+      <c r="A440" s="13">
         <v>701650114</v>
       </c>
       <c r="B440" s="9">
@@ -18851,7 +18861,7 @@
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A441" s="2">
+      <c r="A441" s="13">
         <v>701800037</v>
       </c>
       <c r="B441" s="9">
@@ -18885,7 +18895,7 @@
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="2">
+      <c r="A442" s="13">
         <v>701800090</v>
       </c>
       <c r="B442" s="9">
@@ -18919,7 +18929,7 @@
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A443" s="2">
+      <c r="A443" s="13">
         <v>701800124</v>
       </c>
       <c r="B443" s="9">
@@ -18953,7 +18963,7 @@
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A444" s="2">
+      <c r="A444" s="13">
         <v>701800129</v>
       </c>
       <c r="B444" s="9">
@@ -18987,7 +18997,7 @@
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A445" s="2">
+      <c r="A445" s="13">
         <v>701900055</v>
       </c>
       <c r="B445" s="9">
@@ -19021,7 +19031,7 @@
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="2">
+      <c r="A446" s="13">
         <v>701900060</v>
       </c>
       <c r="B446" s="9">
@@ -19055,7 +19065,7 @@
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A447" s="2">
+      <c r="A447" s="13">
         <v>701900063</v>
       </c>
       <c r="B447" s="9">
@@ -19089,7 +19099,7 @@
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A448" s="2">
+      <c r="A448" s="13">
         <v>701900064</v>
       </c>
       <c r="B448" s="9">
@@ -19123,7 +19133,7 @@
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A449" s="2">
+      <c r="A449" s="13">
         <v>701900123</v>
       </c>
       <c r="B449" s="9">
@@ -19157,7 +19167,7 @@
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A450" s="2">
+      <c r="A450" s="13">
         <v>701900156</v>
       </c>
       <c r="B450" s="9">
@@ -19191,7 +19201,7 @@
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="2">
+      <c r="A451" s="13">
         <v>702000004</v>
       </c>
       <c r="B451" s="9">
@@ -19217,7 +19227,7 @@
         <v>1855.89</v>
       </c>
       <c r="I451" s="4">
-        <f t="shared" ref="I451:J514" si="7">H451/G451</f>
+        <f t="shared" ref="I451:I514" si="7">H451/G451</f>
         <v>463.97250000000003</v>
       </c>
       <c r="J451" s="4">
@@ -19225,7 +19235,7 @@
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A452" s="2">
+      <c r="A452" s="13">
         <v>702250009</v>
       </c>
       <c r="B452" s="9">
@@ -19259,7 +19269,7 @@
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A453" s="2">
+      <c r="A453" s="13">
         <v>702250012</v>
       </c>
       <c r="B453" s="9">
@@ -19293,7 +19303,7 @@
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A454" s="2">
+      <c r="A454" s="13">
         <v>702250016</v>
       </c>
       <c r="B454" s="9">
@@ -19327,7 +19337,7 @@
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="2">
+      <c r="A455" s="13">
         <v>702250018</v>
       </c>
       <c r="B455" s="9">
@@ -19361,7 +19371,7 @@
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A456" s="2">
+      <c r="A456" s="13">
         <v>702250023</v>
       </c>
       <c r="B456" s="9">
@@ -19395,7 +19405,7 @@
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A457" s="2">
+      <c r="A457" s="13">
         <v>702250037</v>
       </c>
       <c r="B457" s="9">
@@ -19429,7 +19439,7 @@
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A458" s="2">
+      <c r="A458" s="13">
         <v>702250040</v>
       </c>
       <c r="B458" s="9">
@@ -19463,7 +19473,7 @@
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A459" s="2">
+      <c r="A459" s="13">
         <v>702250043</v>
       </c>
       <c r="B459" s="9">
@@ -19497,7 +19507,7 @@
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="2">
+      <c r="A460" s="13">
         <v>702250046</v>
       </c>
       <c r="B460" s="9">
@@ -19531,7 +19541,7 @@
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A461" s="2">
+      <c r="A461" s="13">
         <v>702250047</v>
       </c>
       <c r="B461" s="9">
@@ -19565,7 +19575,7 @@
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A462" s="2">
+      <c r="A462" s="13">
         <v>702250061</v>
       </c>
       <c r="B462" s="9">
@@ -19599,7 +19609,7 @@
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A463" s="2">
+      <c r="A463" s="13">
         <v>702250107</v>
       </c>
       <c r="B463" s="9">
@@ -19633,7 +19643,7 @@
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="2">
+      <c r="A464" s="13">
         <v>702250132</v>
       </c>
       <c r="B464" s="9">
@@ -19667,7 +19677,7 @@
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A465" s="2">
+      <c r="A465" s="13">
         <v>702250133</v>
       </c>
       <c r="B465" s="9">
@@ -19701,7 +19711,7 @@
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A466" s="2">
+      <c r="A466" s="13">
         <v>702250139</v>
       </c>
       <c r="B466" s="9">
@@ -19735,7 +19745,7 @@
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A467" s="2">
+      <c r="A467" s="13">
         <v>702250157</v>
       </c>
       <c r="B467" s="9">
@@ -19769,7 +19779,7 @@
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A468" s="2">
+      <c r="A468" s="13">
         <v>702250175</v>
       </c>
       <c r="B468" s="9">
@@ -19803,7 +19813,7 @@
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="2">
+      <c r="A469" s="13">
         <v>702250180</v>
       </c>
       <c r="B469" s="9">
@@ -19837,7 +19847,7 @@
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A470" s="2">
+      <c r="A470" s="13">
         <v>702250199</v>
       </c>
       <c r="B470" s="9">
@@ -19871,7 +19881,7 @@
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A471" s="2">
+      <c r="A471" s="13">
         <v>800350433</v>
       </c>
       <c r="B471" s="9">
@@ -19905,7 +19915,7 @@
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A472" s="2">
+      <c r="A472" s="13">
         <v>850650020</v>
       </c>
       <c r="B472" s="9">
@@ -19939,7 +19949,7 @@
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="2">
+      <c r="A473" s="13">
         <v>850650023</v>
       </c>
       <c r="B473" s="9">
@@ -19973,7 +19983,7 @@
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A474" s="2">
+      <c r="A474" s="13">
         <v>850650040</v>
       </c>
       <c r="B474" s="9">
@@ -20007,7 +20017,7 @@
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A475" s="2">
+      <c r="A475" s="13">
         <v>850850203</v>
       </c>
       <c r="B475" s="9">
@@ -20041,7 +20051,7 @@
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A476" s="2">
+      <c r="A476" s="13">
         <v>850850223</v>
       </c>
       <c r="B476" s="9">
@@ -20075,7 +20085,7 @@
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A477" s="2">
+      <c r="A477" s="13">
         <v>850850441</v>
       </c>
       <c r="B477" s="9">
@@ -20109,7 +20119,7 @@
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="2">
+      <c r="A478" s="13">
         <v>850850524</v>
       </c>
       <c r="B478" s="9">
@@ -20143,7 +20153,7 @@
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A479" s="2">
+      <c r="A479" s="13">
         <v>851000015</v>
       </c>
       <c r="B479" s="9">
@@ -20177,7 +20187,7 @@
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A480" s="2">
+      <c r="A480" s="13">
         <v>851150023</v>
       </c>
       <c r="B480" s="9">
@@ -20211,7 +20221,7 @@
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A481" s="2">
+      <c r="A481" s="13">
         <v>851150041</v>
       </c>
       <c r="B481" s="9">
@@ -20245,7 +20255,7 @@
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="2">
+      <c r="A482" s="13">
         <v>950050045</v>
       </c>
       <c r="B482" s="9">
@@ -20279,7 +20289,7 @@
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A483" s="2">
+      <c r="A483" s="13">
         <v>950050064</v>
       </c>
       <c r="B483" s="9">
@@ -20313,7 +20323,7 @@
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A484" s="2">
+      <c r="A484" s="13">
         <v>950150035</v>
       </c>
       <c r="B484" s="9">
@@ -20347,7 +20357,7 @@
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A485" s="2">
+      <c r="A485" s="13">
         <v>950150047</v>
       </c>
       <c r="B485" s="9">
@@ -20381,7 +20391,7 @@
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A486" s="2">
+      <c r="A486" s="13">
         <v>950150054</v>
       </c>
       <c r="B486" s="9">
@@ -20415,7 +20425,7 @@
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="2">
+      <c r="A487" s="13">
         <v>950150175</v>
       </c>
       <c r="B487" s="9">
@@ -20449,7 +20459,7 @@
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A488" s="2">
+      <c r="A488" s="13">
         <v>950150176</v>
       </c>
       <c r="B488" s="9">
@@ -20483,7 +20493,7 @@
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A489" s="2">
+      <c r="A489" s="13">
         <v>950200068</v>
       </c>
       <c r="B489" s="9">
@@ -20517,7 +20527,7 @@
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A490" s="2">
+      <c r="A490" s="13">
         <v>950300002</v>
       </c>
       <c r="B490" s="9">
@@ -20551,7 +20561,7 @@
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="2">
+      <c r="A491" s="13">
         <v>950300017</v>
       </c>
       <c r="B491" s="9">
@@ -20585,7 +20595,7 @@
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A492" s="2">
+      <c r="A492" s="13">
         <v>950300216</v>
       </c>
       <c r="B492" s="9">
@@ -20619,7 +20629,7 @@
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A493" s="2">
+      <c r="A493" s="13">
         <v>950400035</v>
       </c>
       <c r="B493" s="9">
@@ -20653,7 +20663,7 @@
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A494" s="2">
+      <c r="A494" s="13">
         <v>950400089</v>
       </c>
       <c r="B494" s="9">
@@ -20687,7 +20697,7 @@
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A495" s="2">
+      <c r="A495" s="13">
         <v>950450001</v>
       </c>
       <c r="B495" s="9">
@@ -20721,7 +20731,7 @@
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="2">
+      <c r="A496" s="13">
         <v>950450006</v>
       </c>
       <c r="B496" s="9">
@@ -20755,7 +20765,7 @@
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A497" s="2">
+      <c r="A497" s="13">
         <v>950700009</v>
       </c>
       <c r="B497" s="9">
@@ -20789,7 +20799,7 @@
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A498" s="2">
+      <c r="A498" s="13">
         <v>950700015</v>
       </c>
       <c r="B498" s="9">
@@ -20823,7 +20833,7 @@
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A499" s="2">
+      <c r="A499" s="13">
         <v>950700016</v>
       </c>
       <c r="B499" s="9">
@@ -20857,7 +20867,7 @@
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="2">
+      <c r="A500" s="13">
         <v>950700018</v>
       </c>
       <c r="B500" s="9">
@@ -20891,7 +20901,7 @@
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A501" s="2">
+      <c r="A501" s="13">
         <v>950700019</v>
       </c>
       <c r="B501" s="9">
@@ -20925,7 +20935,7 @@
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A502" s="2">
+      <c r="A502" s="13">
         <v>950700022</v>
       </c>
       <c r="B502" s="9">
@@ -20959,7 +20969,7 @@
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A503" s="2">
+      <c r="A503" s="13">
         <v>950700023</v>
       </c>
       <c r="B503" s="9">
@@ -20993,7 +21003,7 @@
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A504" s="2">
+      <c r="A504" s="13">
         <v>950700026</v>
       </c>
       <c r="B504" s="9">
@@ -21027,7 +21037,7 @@
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="2">
+      <c r="A505" s="13">
         <v>950700027</v>
       </c>
       <c r="B505" s="9">
@@ -21061,7 +21071,7 @@
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A506" s="2">
+      <c r="A506" s="13">
         <v>950700028</v>
       </c>
       <c r="B506" s="9">
@@ -21095,7 +21105,7 @@
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A507" s="2">
+      <c r="A507" s="13">
         <v>950700029</v>
       </c>
       <c r="B507" s="9">
@@ -21129,7 +21139,7 @@
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A508" s="2">
+      <c r="A508" s="13">
         <v>950700031</v>
       </c>
       <c r="B508" s="9">
@@ -21163,7 +21173,7 @@
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="2">
+      <c r="A509" s="13">
         <v>950700035</v>
       </c>
       <c r="B509" s="9">
@@ -21197,7 +21207,7 @@
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A510" s="2">
+      <c r="A510" s="13">
         <v>950700037</v>
       </c>
       <c r="B510" s="9">
@@ -21231,7 +21241,7 @@
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A511" s="2">
+      <c r="A511" s="13">
         <v>950700038</v>
       </c>
       <c r="B511" s="9">
@@ -21265,7 +21275,7 @@
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A512" s="2">
+      <c r="A512" s="13">
         <v>950700040</v>
       </c>
       <c r="B512" s="9">
@@ -21299,7 +21309,7 @@
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A513" s="2">
+      <c r="A513" s="13">
         <v>950700044</v>
       </c>
       <c r="B513" s="9">
@@ -21333,7 +21343,7 @@
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="2">
+      <c r="A514" s="13">
         <v>950700046</v>
       </c>
       <c r="B514" s="9">
@@ -21367,7 +21377,7 @@
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A515" s="2">
+      <c r="A515" s="13">
         <v>950700051</v>
       </c>
       <c r="B515" s="9">
@@ -21393,7 +21403,7 @@
         <v>480</v>
       </c>
       <c r="I515" s="4">
-        <f t="shared" ref="I515:J578" si="8">H515/G515</f>
+        <f t="shared" ref="I515:I578" si="8">H515/G515</f>
         <v>80</v>
       </c>
       <c r="J515" s="4">
@@ -21401,7 +21411,7 @@
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A516" s="2">
+      <c r="A516" s="13">
         <v>950700081</v>
       </c>
       <c r="B516" s="9">
@@ -21435,7 +21445,7 @@
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A517" s="2">
+      <c r="A517" s="13">
         <v>950700086</v>
       </c>
       <c r="B517" s="9">
@@ -21469,7 +21479,7 @@
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="2">
+      <c r="A518" s="13">
         <v>950700089</v>
       </c>
       <c r="B518" s="9">
@@ -21503,7 +21513,7 @@
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A519" s="2">
+      <c r="A519" s="13">
         <v>950700090</v>
       </c>
       <c r="B519" s="9">
@@ -21537,7 +21547,7 @@
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A520" s="2">
+      <c r="A520" s="13">
         <v>950700095</v>
       </c>
       <c r="B520" s="9">
@@ -21571,7 +21581,7 @@
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A521" s="2">
+      <c r="A521" s="13">
         <v>950700097</v>
       </c>
       <c r="B521" s="9">
@@ -21605,7 +21615,7 @@
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A522" s="2">
+      <c r="A522" s="13">
         <v>950700108</v>
       </c>
       <c r="B522" s="9">
@@ -21639,7 +21649,7 @@
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="2">
+      <c r="A523" s="13">
         <v>950700113</v>
       </c>
       <c r="B523" s="9">
@@ -21673,7 +21683,7 @@
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A524" s="2">
+      <c r="A524" s="13">
         <v>950700135</v>
       </c>
       <c r="B524" s="9">
@@ -21707,7 +21717,7 @@
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A525" s="2">
+      <c r="A525" s="13">
         <v>950700161</v>
       </c>
       <c r="B525" s="9">
@@ -21741,7 +21751,7 @@
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A526" s="2">
+      <c r="A526" s="13">
         <v>950700173</v>
       </c>
       <c r="B526" s="9">
@@ -21775,7 +21785,7 @@
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="2">
+      <c r="A527" s="13">
         <v>950700176</v>
       </c>
       <c r="B527" s="9">
@@ -21809,7 +21819,7 @@
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A528" s="2">
+      <c r="A528" s="13">
         <v>950700178</v>
       </c>
       <c r="B528" s="9">
@@ -21843,7 +21853,7 @@
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A529" s="2">
+      <c r="A529" s="13">
         <v>950700181</v>
       </c>
       <c r="B529" s="9">
@@ -21877,7 +21887,7 @@
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A530" s="2">
+      <c r="A530" s="13">
         <v>950850356</v>
       </c>
       <c r="B530" s="9">
@@ -21911,7 +21921,7 @@
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A531" s="2">
+      <c r="A531" s="13">
         <v>950850666</v>
       </c>
       <c r="B531" s="9">
@@ -21945,7 +21955,7 @@
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A532" s="2">
+      <c r="A532" s="13">
         <v>951100009</v>
       </c>
       <c r="B532" s="9">
@@ -21979,7 +21989,7 @@
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A533" s="2">
+      <c r="A533" s="13">
         <v>951300248</v>
       </c>
       <c r="B533" s="9">
@@ -22013,7 +22023,7 @@
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A534" s="2">
+      <c r="A534" s="13">
         <v>951300399</v>
       </c>
       <c r="B534" s="9">
@@ -22047,7 +22057,7 @@
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A535" s="2">
+      <c r="A535" s="13">
         <v>951300438</v>
       </c>
       <c r="B535" s="9">
@@ -22081,7 +22091,7 @@
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A536" s="2">
+      <c r="A536" s="13">
         <v>951450005</v>
       </c>
       <c r="B536" s="9">
@@ -22115,7 +22125,7 @@
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A537" s="2">
+      <c r="A537" s="13">
         <v>951450007</v>
       </c>
       <c r="B537" s="9">
@@ -22149,7 +22159,7 @@
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A538" s="2">
+      <c r="A538" s="13">
         <v>951450010</v>
       </c>
       <c r="B538" s="9">
@@ -22183,7 +22193,7 @@
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A539" s="2">
+      <c r="A539" s="13">
         <v>951450013</v>
       </c>
       <c r="B539" s="9">
@@ -22217,7 +22227,7 @@
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A540" s="2">
+      <c r="A540" s="13">
         <v>951450014</v>
       </c>
       <c r="B540" s="9">
@@ -22251,7 +22261,7 @@
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A541" s="2">
+      <c r="A541" s="13">
         <v>951450026</v>
       </c>
       <c r="B541" s="9">
@@ -22285,7 +22295,7 @@
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A542" s="2">
+      <c r="A542" s="13">
         <v>951450029</v>
       </c>
       <c r="B542" s="9">
@@ -22319,7 +22329,7 @@
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A543" s="2">
+      <c r="A543" s="13">
         <v>951450030</v>
       </c>
       <c r="B543" s="9">
@@ -22353,7 +22363,7 @@
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A544" s="2">
+      <c r="A544" s="13">
         <v>951450036</v>
       </c>
       <c r="B544" s="9">
@@ -22387,7 +22397,7 @@
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A545" s="2">
+      <c r="A545" s="13">
         <v>951450037</v>
       </c>
       <c r="B545" s="9">
@@ -22421,7 +22431,7 @@
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A546" s="2">
+      <c r="A546" s="13">
         <v>951450039</v>
       </c>
       <c r="B546" s="9">
@@ -22455,7 +22465,7 @@
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A547" s="2">
+      <c r="A547" s="13">
         <v>951450040</v>
       </c>
       <c r="B547" s="9">
@@ -22489,7 +22499,7 @@
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A548" s="2">
+      <c r="A548" s="13">
         <v>951450048</v>
       </c>
       <c r="B548" s="9">
@@ -22523,7 +22533,7 @@
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A549" s="2">
+      <c r="A549" s="13">
         <v>951450053</v>
       </c>
       <c r="B549" s="9">
@@ -22557,7 +22567,7 @@
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A550" s="2">
+      <c r="A550" s="13">
         <v>951450054</v>
       </c>
       <c r="B550" s="9">
@@ -22591,7 +22601,7 @@
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A551" s="2">
+      <c r="A551" s="13">
         <v>951450059</v>
       </c>
       <c r="B551" s="9">
@@ -22625,7 +22635,7 @@
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A552" s="2">
+      <c r="A552" s="13">
         <v>951450063</v>
       </c>
       <c r="B552" s="9">
@@ -22659,7 +22669,7 @@
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A553" s="2">
+      <c r="A553" s="13">
         <v>951450065</v>
       </c>
       <c r="B553" s="9">
@@ -22693,7 +22703,7 @@
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A554" s="2">
+      <c r="A554" s="13">
         <v>951450104</v>
       </c>
       <c r="B554" s="9">
@@ -22727,7 +22737,7 @@
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A555" s="2">
+      <c r="A555" s="13">
         <v>951550085</v>
       </c>
       <c r="B555" s="9">
@@ -22761,7 +22771,7 @@
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="2">
+      <c r="A556" s="13">
         <v>951600180</v>
       </c>
       <c r="B556" s="9">
@@ -22795,7 +22805,7 @@
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A557" s="2">
+      <c r="A557" s="13">
         <v>951700011</v>
       </c>
       <c r="B557" s="9">
@@ -22829,7 +22839,7 @@
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A558" s="2">
+      <c r="A558" s="13">
         <v>951700021</v>
       </c>
       <c r="B558" s="9">
@@ -22863,7 +22873,7 @@
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A559" s="2">
+      <c r="A559" s="13">
         <v>951700023</v>
       </c>
       <c r="B559" s="9">
@@ -22897,7 +22907,7 @@
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A560" s="2">
+      <c r="A560" s="13">
         <v>951700025</v>
       </c>
       <c r="B560" s="9">
@@ -22931,7 +22941,7 @@
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A561" s="2">
+      <c r="A561" s="13">
         <v>951700028</v>
       </c>
       <c r="B561" s="9">
@@ -22965,7 +22975,7 @@
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A562" s="2">
+      <c r="A562" s="13">
         <v>951700043</v>
       </c>
       <c r="B562" s="9">
@@ -22999,7 +23009,7 @@
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A563" s="2">
+      <c r="A563" s="13">
         <v>951700045</v>
       </c>
       <c r="B563" s="9">
@@ -23033,7 +23043,7 @@
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A564" s="2">
+      <c r="A564" s="13">
         <v>951700053</v>
       </c>
       <c r="B564" s="9">
@@ -23067,7 +23077,7 @@
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A565" s="2">
+      <c r="A565" s="13">
         <v>951700055</v>
       </c>
       <c r="B565" s="9">
@@ -23101,7 +23111,7 @@
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A566" s="2">
+      <c r="A566" s="13">
         <v>951700056</v>
       </c>
       <c r="B566" s="9">
@@ -23135,7 +23145,7 @@
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A567" s="2">
+      <c r="A567" s="13">
         <v>951700058</v>
       </c>
       <c r="B567" s="9">
@@ -23169,7 +23179,7 @@
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A568" s="2">
+      <c r="A568" s="13">
         <v>951700064</v>
       </c>
       <c r="B568" s="9">
@@ -23203,7 +23213,7 @@
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A569" s="2">
+      <c r="A569" s="13">
         <v>951700067</v>
       </c>
       <c r="B569" s="9">
@@ -23237,7 +23247,7 @@
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A570" s="2">
+      <c r="A570" s="13">
         <v>951700073</v>
       </c>
       <c r="B570" s="9">
@@ -23271,7 +23281,7 @@
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A571" s="2">
+      <c r="A571" s="13">
         <v>951700074</v>
       </c>
       <c r="B571" s="9">
@@ -23305,7 +23315,7 @@
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A572" s="2">
+      <c r="A572" s="13">
         <v>951700077</v>
       </c>
       <c r="B572" s="9">
@@ -23339,7 +23349,7 @@
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A573" s="2">
+      <c r="A573" s="13">
         <v>951700104</v>
       </c>
       <c r="B573" s="9">
@@ -23373,7 +23383,7 @@
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A574" s="2">
+      <c r="A574" s="13">
         <v>951700105</v>
       </c>
       <c r="B574" s="9">
@@ -23407,7 +23417,7 @@
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A575" s="2">
+      <c r="A575" s="13">
         <v>951700106</v>
       </c>
       <c r="B575" s="9">
@@ -23441,7 +23451,7 @@
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A576" s="2">
+      <c r="A576" s="13">
         <v>951700109</v>
       </c>
       <c r="B576" s="9">
@@ -23475,7 +23485,7 @@
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A577" s="2">
+      <c r="A577" s="13">
         <v>951700117</v>
       </c>
       <c r="B577" s="9">
@@ -23509,7 +23519,7 @@
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A578" s="2">
+      <c r="A578" s="13">
         <v>951700122</v>
       </c>
       <c r="B578" s="9">
@@ -23543,7 +23553,7 @@
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A579" s="2">
+      <c r="A579" s="13">
         <v>951700125</v>
       </c>
       <c r="B579" s="9">
@@ -23569,7 +23579,7 @@
         <v>194.6</v>
       </c>
       <c r="I579" s="4">
-        <f t="shared" ref="I579:J642" si="9">H579/G579</f>
+        <f t="shared" ref="I579:I642" si="9">H579/G579</f>
         <v>194.6</v>
       </c>
       <c r="J579" s="4">
@@ -23577,7 +23587,7 @@
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A580" s="2">
+      <c r="A580" s="13">
         <v>951700126</v>
       </c>
       <c r="B580" s="9">
@@ -23611,7 +23621,7 @@
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A581" s="2">
+      <c r="A581" s="13">
         <v>951700203</v>
       </c>
       <c r="B581" s="9">
@@ -23645,7 +23655,7 @@
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A582" s="2">
+      <c r="A582" s="13">
         <v>951700269</v>
       </c>
       <c r="B582" s="9">
@@ -23679,7 +23689,7 @@
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A583" s="2">
+      <c r="A583" s="13">
         <v>951700274</v>
       </c>
       <c r="B583" s="9">
@@ -23713,7 +23723,7 @@
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A584" s="2">
+      <c r="A584" s="13">
         <v>951700279</v>
       </c>
       <c r="B584" s="9">
@@ -23747,7 +23757,7 @@
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A585" s="2">
+      <c r="A585" s="13">
         <v>951700291</v>
       </c>
       <c r="B585" s="9">
@@ -23781,7 +23791,7 @@
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A586" s="2">
+      <c r="A586" s="13">
         <v>951700307</v>
       </c>
       <c r="B586" s="9">
@@ -23815,7 +23825,7 @@
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A587" s="2">
+      <c r="A587" s="13">
         <v>951700325</v>
       </c>
       <c r="B587" s="9">
@@ -23849,7 +23859,7 @@
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A588" s="2">
+      <c r="A588" s="13">
         <v>951700352</v>
       </c>
       <c r="B588" s="9">
@@ -23883,7 +23893,7 @@
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A589" s="2">
+      <c r="A589" s="13">
         <v>951700371</v>
       </c>
       <c r="B589" s="9">
@@ -23917,7 +23927,7 @@
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="2">
+      <c r="A590" s="13">
         <v>951700372</v>
       </c>
       <c r="B590" s="9">
@@ -23951,7 +23961,7 @@
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A591" s="2">
+      <c r="A591" s="13">
         <v>951700373</v>
       </c>
       <c r="B591" s="9">
@@ -23985,7 +23995,7 @@
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A592" s="2">
+      <c r="A592" s="13">
         <v>951700374</v>
       </c>
       <c r="B592" s="9">
@@ -24019,7 +24029,7 @@
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A593" s="2">
+      <c r="A593" s="13">
         <v>951700375</v>
       </c>
       <c r="B593" s="9">
@@ -24053,7 +24063,7 @@
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A594" s="2">
+      <c r="A594" s="13">
         <v>951700376</v>
       </c>
       <c r="B594" s="9">
@@ -24087,7 +24097,7 @@
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A595" s="2">
+      <c r="A595" s="13">
         <v>951700381</v>
       </c>
       <c r="B595" s="9">
@@ -24121,7 +24131,7 @@
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="2">
+      <c r="A596" s="13">
         <v>951700382</v>
       </c>
       <c r="B596" s="9">
@@ -24155,7 +24165,7 @@
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A597" s="2">
+      <c r="A597" s="13">
         <v>951700416</v>
       </c>
       <c r="B597" s="9">
@@ -24189,7 +24199,7 @@
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A598" s="2">
+      <c r="A598" s="13">
         <v>951700427</v>
       </c>
       <c r="B598" s="9">
@@ -24223,7 +24233,7 @@
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A599" s="2">
+      <c r="A599" s="13">
         <v>951700428</v>
       </c>
       <c r="B599" s="9">
@@ -24257,7 +24267,7 @@
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="2">
+      <c r="A600" s="13">
         <v>951700429</v>
       </c>
       <c r="B600" s="9">
@@ -24291,7 +24301,7 @@
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A601" s="2">
+      <c r="A601" s="13">
         <v>951700442</v>
       </c>
       <c r="B601" s="9">
@@ -24325,7 +24335,7 @@
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A602" s="2">
+      <c r="A602" s="13">
         <v>951800057</v>
       </c>
       <c r="B602" s="9">
@@ -24359,7 +24369,7 @@
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A603" s="2">
+      <c r="A603" s="13">
         <v>1000600031</v>
       </c>
       <c r="B603" s="9">
@@ -24393,7 +24403,7 @@
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A604" s="2">
+      <c r="A604" s="13">
         <v>1001150109</v>
       </c>
       <c r="B604" s="9">
@@ -24427,7 +24437,7 @@
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A605" s="2">
+      <c r="A605" s="13">
         <v>1001950045</v>
       </c>
       <c r="B605" s="9">
@@ -24461,7 +24471,7 @@
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="2">
+      <c r="A606" s="13">
         <v>1001950925</v>
       </c>
       <c r="B606" s="9">
@@ -24495,7 +24505,7 @@
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A607" s="2">
+      <c r="A607" s="13">
         <v>1002100336</v>
       </c>
       <c r="B607" s="9">
@@ -24529,7 +24539,7 @@
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A608" s="2">
+      <c r="A608" s="13">
         <v>1050050015</v>
       </c>
       <c r="B608" s="9">
@@ -24563,7 +24573,7 @@
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A609" s="2">
+      <c r="A609" s="13">
         <v>1050050235</v>
       </c>
       <c r="B609" s="9">
@@ -24597,7 +24607,7 @@
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="2">
+      <c r="A610" s="13">
         <v>1050100083</v>
       </c>
       <c r="B610" s="9">
@@ -24631,7 +24641,7 @@
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A611" s="2">
+      <c r="A611" s="13">
         <v>1050100086</v>
       </c>
       <c r="B611" s="9">
@@ -24665,7 +24675,7 @@
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A612" s="2">
+      <c r="A612" s="13">
         <v>1050100112</v>
       </c>
       <c r="B612" s="9">
@@ -24699,7 +24709,7 @@
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A613" s="2">
+      <c r="A613" s="13">
         <v>1050100114</v>
       </c>
       <c r="B613" s="9">
@@ -24733,7 +24743,7 @@
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A614" s="2">
+      <c r="A614" s="13">
         <v>1050100188</v>
       </c>
       <c r="B614" s="9">
@@ -24767,7 +24777,7 @@
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A615" s="2">
+      <c r="A615" s="13">
         <v>1050100344</v>
       </c>
       <c r="B615" s="9">
@@ -24801,7 +24811,7 @@
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="2">
+      <c r="A616" s="13">
         <v>1050100388</v>
       </c>
       <c r="B616" s="9">
@@ -24835,7 +24845,7 @@
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A617" s="2">
+      <c r="A617" s="13">
         <v>1050100447</v>
       </c>
       <c r="B617" s="9">
@@ -24869,7 +24879,7 @@
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A618" s="2">
+      <c r="A618" s="13">
         <v>1050100454</v>
       </c>
       <c r="B618" s="9">
@@ -24903,7 +24913,7 @@
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A619" s="2">
+      <c r="A619" s="13">
         <v>1050100456</v>
       </c>
       <c r="B619" s="9">
@@ -24937,7 +24947,7 @@
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="2">
+      <c r="A620" s="13">
         <v>1050100458</v>
       </c>
       <c r="B620" s="9">
@@ -24971,7 +24981,7 @@
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A621" s="2">
+      <c r="A621" s="13">
         <v>1050100459</v>
       </c>
       <c r="B621" s="9">
@@ -25005,7 +25015,7 @@
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A622" s="2">
+      <c r="A622" s="13">
         <v>1050150046</v>
       </c>
       <c r="B622" s="9">
@@ -25039,7 +25049,7 @@
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A623" s="2">
+      <c r="A623" s="13">
         <v>1050150059</v>
       </c>
       <c r="B623" s="9">
@@ -25073,7 +25083,7 @@
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A624" s="2">
+      <c r="A624" s="13">
         <v>1150300012</v>
       </c>
       <c r="B624" s="9">
@@ -25107,7 +25117,7 @@
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A625" s="2" t="s">
+      <c r="A625" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B625" s="9">
@@ -25141,7 +25151,7 @@
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A626" s="2" t="s">
+      <c r="A626" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B626" s="9">
@@ -25175,7 +25185,7 @@
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A627" s="2" t="s">
+      <c r="A627" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B627" s="9">
@@ -25209,7 +25219,7 @@
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A628" s="2" t="s">
+      <c r="A628" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B628" s="9">
@@ -25243,7 +25253,7 @@
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A629" s="2" t="s">
+      <c r="A629" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B629" s="9">
@@ -25277,7 +25287,7 @@
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A630" s="2" t="s">
+      <c r="A630" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B630" s="9">
@@ -25311,7 +25321,7 @@
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A631" s="2" t="s">
+      <c r="A631" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B631" s="9">
@@ -25345,7 +25355,7 @@
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A632" s="2" t="s">
+      <c r="A632" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B632" s="9">
@@ -25379,7 +25389,7 @@
       </c>
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A633" s="2" t="s">
+      <c r="A633" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B633" s="9">
@@ -25413,7 +25423,7 @@
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A634" s="2" t="s">
+      <c r="A634" s="13" t="s">
         <v>78</v>
       </c>
       <c r="B634" s="9">
@@ -25447,7 +25457,7 @@
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A635" s="2" t="s">
+      <c r="A635" s="13" t="s">
         <v>79</v>
       </c>
       <c r="B635" s="9">
@@ -25481,7 +25491,7 @@
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A636" s="2" t="s">
+      <c r="A636" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B636" s="9">
@@ -25515,7 +25525,7 @@
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A637" s="2" t="s">
+      <c r="A637" s="13" t="s">
         <v>81</v>
       </c>
       <c r="B637" s="9">
@@ -25549,7 +25559,7 @@
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A638" s="2" t="s">
+      <c r="A638" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B638" s="9">
@@ -25583,7 +25593,7 @@
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A639" s="2" t="s">
+      <c r="A639" s="13" t="s">
         <v>83</v>
       </c>
       <c r="B639" s="9">
@@ -25617,7 +25627,7 @@
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A640" s="2" t="s">
+      <c r="A640" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B640" s="9">
@@ -25651,7 +25661,7 @@
       </c>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A641" s="2" t="s">
+      <c r="A641" s="13" t="s">
         <v>85</v>
       </c>
       <c r="B641" s="9">
@@ -25685,7 +25695,7 @@
       </c>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A642" s="2" t="s">
+      <c r="A642" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B642" s="9">
@@ -25719,7 +25729,7 @@
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A643" s="2" t="s">
+      <c r="A643" s="13" t="s">
         <v>87</v>
       </c>
       <c r="B643" s="9">
@@ -25745,7 +25755,7 @@
         <v>190</v>
       </c>
       <c r="I643" s="4">
-        <f t="shared" ref="I643:J667" si="10">H643/G643</f>
+        <f t="shared" ref="I643:I667" si="10">H643/G643</f>
         <v>38</v>
       </c>
       <c r="J643" s="4">
@@ -25753,7 +25763,7 @@
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A644" s="2" t="s">
+      <c r="A644" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B644" s="9">
@@ -25787,7 +25797,7 @@
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A645" s="2" t="s">
+      <c r="A645" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B645" s="9">
@@ -25821,7 +25831,7 @@
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A646" s="2" t="s">
+      <c r="A646" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B646" s="9">
@@ -25855,7 +25865,7 @@
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A647" s="2" t="s">
+      <c r="A647" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B647" s="9">
@@ -25889,7 +25899,7 @@
       </c>
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A648" s="2" t="s">
+      <c r="A648" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B648" s="9">
@@ -25923,7 +25933,7 @@
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A649" s="2" t="s">
+      <c r="A649" s="13" t="s">
         <v>93</v>
       </c>
       <c r="B649" s="9">
@@ -25957,7 +25967,7 @@
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A650" s="2" t="s">
+      <c r="A650" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B650" s="9">
@@ -25991,7 +26001,7 @@
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A651" s="2" t="s">
+      <c r="A651" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B651" s="9">
@@ -26025,7 +26035,7 @@
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A652" s="2" t="s">
+      <c r="A652" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B652" s="9">
@@ -26059,7 +26069,7 @@
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A653" s="2" t="s">
+      <c r="A653" s="13" t="s">
         <v>98</v>
       </c>
       <c r="B653" s="9">
@@ -26093,7 +26103,7 @@
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A654" s="2" t="s">
+      <c r="A654" s="13" t="s">
         <v>99</v>
       </c>
       <c r="B654" s="9">
@@ -26127,7 +26137,7 @@
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A655" s="2" t="s">
+      <c r="A655" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B655" s="9">
@@ -26161,7 +26171,7 @@
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A656" s="2" t="s">
+      <c r="A656" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B656" s="9">
@@ -26195,7 +26205,7 @@
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A657" s="2" t="s">
+      <c r="A657" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B657" s="9">
@@ -26229,7 +26239,7 @@
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A658" s="2" t="s">
+      <c r="A658" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B658" s="9">
@@ -26263,7 +26273,7 @@
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A659" s="2" t="s">
+      <c r="A659" s="13" t="s">
         <v>104</v>
       </c>
       <c r="B659" s="9">
@@ -26297,7 +26307,7 @@
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A660" s="2" t="s">
+      <c r="A660" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B660" s="9">
@@ -26331,7 +26341,7 @@
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A661" s="2" t="s">
+      <c r="A661" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B661" s="9">
@@ -26365,7 +26375,7 @@
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A662" s="2" t="s">
+      <c r="A662" s="13" t="s">
         <v>107</v>
       </c>
       <c r="B662" s="9">
@@ -26399,7 +26409,7 @@
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A663" s="2" t="s">
+      <c r="A663" s="13" t="s">
         <v>108</v>
       </c>
       <c r="B663" s="9">
@@ -26433,7 +26443,7 @@
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A664" s="2" t="s">
+      <c r="A664" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B664" s="9">
@@ -26467,7 +26477,7 @@
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A665" s="2" t="s">
+      <c r="A665" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B665" s="9">
@@ -26501,7 +26511,7 @@
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A666" s="2" t="s">
+      <c r="A666" s="13" t="s">
         <v>111</v>
       </c>
       <c r="B666" s="9">
@@ -26535,7 +26545,7 @@
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A667" s="2" t="s">
+      <c r="A667" s="13" t="s">
         <v>113</v>
       </c>
       <c r="B667" s="9">
@@ -26569,7 +26579,7 @@
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A668" s="2"/>
+      <c r="A668" s="13"/>
       <c r="B668" s="9"/>
       <c r="C668" s="2"/>
       <c r="D668" s="10"/>
@@ -26581,7 +26591,7 @@
       <c r="J668" s="4"/>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A669" s="2"/>
+      <c r="A669" s="13"/>
       <c r="B669" s="9"/>
       <c r="C669" s="2"/>
       <c r="D669" s="10"/>
@@ -26593,7 +26603,7 @@
       <c r="J669" s="4"/>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A670" s="2"/>
+      <c r="A670" s="13"/>
       <c r="B670" s="9"/>
       <c r="C670" s="2"/>
       <c r="D670" s="10"/>
@@ -26605,7 +26615,7 @@
       <c r="J670" s="4"/>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A671" s="2"/>
+      <c r="A671" s="13"/>
       <c r="B671" s="9"/>
       <c r="C671" s="2"/>
       <c r="D671" s="10"/>
@@ -26617,7 +26627,7 @@
       <c r="J671" s="4"/>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A672" s="2"/>
+      <c r="A672" s="13"/>
       <c r="B672" s="9"/>
       <c r="C672" s="2"/>
       <c r="D672" s="10"/>
@@ -26629,7 +26639,7 @@
       <c r="J672" s="4"/>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A673" s="2"/>
+      <c r="A673" s="13"/>
       <c r="B673" s="9"/>
       <c r="C673" s="2"/>
       <c r="D673" s="10"/>
@@ -26641,7 +26651,7 @@
       <c r="J673" s="4"/>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A674" s="2"/>
+      <c r="A674" s="13"/>
       <c r="B674" s="9"/>
       <c r="C674" s="2"/>
       <c r="D674" s="10"/>
@@ -26653,7 +26663,7 @@
       <c r="J674" s="4"/>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A675" s="2"/>
+      <c r="A675" s="13"/>
       <c r="B675" s="9"/>
       <c r="C675" s="2"/>
       <c r="D675" s="10"/>
@@ -26665,7 +26675,7 @@
       <c r="J675" s="4"/>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A676" s="2"/>
+      <c r="A676" s="13"/>
       <c r="B676" s="9"/>
       <c r="C676" s="2"/>
       <c r="D676" s="10"/>
@@ -26677,7 +26687,7 @@
       <c r="J676" s="4"/>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A677" s="2"/>
+      <c r="A677" s="13"/>
       <c r="B677" s="9"/>
       <c r="C677" s="2"/>
       <c r="D677" s="10"/>
@@ -26689,7 +26699,7 @@
       <c r="J677" s="4"/>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A678" s="2"/>
+      <c r="A678" s="13"/>
       <c r="B678" s="9"/>
       <c r="C678" s="2"/>
       <c r="D678" s="10"/>
@@ -26701,7 +26711,7 @@
       <c r="J678" s="4"/>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A679" s="2"/>
+      <c r="A679" s="13"/>
       <c r="B679" s="9"/>
       <c r="C679" s="2"/>
       <c r="D679" s="10"/>
@@ -26713,7 +26723,7 @@
       <c r="J679" s="4"/>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A680" s="2"/>
+      <c r="A680" s="13"/>
       <c r="B680" s="9"/>
       <c r="C680" s="2"/>
       <c r="D680" s="10"/>
@@ -26725,7 +26735,7 @@
       <c r="J680" s="4"/>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A681" s="2"/>
+      <c r="A681" s="13"/>
       <c r="B681" s="9"/>
       <c r="C681" s="2"/>
       <c r="D681" s="10"/>
@@ -26737,7 +26747,7 @@
       <c r="J681" s="4"/>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A682" s="2"/>
+      <c r="A682" s="13"/>
       <c r="B682" s="9"/>
       <c r="C682" s="2"/>
       <c r="D682" s="10"/>
@@ -26749,7 +26759,7 @@
       <c r="J682" s="4"/>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A683" s="2"/>
+      <c r="A683" s="13"/>
       <c r="B683" s="9"/>
       <c r="C683" s="2"/>
       <c r="D683" s="10"/>
@@ -26761,7 +26771,7 @@
       <c r="J683" s="4"/>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A684" s="2"/>
+      <c r="A684" s="13"/>
       <c r="B684" s="9"/>
       <c r="C684" s="2"/>
       <c r="D684" s="10"/>
@@ -26773,7 +26783,7 @@
       <c r="J684" s="4"/>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A685" s="2"/>
+      <c r="A685" s="13"/>
       <c r="B685" s="9"/>
       <c r="C685" s="2"/>
       <c r="D685" s="10"/>
@@ -26785,7 +26795,7 @@
       <c r="J685" s="4"/>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A686" s="2"/>
+      <c r="A686" s="13"/>
       <c r="B686" s="9"/>
       <c r="C686" s="2"/>
       <c r="D686" s="10"/>
@@ -26797,7 +26807,7 @@
       <c r="J686" s="4"/>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A687" s="2"/>
+      <c r="A687" s="13"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -26809,7 +26819,7 @@
       <c r="J687" s="4"/>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A688" s="2"/>
+      <c r="A688" s="13"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -26821,7 +26831,7 @@
       <c r="J688" s="4"/>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A689" s="2"/>
+      <c r="A689" s="13"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -26833,7 +26843,7 @@
       <c r="J689" s="4"/>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A690" s="2"/>
+      <c r="A690" s="13"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -26845,7 +26855,7 @@
       <c r="J690" s="4"/>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A691" s="2"/>
+      <c r="A691" s="13"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -26857,7 +26867,7 @@
       <c r="J691" s="4"/>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A692" s="2"/>
+      <c r="A692" s="13"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -26869,7 +26879,7 @@
       <c r="J692" s="4"/>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A693" s="2"/>
+      <c r="A693" s="13"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -26881,7 +26891,7 @@
       <c r="J693" s="4"/>
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A694" s="2"/>
+      <c r="A694" s="13"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -26893,7 +26903,7 @@
       <c r="J694" s="4"/>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A695" s="2"/>
+      <c r="A695" s="13"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -26905,7 +26915,7 @@
       <c r="J695" s="4"/>
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A696" s="2"/>
+      <c r="A696" s="13"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -26917,7 +26927,7 @@
       <c r="J696" s="4"/>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A697" s="2"/>
+      <c r="A697" s="13"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -26929,7 +26939,7 @@
       <c r="J697" s="4"/>
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A698" s="2"/>
+      <c r="A698" s="13"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -26941,7 +26951,7 @@
       <c r="J698" s="4"/>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A699" s="2"/>
+      <c r="A699" s="13"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -26953,7 +26963,7 @@
       <c r="J699" s="4"/>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A700" s="2"/>
+      <c r="A700" s="13"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -26965,7 +26975,7 @@
       <c r="J700" s="4"/>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A701" s="2"/>
+      <c r="A701" s="13"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -26977,7 +26987,7 @@
       <c r="J701" s="4"/>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A702" s="2"/>
+      <c r="A702" s="13"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -26989,7 +26999,7 @@
       <c r="J702" s="4"/>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A703" s="2"/>
+      <c r="A703" s="13"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -27001,7 +27011,7 @@
       <c r="J703" s="4"/>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A704" s="2"/>
+      <c r="A704" s="13"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -27013,7 +27023,7 @@
       <c r="J704" s="4"/>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A705" s="2"/>
+      <c r="A705" s="13"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -27025,7 +27035,7 @@
       <c r="J705" s="4"/>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A706" s="2"/>
+      <c r="A706" s="13"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -27037,7 +27047,7 @@
       <c r="J706" s="4"/>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A707" s="2"/>
+      <c r="A707" s="13"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -27049,7 +27059,7 @@
       <c r="J707" s="4"/>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A708" s="2"/>
+      <c r="A708" s="13"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -27061,7 +27071,7 @@
       <c r="J708" s="4"/>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A709" s="2"/>
+      <c r="A709" s="13"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -27073,7 +27083,7 @@
       <c r="J709" s="4"/>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A710" s="2"/>
+      <c r="A710" s="13"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -27085,7 +27095,7 @@
       <c r="J710" s="4"/>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A711" s="2"/>
+      <c r="A711" s="13"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -27097,7 +27107,7 @@
       <c r="J711" s="4"/>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A712" s="2"/>
+      <c r="A712" s="13"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -27109,7 +27119,7 @@
       <c r="J712" s="4"/>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A713" s="2"/>
+      <c r="A713" s="13"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -27121,7 +27131,7 @@
       <c r="J713" s="4"/>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A714" s="2"/>
+      <c r="A714" s="13"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -27133,7 +27143,7 @@
       <c r="J714" s="4"/>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A715" s="2"/>
+      <c r="A715" s="13"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -27145,7 +27155,7 @@
       <c r="J715" s="4"/>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A716" s="2"/>
+      <c r="A716" s="13"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -27157,7 +27167,7 @@
       <c r="J716" s="4"/>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A717" s="2"/>
+      <c r="A717" s="13"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -27169,7 +27179,7 @@
       <c r="J717" s="4"/>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A718" s="2"/>
+      <c r="A718" s="13"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -27181,7 +27191,7 @@
       <c r="J718" s="4"/>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A719" s="2"/>
+      <c r="A719" s="13"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -27193,7 +27203,7 @@
       <c r="J719" s="4"/>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A720" s="2"/>
+      <c r="A720" s="13"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -27205,7 +27215,7 @@
       <c r="J720" s="4"/>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A721" s="2"/>
+      <c r="A721" s="13"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -27217,7 +27227,7 @@
       <c r="J721" s="4"/>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A722" s="2"/>
+      <c r="A722" s="13"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -27229,7 +27239,7 @@
       <c r="J722" s="4"/>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A723" s="2"/>
+      <c r="A723" s="13"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -27241,7 +27251,7 @@
       <c r="J723" s="4"/>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A724" s="2"/>
+      <c r="A724" s="13"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -27253,7 +27263,7 @@
       <c r="J724" s="4"/>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A725" s="2"/>
+      <c r="A725" s="13"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -27265,7 +27275,7 @@
       <c r="J725" s="4"/>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A726" s="2"/>
+      <c r="A726" s="13"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -27277,7 +27287,7 @@
       <c r="J726" s="4"/>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A727" s="2"/>
+      <c r="A727" s="13"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -27289,7 +27299,7 @@
       <c r="J727" s="4"/>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A728" s="2"/>
+      <c r="A728" s="13"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -27301,7 +27311,7 @@
       <c r="J728" s="4"/>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A729" s="2"/>
+      <c r="A729" s="13"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -27313,7 +27323,7 @@
       <c r="J729" s="4"/>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A730" s="2"/>
+      <c r="A730" s="13"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -27325,7 +27335,7 @@
       <c r="J730" s="4"/>
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A731" s="2"/>
+      <c r="A731" s="13"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -27337,7 +27347,7 @@
       <c r="J731" s="4"/>
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A732" s="2"/>
+      <c r="A732" s="13"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -27349,7 +27359,7 @@
       <c r="J732" s="4"/>
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A733" s="2"/>
+      <c r="A733" s="13"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -27361,7 +27371,7 @@
       <c r="J733" s="4"/>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A734" s="2"/>
+      <c r="A734" s="13"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -27373,7 +27383,7 @@
       <c r="J734" s="4"/>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A735" s="2"/>
+      <c r="A735" s="13"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -27385,7 +27395,7 @@
       <c r="J735" s="4"/>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A736" s="2"/>
+      <c r="A736" s="13"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -27397,7 +27407,7 @@
       <c r="J736" s="4"/>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A737" s="2"/>
+      <c r="A737" s="13"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -27409,7 +27419,7 @@
       <c r="J737" s="4"/>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A738" s="2"/>
+      <c r="A738" s="13"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -27421,7 +27431,7 @@
       <c r="J738" s="4"/>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A739" s="2"/>
+      <c r="A739" s="13"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -27433,7 +27443,7 @@
       <c r="J739" s="4"/>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A740" s="2"/>
+      <c r="A740" s="13"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -27445,7 +27455,7 @@
       <c r="J740" s="4"/>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A741" s="2"/>
+      <c r="A741" s="13"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -27457,7 +27467,7 @@
       <c r="J741" s="4"/>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A742" s="2"/>
+      <c r="A742" s="13"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -27469,7 +27479,7 @@
       <c r="J742" s="4"/>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A743" s="2"/>
+      <c r="A743" s="13"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -27481,7 +27491,7 @@
       <c r="J743" s="4"/>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A744" s="2"/>
+      <c r="A744" s="13"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -27493,7 +27503,7 @@
       <c r="J744" s="4"/>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A745" s="2"/>
+      <c r="A745" s="13"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -27505,7 +27515,7 @@
       <c r="J745" s="4"/>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A746" s="2"/>
+      <c r="A746" s="13"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -30082,20 +30092,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30118,14 +30128,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -30140,4 +30142,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base para o catálogo.xlsx
+++ b/Base para o catálogo.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="1523">
   <si>
     <t>Codigo_Produto</t>
   </si>
@@ -2726,6 +2726,1872 @@
   </si>
   <si>
     <t>OLEO LUBRIFICANTE</t>
+  </si>
+  <si>
+    <t>0400050047</t>
+  </si>
+  <si>
+    <t>0400300043</t>
+  </si>
+  <si>
+    <t>0400350029</t>
+  </si>
+  <si>
+    <t>0400550054</t>
+  </si>
+  <si>
+    <t>0450600065</t>
+  </si>
+  <si>
+    <t>0450600102</t>
+  </si>
+  <si>
+    <t>0450800001</t>
+  </si>
+  <si>
+    <t>0450900202</t>
+  </si>
+  <si>
+    <t>0550150035</t>
+  </si>
+  <si>
+    <t>0550150103</t>
+  </si>
+  <si>
+    <t>0550150105</t>
+  </si>
+  <si>
+    <t>0550150106</t>
+  </si>
+  <si>
+    <t>0550150107</t>
+  </si>
+  <si>
+    <t>0550150108</t>
+  </si>
+  <si>
+    <t>0550150110</t>
+  </si>
+  <si>
+    <t>0550150137</t>
+  </si>
+  <si>
+    <t>0550150165</t>
+  </si>
+  <si>
+    <t>0550150166</t>
+  </si>
+  <si>
+    <t>0550150216</t>
+  </si>
+  <si>
+    <t>0550150221</t>
+  </si>
+  <si>
+    <t>0550150222</t>
+  </si>
+  <si>
+    <t>0550150223</t>
+  </si>
+  <si>
+    <t>0550150224</t>
+  </si>
+  <si>
+    <t>0550150225</t>
+  </si>
+  <si>
+    <t>0550150226</t>
+  </si>
+  <si>
+    <t>0550150227</t>
+  </si>
+  <si>
+    <t>0550150320</t>
+  </si>
+  <si>
+    <t>0550250085</t>
+  </si>
+  <si>
+    <t>0550250089</t>
+  </si>
+  <si>
+    <t>0550300035</t>
+  </si>
+  <si>
+    <t>0550300037</t>
+  </si>
+  <si>
+    <t>0550300060</t>
+  </si>
+  <si>
+    <t>0550300099</t>
+  </si>
+  <si>
+    <t>0550300136</t>
+  </si>
+  <si>
+    <t>0550300189</t>
+  </si>
+  <si>
+    <t>0550300237</t>
+  </si>
+  <si>
+    <t>0550300286</t>
+  </si>
+  <si>
+    <t>0550300344</t>
+  </si>
+  <si>
+    <t>0550300345</t>
+  </si>
+  <si>
+    <t>0550350005</t>
+  </si>
+  <si>
+    <t>0550350031</t>
+  </si>
+  <si>
+    <t>0550350043</t>
+  </si>
+  <si>
+    <t>0550350065</t>
+  </si>
+  <si>
+    <t>0550350084</t>
+  </si>
+  <si>
+    <t>0550350118</t>
+  </si>
+  <si>
+    <t>0550350135</t>
+  </si>
+  <si>
+    <t>0550350142</t>
+  </si>
+  <si>
+    <t>0550350391</t>
+  </si>
+  <si>
+    <t>0550350394</t>
+  </si>
+  <si>
+    <t>0550350400</t>
+  </si>
+  <si>
+    <t>0550350401</t>
+  </si>
+  <si>
+    <t>0550400004</t>
+  </si>
+  <si>
+    <t>0550400005</t>
+  </si>
+  <si>
+    <t>0550400006</t>
+  </si>
+  <si>
+    <t>0550400007</t>
+  </si>
+  <si>
+    <t>0550400008</t>
+  </si>
+  <si>
+    <t>0550400009</t>
+  </si>
+  <si>
+    <t>0550400010</t>
+  </si>
+  <si>
+    <t>0550400030</t>
+  </si>
+  <si>
+    <t>0550400041</t>
+  </si>
+  <si>
+    <t>0550400050</t>
+  </si>
+  <si>
+    <t>0550400079</t>
+  </si>
+  <si>
+    <t>0550400105</t>
+  </si>
+  <si>
+    <t>0550400215</t>
+  </si>
+  <si>
+    <t>0550400216</t>
+  </si>
+  <si>
+    <t>0550400248</t>
+  </si>
+  <si>
+    <t>0550400259</t>
+  </si>
+  <si>
+    <t>0550400275</t>
+  </si>
+  <si>
+    <t>0550400319</t>
+  </si>
+  <si>
+    <t>0550400337</t>
+  </si>
+  <si>
+    <t>0550400338</t>
+  </si>
+  <si>
+    <t>0550400357</t>
+  </si>
+  <si>
+    <t>0550400358</t>
+  </si>
+  <si>
+    <t>0550400360</t>
+  </si>
+  <si>
+    <t>0550400376</t>
+  </si>
+  <si>
+    <t>0550400418</t>
+  </si>
+  <si>
+    <t>0550400419</t>
+  </si>
+  <si>
+    <t>0550400446</t>
+  </si>
+  <si>
+    <t>0550400495</t>
+  </si>
+  <si>
+    <t>0550400577</t>
+  </si>
+  <si>
+    <t>0550400725</t>
+  </si>
+  <si>
+    <t>0550500030</t>
+  </si>
+  <si>
+    <t>0550500031</t>
+  </si>
+  <si>
+    <t>0550500036</t>
+  </si>
+  <si>
+    <t>0550500037</t>
+  </si>
+  <si>
+    <t>0550500049</t>
+  </si>
+  <si>
+    <t>0550500051</t>
+  </si>
+  <si>
+    <t>0550500054</t>
+  </si>
+  <si>
+    <t>0550500069</t>
+  </si>
+  <si>
+    <t>0550500073</t>
+  </si>
+  <si>
+    <t>0550500111</t>
+  </si>
+  <si>
+    <t>0550500120</t>
+  </si>
+  <si>
+    <t>0550500140</t>
+  </si>
+  <si>
+    <t>0550500142</t>
+  </si>
+  <si>
+    <t>0550500143</t>
+  </si>
+  <si>
+    <t>0550500144</t>
+  </si>
+  <si>
+    <t>0550500148</t>
+  </si>
+  <si>
+    <t>0550500182</t>
+  </si>
+  <si>
+    <t>0550500211</t>
+  </si>
+  <si>
+    <t>0550500229</t>
+  </si>
+  <si>
+    <t>0550500534</t>
+  </si>
+  <si>
+    <t>0550500588</t>
+  </si>
+  <si>
+    <t>0550500684</t>
+  </si>
+  <si>
+    <t>0550500697</t>
+  </si>
+  <si>
+    <t>0550500801</t>
+  </si>
+  <si>
+    <t>0550500855</t>
+  </si>
+  <si>
+    <t>0550501153</t>
+  </si>
+  <si>
+    <t>0550501237</t>
+  </si>
+  <si>
+    <t>0550600031</t>
+  </si>
+  <si>
+    <t>0550600033</t>
+  </si>
+  <si>
+    <t>0550600038</t>
+  </si>
+  <si>
+    <t>0550600048</t>
+  </si>
+  <si>
+    <t>0550600050</t>
+  </si>
+  <si>
+    <t>0550600056</t>
+  </si>
+  <si>
+    <t>0550600058</t>
+  </si>
+  <si>
+    <t>0550600060</t>
+  </si>
+  <si>
+    <t>0550600069</t>
+  </si>
+  <si>
+    <t>0550600110</t>
+  </si>
+  <si>
+    <t>0550600111</t>
+  </si>
+  <si>
+    <t>0550600116</t>
+  </si>
+  <si>
+    <t>0550600129</t>
+  </si>
+  <si>
+    <t>0550650047</t>
+  </si>
+  <si>
+    <t>0550650050</t>
+  </si>
+  <si>
+    <t>0550750060</t>
+  </si>
+  <si>
+    <t>0550750124</t>
+  </si>
+  <si>
+    <t>0550800008</t>
+  </si>
+  <si>
+    <t>0550800013</t>
+  </si>
+  <si>
+    <t>0550800016</t>
+  </si>
+  <si>
+    <t>0550800038</t>
+  </si>
+  <si>
+    <t>0550800055</t>
+  </si>
+  <si>
+    <t>0550800220</t>
+  </si>
+  <si>
+    <t>0550800231</t>
+  </si>
+  <si>
+    <t>0550800292</t>
+  </si>
+  <si>
+    <t>0550800391</t>
+  </si>
+  <si>
+    <t>0550800501</t>
+  </si>
+  <si>
+    <t>0550850001</t>
+  </si>
+  <si>
+    <t>0551100111</t>
+  </si>
+  <si>
+    <t>0551150004</t>
+  </si>
+  <si>
+    <t>0551150017</t>
+  </si>
+  <si>
+    <t>0551150026</t>
+  </si>
+  <si>
+    <t>0551150028</t>
+  </si>
+  <si>
+    <t>0551150032</t>
+  </si>
+  <si>
+    <t>0551150033</t>
+  </si>
+  <si>
+    <t>0551150034</t>
+  </si>
+  <si>
+    <t>0551150036</t>
+  </si>
+  <si>
+    <t>0551150037</t>
+  </si>
+  <si>
+    <t>0551150038</t>
+  </si>
+  <si>
+    <t>0551150039</t>
+  </si>
+  <si>
+    <t>0551150166</t>
+  </si>
+  <si>
+    <t>0551150223</t>
+  </si>
+  <si>
+    <t>0551150224</t>
+  </si>
+  <si>
+    <t>0551150225</t>
+  </si>
+  <si>
+    <t>0551150228</t>
+  </si>
+  <si>
+    <t>0551150239</t>
+  </si>
+  <si>
+    <t>0551150240</t>
+  </si>
+  <si>
+    <t>0551150241</t>
+  </si>
+  <si>
+    <t>0551150243</t>
+  </si>
+  <si>
+    <t>0551150244</t>
+  </si>
+  <si>
+    <t>0551150245</t>
+  </si>
+  <si>
+    <t>0551150246</t>
+  </si>
+  <si>
+    <t>0600450007</t>
+  </si>
+  <si>
+    <t>0650050034</t>
+  </si>
+  <si>
+    <t>0650050087</t>
+  </si>
+  <si>
+    <t>0650050088</t>
+  </si>
+  <si>
+    <t>0650050089</t>
+  </si>
+  <si>
+    <t>0650200096</t>
+  </si>
+  <si>
+    <t>0700150015</t>
+  </si>
+  <si>
+    <t>0700150263</t>
+  </si>
+  <si>
+    <t>0700150264</t>
+  </si>
+  <si>
+    <t>0700150265</t>
+  </si>
+  <si>
+    <t>0700150266</t>
+  </si>
+  <si>
+    <t>0700150267</t>
+  </si>
+  <si>
+    <t>0700150270</t>
+  </si>
+  <si>
+    <t>0700150271</t>
+  </si>
+  <si>
+    <t>0700150276</t>
+  </si>
+  <si>
+    <t>0700150373</t>
+  </si>
+  <si>
+    <t>0700150501</t>
+  </si>
+  <si>
+    <t>0700200034</t>
+  </si>
+  <si>
+    <t>0700200153</t>
+  </si>
+  <si>
+    <t>0700500154</t>
+  </si>
+  <si>
+    <t>0700500192</t>
+  </si>
+  <si>
+    <t>0700500408</t>
+  </si>
+  <si>
+    <t>0700500410</t>
+  </si>
+  <si>
+    <t>0700500412</t>
+  </si>
+  <si>
+    <t>0700500418</t>
+  </si>
+  <si>
+    <t>0700500419</t>
+  </si>
+  <si>
+    <t>0700500421</t>
+  </si>
+  <si>
+    <t>0700500433</t>
+  </si>
+  <si>
+    <t>0700500440</t>
+  </si>
+  <si>
+    <t>0700500500</t>
+  </si>
+  <si>
+    <t>0700500512</t>
+  </si>
+  <si>
+    <t>0700500521</t>
+  </si>
+  <si>
+    <t>0700500536</t>
+  </si>
+  <si>
+    <t>0700500554</t>
+  </si>
+  <si>
+    <t>0700500557</t>
+  </si>
+  <si>
+    <t>0700500571</t>
+  </si>
+  <si>
+    <t>0700500600</t>
+  </si>
+  <si>
+    <t>0700500699</t>
+  </si>
+  <si>
+    <t>0700500722</t>
+  </si>
+  <si>
+    <t>0700500727</t>
+  </si>
+  <si>
+    <t>0700500735</t>
+  </si>
+  <si>
+    <t>0700500753</t>
+  </si>
+  <si>
+    <t>0700500782</t>
+  </si>
+  <si>
+    <t>0700550183</t>
+  </si>
+  <si>
+    <t>0700550264</t>
+  </si>
+  <si>
+    <t>0700550332</t>
+  </si>
+  <si>
+    <t>0700550333</t>
+  </si>
+  <si>
+    <t>0700550334</t>
+  </si>
+  <si>
+    <t>0700550383</t>
+  </si>
+  <si>
+    <t>0700550392</t>
+  </si>
+  <si>
+    <t>0700600002</t>
+  </si>
+  <si>
+    <t>0700650021</t>
+  </si>
+  <si>
+    <t>0700850020</t>
+  </si>
+  <si>
+    <t>0700850038</t>
+  </si>
+  <si>
+    <t>0700850050</t>
+  </si>
+  <si>
+    <t>0700850056</t>
+  </si>
+  <si>
+    <t>0700850059</t>
+  </si>
+  <si>
+    <t>0700850074</t>
+  </si>
+  <si>
+    <t>0700850078</t>
+  </si>
+  <si>
+    <t>0700850079</t>
+  </si>
+  <si>
+    <t>0700850097</t>
+  </si>
+  <si>
+    <t>0700850098</t>
+  </si>
+  <si>
+    <t>0700850099</t>
+  </si>
+  <si>
+    <t>0700850102</t>
+  </si>
+  <si>
+    <t>0700850107</t>
+  </si>
+  <si>
+    <t>0700850110</t>
+  </si>
+  <si>
+    <t>0700850115</t>
+  </si>
+  <si>
+    <t>0700850116</t>
+  </si>
+  <si>
+    <t>0700850119</t>
+  </si>
+  <si>
+    <t>0700850124</t>
+  </si>
+  <si>
+    <t>0700850130</t>
+  </si>
+  <si>
+    <t>0700850147</t>
+  </si>
+  <si>
+    <t>0700850148</t>
+  </si>
+  <si>
+    <t>0700850151</t>
+  </si>
+  <si>
+    <t>0700850161</t>
+  </si>
+  <si>
+    <t>0700850162</t>
+  </si>
+  <si>
+    <t>0700850171</t>
+  </si>
+  <si>
+    <t>0700850173</t>
+  </si>
+  <si>
+    <t>0700850263</t>
+  </si>
+  <si>
+    <t>0700850301</t>
+  </si>
+  <si>
+    <t>0700850310</t>
+  </si>
+  <si>
+    <t>0700850323</t>
+  </si>
+  <si>
+    <t>0700850324</t>
+  </si>
+  <si>
+    <t>0700850325</t>
+  </si>
+  <si>
+    <t>0700850352</t>
+  </si>
+  <si>
+    <t>0700850427</t>
+  </si>
+  <si>
+    <t>0700850443</t>
+  </si>
+  <si>
+    <t>0700850446</t>
+  </si>
+  <si>
+    <t>0700850448</t>
+  </si>
+  <si>
+    <t>0700850449</t>
+  </si>
+  <si>
+    <t>0700850452</t>
+  </si>
+  <si>
+    <t>0700850454</t>
+  </si>
+  <si>
+    <t>0700850498</t>
+  </si>
+  <si>
+    <t>0700850499</t>
+  </si>
+  <si>
+    <t>0700850755</t>
+  </si>
+  <si>
+    <t>0700850820</t>
+  </si>
+  <si>
+    <t>0700850921</t>
+  </si>
+  <si>
+    <t>0700850925</t>
+  </si>
+  <si>
+    <t>0700851022</t>
+  </si>
+  <si>
+    <t>0700851026</t>
+  </si>
+  <si>
+    <t>0700851327</t>
+  </si>
+  <si>
+    <t>0700851372</t>
+  </si>
+  <si>
+    <t>0700851717</t>
+  </si>
+  <si>
+    <t>0700851724</t>
+  </si>
+  <si>
+    <t>0700851761</t>
+  </si>
+  <si>
+    <t>0700851890</t>
+  </si>
+  <si>
+    <t>0700851924</t>
+  </si>
+  <si>
+    <t>0700852014</t>
+  </si>
+  <si>
+    <t>0700852059</t>
+  </si>
+  <si>
+    <t>0700852081</t>
+  </si>
+  <si>
+    <t>0700852238</t>
+  </si>
+  <si>
+    <t>0700852256</t>
+  </si>
+  <si>
+    <t>0700852258</t>
+  </si>
+  <si>
+    <t>0700852265</t>
+  </si>
+  <si>
+    <t>0700852289</t>
+  </si>
+  <si>
+    <t>0700852357</t>
+  </si>
+  <si>
+    <t>0700852360</t>
+  </si>
+  <si>
+    <t>0700852377</t>
+  </si>
+  <si>
+    <t>0700852420</t>
+  </si>
+  <si>
+    <t>0700852489</t>
+  </si>
+  <si>
+    <t>0700852606</t>
+  </si>
+  <si>
+    <t>0700852635</t>
+  </si>
+  <si>
+    <t>0700852638</t>
+  </si>
+  <si>
+    <t>0700852642</t>
+  </si>
+  <si>
+    <t>0700852733</t>
+  </si>
+  <si>
+    <t>0700852734</t>
+  </si>
+  <si>
+    <t>0700852736</t>
+  </si>
+  <si>
+    <t>0700852740</t>
+  </si>
+  <si>
+    <t>0700852741</t>
+  </si>
+  <si>
+    <t>0700852768</t>
+  </si>
+  <si>
+    <t>0700852775</t>
+  </si>
+  <si>
+    <t>0700852776</t>
+  </si>
+  <si>
+    <t>0700852779</t>
+  </si>
+  <si>
+    <t>0700852780</t>
+  </si>
+  <si>
+    <t>0700852781</t>
+  </si>
+  <si>
+    <t>0700852796</t>
+  </si>
+  <si>
+    <t>0700852797</t>
+  </si>
+  <si>
+    <t>0700852798</t>
+  </si>
+  <si>
+    <t>0700852816</t>
+  </si>
+  <si>
+    <t>0700852821</t>
+  </si>
+  <si>
+    <t>0700852883</t>
+  </si>
+  <si>
+    <t>0700852957</t>
+  </si>
+  <si>
+    <t>0700853024</t>
+  </si>
+  <si>
+    <t>0700853026</t>
+  </si>
+  <si>
+    <t>0700853027</t>
+  </si>
+  <si>
+    <t>0700853028</t>
+  </si>
+  <si>
+    <t>0700853029</t>
+  </si>
+  <si>
+    <t>0700853033</t>
+  </si>
+  <si>
+    <t>0700853380</t>
+  </si>
+  <si>
+    <t>0700853388</t>
+  </si>
+  <si>
+    <t>0700853389</t>
+  </si>
+  <si>
+    <t>0700853417</t>
+  </si>
+  <si>
+    <t>0700853458</t>
+  </si>
+  <si>
+    <t>0700853459</t>
+  </si>
+  <si>
+    <t>0700853487</t>
+  </si>
+  <si>
+    <t>0700853697</t>
+  </si>
+  <si>
+    <t>0700853706</t>
+  </si>
+  <si>
+    <t>0700853779</t>
+  </si>
+  <si>
+    <t>0700853867</t>
+  </si>
+  <si>
+    <t>0700854016</t>
+  </si>
+  <si>
+    <t>0700854463</t>
+  </si>
+  <si>
+    <t>0700900001</t>
+  </si>
+  <si>
+    <t>0700950012</t>
+  </si>
+  <si>
+    <t>0700950054</t>
+  </si>
+  <si>
+    <t>0700950085</t>
+  </si>
+  <si>
+    <t>0700950215</t>
+  </si>
+  <si>
+    <t>0700950222</t>
+  </si>
+  <si>
+    <t>0700950233</t>
+  </si>
+  <si>
+    <t>0700950286</t>
+  </si>
+  <si>
+    <t>0700950358</t>
+  </si>
+  <si>
+    <t>0700950403</t>
+  </si>
+  <si>
+    <t>0700950468</t>
+  </si>
+  <si>
+    <t>0700950469</t>
+  </si>
+  <si>
+    <t>0700950501</t>
+  </si>
+  <si>
+    <t>0701000001</t>
+  </si>
+  <si>
+    <t>0701000051</t>
+  </si>
+  <si>
+    <t>0701000109</t>
+  </si>
+  <si>
+    <t>0701000266</t>
+  </si>
+  <si>
+    <t>0701050012</t>
+  </si>
+  <si>
+    <t>0701050013</t>
+  </si>
+  <si>
+    <t>0701050074</t>
+  </si>
+  <si>
+    <t>0701050125</t>
+  </si>
+  <si>
+    <t>0701050132</t>
+  </si>
+  <si>
+    <t>0701050172</t>
+  </si>
+  <si>
+    <t>0701050177</t>
+  </si>
+  <si>
+    <t>0701050213</t>
+  </si>
+  <si>
+    <t>0701050223</t>
+  </si>
+  <si>
+    <t>0701050259</t>
+  </si>
+  <si>
+    <t>0701050263</t>
+  </si>
+  <si>
+    <t>0701050267</t>
+  </si>
+  <si>
+    <t>0701050279</t>
+  </si>
+  <si>
+    <t>0701100051</t>
+  </si>
+  <si>
+    <t>0701100064</t>
+  </si>
+  <si>
+    <t>0701100066</t>
+  </si>
+  <si>
+    <t>0701150025</t>
+  </si>
+  <si>
+    <t>0701150026</t>
+  </si>
+  <si>
+    <t>0701150028</t>
+  </si>
+  <si>
+    <t>0701150029</t>
+  </si>
+  <si>
+    <t>0701150066</t>
+  </si>
+  <si>
+    <t>0701150069</t>
+  </si>
+  <si>
+    <t>0701150091</t>
+  </si>
+  <si>
+    <t>0701150093</t>
+  </si>
+  <si>
+    <t>0701150098</t>
+  </si>
+  <si>
+    <t>0701150103</t>
+  </si>
+  <si>
+    <t>0701150113</t>
+  </si>
+  <si>
+    <t>0701150138</t>
+  </si>
+  <si>
+    <t>0701150140</t>
+  </si>
+  <si>
+    <t>0701150219</t>
+  </si>
+  <si>
+    <t>0701200016</t>
+  </si>
+  <si>
+    <t>0701200036</t>
+  </si>
+  <si>
+    <t>0701200047</t>
+  </si>
+  <si>
+    <t>0701200048</t>
+  </si>
+  <si>
+    <t>0701200056</t>
+  </si>
+  <si>
+    <t>0701250011</t>
+  </si>
+  <si>
+    <t>0701250015</t>
+  </si>
+  <si>
+    <t>0701250016</t>
+  </si>
+  <si>
+    <t>0701250021</t>
+  </si>
+  <si>
+    <t>0701250029</t>
+  </si>
+  <si>
+    <t>0701250048</t>
+  </si>
+  <si>
+    <t>0701250053</t>
+  </si>
+  <si>
+    <t>0701250055</t>
+  </si>
+  <si>
+    <t>0701250057</t>
+  </si>
+  <si>
+    <t>0701250061</t>
+  </si>
+  <si>
+    <t>0701250062</t>
+  </si>
+  <si>
+    <t>0701250065</t>
+  </si>
+  <si>
+    <t>0701250075</t>
+  </si>
+  <si>
+    <t>0701250076</t>
+  </si>
+  <si>
+    <t>0701250091</t>
+  </si>
+  <si>
+    <t>0701250092</t>
+  </si>
+  <si>
+    <t>0701250094</t>
+  </si>
+  <si>
+    <t>0701250101</t>
+  </si>
+  <si>
+    <t>0701250107</t>
+  </si>
+  <si>
+    <t>0701250111</t>
+  </si>
+  <si>
+    <t>0701250120</t>
+  </si>
+  <si>
+    <t>0701250148</t>
+  </si>
+  <si>
+    <t>0701250152</t>
+  </si>
+  <si>
+    <t>0701250156</t>
+  </si>
+  <si>
+    <t>0701250163</t>
+  </si>
+  <si>
+    <t>0701250166</t>
+  </si>
+  <si>
+    <t>0701250168</t>
+  </si>
+  <si>
+    <t>0701250171</t>
+  </si>
+  <si>
+    <t>0701250172</t>
+  </si>
+  <si>
+    <t>0701250175</t>
+  </si>
+  <si>
+    <t>0701250192</t>
+  </si>
+  <si>
+    <t>0701250194</t>
+  </si>
+  <si>
+    <t>0701250196</t>
+  </si>
+  <si>
+    <t>0701250198</t>
+  </si>
+  <si>
+    <t>0701250204</t>
+  </si>
+  <si>
+    <t>0701250210</t>
+  </si>
+  <si>
+    <t>0701250214</t>
+  </si>
+  <si>
+    <t>0701250215</t>
+  </si>
+  <si>
+    <t>0701250219</t>
+  </si>
+  <si>
+    <t>0701250226</t>
+  </si>
+  <si>
+    <t>0701250230</t>
+  </si>
+  <si>
+    <t>0701250278</t>
+  </si>
+  <si>
+    <t>0701250407</t>
+  </si>
+  <si>
+    <t>0701250416</t>
+  </si>
+  <si>
+    <t>0701250449</t>
+  </si>
+  <si>
+    <t>0701250462</t>
+  </si>
+  <si>
+    <t>0701250464</t>
+  </si>
+  <si>
+    <t>0701250465</t>
+  </si>
+  <si>
+    <t>0701250467</t>
+  </si>
+  <si>
+    <t>0701250524</t>
+  </si>
+  <si>
+    <t>0701250578</t>
+  </si>
+  <si>
+    <t>0701250593</t>
+  </si>
+  <si>
+    <t>0701250612</t>
+  </si>
+  <si>
+    <t>0701250906</t>
+  </si>
+  <si>
+    <t>0701250907</t>
+  </si>
+  <si>
+    <t>0701450034</t>
+  </si>
+  <si>
+    <t>0701450071</t>
+  </si>
+  <si>
+    <t>0701450271</t>
+  </si>
+  <si>
+    <t>0701500014</t>
+  </si>
+  <si>
+    <t>0701550005</t>
+  </si>
+  <si>
+    <t>0701650010</t>
+  </si>
+  <si>
+    <t>0701650017</t>
+  </si>
+  <si>
+    <t>0701650030</t>
+  </si>
+  <si>
+    <t>0701650078</t>
+  </si>
+  <si>
+    <t>0701650114</t>
+  </si>
+  <si>
+    <t>0701800037</t>
+  </si>
+  <si>
+    <t>0701800090</t>
+  </si>
+  <si>
+    <t>0701800124</t>
+  </si>
+  <si>
+    <t>0701800129</t>
+  </si>
+  <si>
+    <t>0701900055</t>
+  </si>
+  <si>
+    <t>0701900060</t>
+  </si>
+  <si>
+    <t>0701900063</t>
+  </si>
+  <si>
+    <t>0701900064</t>
+  </si>
+  <si>
+    <t>0701900123</t>
+  </si>
+  <si>
+    <t>0701900156</t>
+  </si>
+  <si>
+    <t>0702000004</t>
+  </si>
+  <si>
+    <t>0702250009</t>
+  </si>
+  <si>
+    <t>0702250012</t>
+  </si>
+  <si>
+    <t>0702250016</t>
+  </si>
+  <si>
+    <t>0702250018</t>
+  </si>
+  <si>
+    <t>0702250023</t>
+  </si>
+  <si>
+    <t>0702250037</t>
+  </si>
+  <si>
+    <t>0702250040</t>
+  </si>
+  <si>
+    <t>0702250043</t>
+  </si>
+  <si>
+    <t>0702250046</t>
+  </si>
+  <si>
+    <t>0702250047</t>
+  </si>
+  <si>
+    <t>0702250061</t>
+  </si>
+  <si>
+    <t>0702250107</t>
+  </si>
+  <si>
+    <t>0702250132</t>
+  </si>
+  <si>
+    <t>0702250133</t>
+  </si>
+  <si>
+    <t>0702250139</t>
+  </si>
+  <si>
+    <t>0702250157</t>
+  </si>
+  <si>
+    <t>0702250175</t>
+  </si>
+  <si>
+    <t>0702250180</t>
+  </si>
+  <si>
+    <t>0702250199</t>
+  </si>
+  <si>
+    <t>0800350433</t>
+  </si>
+  <si>
+    <t>0850650020</t>
+  </si>
+  <si>
+    <t>0850650023</t>
+  </si>
+  <si>
+    <t>0850650040</t>
+  </si>
+  <si>
+    <t>0850850203</t>
+  </si>
+  <si>
+    <t>0850850223</t>
+  </si>
+  <si>
+    <t>0850850441</t>
+  </si>
+  <si>
+    <t>0850850524</t>
+  </si>
+  <si>
+    <t>0851000015</t>
+  </si>
+  <si>
+    <t>0851150023</t>
+  </si>
+  <si>
+    <t>0851150041</t>
+  </si>
+  <si>
+    <t>0950050045</t>
+  </si>
+  <si>
+    <t>0950050064</t>
+  </si>
+  <si>
+    <t>0950150035</t>
+  </si>
+  <si>
+    <t>0950150047</t>
+  </si>
+  <si>
+    <t>0950150054</t>
+  </si>
+  <si>
+    <t>0950150175</t>
+  </si>
+  <si>
+    <t>0950150176</t>
+  </si>
+  <si>
+    <t>0950200068</t>
+  </si>
+  <si>
+    <t>0950300002</t>
+  </si>
+  <si>
+    <t>0950300017</t>
+  </si>
+  <si>
+    <t>0950300216</t>
+  </si>
+  <si>
+    <t>0950400035</t>
+  </si>
+  <si>
+    <t>0950400089</t>
+  </si>
+  <si>
+    <t>0950450001</t>
+  </si>
+  <si>
+    <t>0950450006</t>
+  </si>
+  <si>
+    <t>0950700009</t>
+  </si>
+  <si>
+    <t>0950700015</t>
+  </si>
+  <si>
+    <t>0950700016</t>
+  </si>
+  <si>
+    <t>0950700018</t>
+  </si>
+  <si>
+    <t>0950700019</t>
+  </si>
+  <si>
+    <t>0950700022</t>
+  </si>
+  <si>
+    <t>0950700023</t>
+  </si>
+  <si>
+    <t>0950700026</t>
+  </si>
+  <si>
+    <t>0950700027</t>
+  </si>
+  <si>
+    <t>0950700028</t>
+  </si>
+  <si>
+    <t>0950700029</t>
+  </si>
+  <si>
+    <t>0950700031</t>
+  </si>
+  <si>
+    <t>0950700035</t>
+  </si>
+  <si>
+    <t>0950700037</t>
+  </si>
+  <si>
+    <t>0950700038</t>
+  </si>
+  <si>
+    <t>0950700040</t>
+  </si>
+  <si>
+    <t>0950700044</t>
+  </si>
+  <si>
+    <t>0950700046</t>
+  </si>
+  <si>
+    <t>0950700051</t>
+  </si>
+  <si>
+    <t>0950700081</t>
+  </si>
+  <si>
+    <t>0950700086</t>
+  </si>
+  <si>
+    <t>0950700089</t>
+  </si>
+  <si>
+    <t>0950700090</t>
+  </si>
+  <si>
+    <t>0950700095</t>
+  </si>
+  <si>
+    <t>0950700097</t>
+  </si>
+  <si>
+    <t>0950700108</t>
+  </si>
+  <si>
+    <t>0950700113</t>
+  </si>
+  <si>
+    <t>0950700135</t>
+  </si>
+  <si>
+    <t>0950700161</t>
+  </si>
+  <si>
+    <t>0950700173</t>
+  </si>
+  <si>
+    <t>0950700176</t>
+  </si>
+  <si>
+    <t>0950700178</t>
+  </si>
+  <si>
+    <t>0950700181</t>
+  </si>
+  <si>
+    <t>0950850356</t>
+  </si>
+  <si>
+    <t>0950850666</t>
+  </si>
+  <si>
+    <t>0951100009</t>
+  </si>
+  <si>
+    <t>0951300248</t>
+  </si>
+  <si>
+    <t>0951300399</t>
+  </si>
+  <si>
+    <t>0951300438</t>
+  </si>
+  <si>
+    <t>0951450005</t>
+  </si>
+  <si>
+    <t>0951450007</t>
+  </si>
+  <si>
+    <t>0951450010</t>
+  </si>
+  <si>
+    <t>0951450013</t>
+  </si>
+  <si>
+    <t>0951450014</t>
+  </si>
+  <si>
+    <t>0951450026</t>
+  </si>
+  <si>
+    <t>0951450029</t>
+  </si>
+  <si>
+    <t>0951450030</t>
+  </si>
+  <si>
+    <t>0951450036</t>
+  </si>
+  <si>
+    <t>0951450037</t>
+  </si>
+  <si>
+    <t>0951450039</t>
+  </si>
+  <si>
+    <t>0951450040</t>
+  </si>
+  <si>
+    <t>0951450048</t>
+  </si>
+  <si>
+    <t>0951450053</t>
+  </si>
+  <si>
+    <t>0951450054</t>
+  </si>
+  <si>
+    <t>0951450059</t>
+  </si>
+  <si>
+    <t>0951450063</t>
+  </si>
+  <si>
+    <t>0951450065</t>
+  </si>
+  <si>
+    <t>0951450104</t>
+  </si>
+  <si>
+    <t>0951550085</t>
+  </si>
+  <si>
+    <t>0951600180</t>
+  </si>
+  <si>
+    <t>0951700011</t>
+  </si>
+  <si>
+    <t>0951700021</t>
+  </si>
+  <si>
+    <t>0951700023</t>
+  </si>
+  <si>
+    <t>0951700025</t>
+  </si>
+  <si>
+    <t>0951700028</t>
+  </si>
+  <si>
+    <t>0951700043</t>
+  </si>
+  <si>
+    <t>0951700045</t>
+  </si>
+  <si>
+    <t>0951700053</t>
+  </si>
+  <si>
+    <t>0951700055</t>
+  </si>
+  <si>
+    <t>0951700056</t>
+  </si>
+  <si>
+    <t>0951700058</t>
+  </si>
+  <si>
+    <t>0951700064</t>
+  </si>
+  <si>
+    <t>0951700067</t>
+  </si>
+  <si>
+    <t>0951700073</t>
+  </si>
+  <si>
+    <t>0951700074</t>
+  </si>
+  <si>
+    <t>0951700077</t>
+  </si>
+  <si>
+    <t>0951700104</t>
+  </si>
+  <si>
+    <t>0951700105</t>
+  </si>
+  <si>
+    <t>0951700106</t>
+  </si>
+  <si>
+    <t>0951700109</t>
+  </si>
+  <si>
+    <t>0951700117</t>
+  </si>
+  <si>
+    <t>0951700122</t>
+  </si>
+  <si>
+    <t>0951700125</t>
+  </si>
+  <si>
+    <t>0951700126</t>
+  </si>
+  <si>
+    <t>0951700203</t>
+  </si>
+  <si>
+    <t>0951700269</t>
+  </si>
+  <si>
+    <t>0951700274</t>
+  </si>
+  <si>
+    <t>0951700279</t>
+  </si>
+  <si>
+    <t>0951700291</t>
+  </si>
+  <si>
+    <t>0951700307</t>
+  </si>
+  <si>
+    <t>0951700325</t>
+  </si>
+  <si>
+    <t>0951700352</t>
+  </si>
+  <si>
+    <t>0951700371</t>
+  </si>
+  <si>
+    <t>0951700372</t>
+  </si>
+  <si>
+    <t>0951700373</t>
+  </si>
+  <si>
+    <t>0951700374</t>
+  </si>
+  <si>
+    <t>0951700375</t>
+  </si>
+  <si>
+    <t>0951700376</t>
+  </si>
+  <si>
+    <t>0951700381</t>
+  </si>
+  <si>
+    <t>0951700382</t>
+  </si>
+  <si>
+    <t>0951700416</t>
+  </si>
+  <si>
+    <t>0951700427</t>
+  </si>
+  <si>
+    <t>0951700428</t>
+  </si>
+  <si>
+    <t>0951700429</t>
+  </si>
+  <si>
+    <t>0951700442</t>
+  </si>
+  <si>
+    <t>0951800057</t>
+  </si>
+  <si>
+    <t>1000600031</t>
+  </si>
+  <si>
+    <t>1001150109</t>
+  </si>
+  <si>
+    <t>1001950045</t>
+  </si>
+  <si>
+    <t>1001950925</t>
+  </si>
+  <si>
+    <t>1002100336</t>
+  </si>
+  <si>
+    <t>1050050015</t>
+  </si>
+  <si>
+    <t>1050050235</t>
+  </si>
+  <si>
+    <t>1050100083</t>
+  </si>
+  <si>
+    <t>1050100086</t>
+  </si>
+  <si>
+    <t>1050100112</t>
+  </si>
+  <si>
+    <t>1050100114</t>
+  </si>
+  <si>
+    <t>1050100188</t>
+  </si>
+  <si>
+    <t>1050100344</t>
+  </si>
+  <si>
+    <t>1050100388</t>
+  </si>
+  <si>
+    <t>1050100447</t>
+  </si>
+  <si>
+    <t>1050100454</t>
+  </si>
+  <si>
+    <t>1050100456</t>
+  </si>
+  <si>
+    <t>1050100458</t>
+  </si>
+  <si>
+    <t>1050100459</t>
+  </si>
+  <si>
+    <t>1050150046</t>
+  </si>
+  <si>
+    <t>1050150059</t>
+  </si>
+  <si>
+    <t>1150300012</t>
   </si>
 </sst>
 </file>
@@ -2737,10 +4603,17 @@
     <numFmt numFmtId="164" formatCode="000"/>
     <numFmt numFmtId="165" formatCode="0000000000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2883,6 +4756,11 @@
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3203,53 +5081,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3264,8 +5155,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3274,10 +5165,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3287,20 +5178,35 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="57">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1 2" xfId="45"/>
     <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2 2" xfId="47"/>
     <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3 2" xfId="49"/>
     <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4 2" xfId="51"/>
     <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5 2" xfId="53"/>
     <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6 2" xfId="55"/>
     <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1 2" xfId="46"/>
     <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2 2" xfId="48"/>
     <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3 2" xfId="50"/>
     <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4 2" xfId="52"/>
     <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5 2" xfId="54"/>
     <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6 2" xfId="56"/>
     <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
@@ -3324,6 +5230,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
     <cellStyle name="Nota 2" xfId="43"/>
+    <cellStyle name="Nota 3" xfId="44"/>
     <cellStyle name="Saída" xfId="11" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -3647,7 +5554,7 @@
   <dimension ref="A1:K746"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,8 +5604,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>400050047</v>
+      <c r="A2" s="15" t="s">
+        <v>901</v>
       </c>
       <c r="B2" s="9">
         <v>40</v>
@@ -3731,8 +5638,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>400300043</v>
+      <c r="A3" s="15" t="s">
+        <v>902</v>
       </c>
       <c r="B3" s="9">
         <v>40</v>
@@ -3765,8 +5672,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>400350029</v>
+      <c r="A4" s="15" t="s">
+        <v>903</v>
       </c>
       <c r="B4" s="9">
         <v>40</v>
@@ -3799,8 +5706,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>400550054</v>
+      <c r="A5" s="15" t="s">
+        <v>904</v>
       </c>
       <c r="B5" s="9">
         <v>40</v>
@@ -3833,8 +5740,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>450600065</v>
+      <c r="A6" s="15" t="s">
+        <v>905</v>
       </c>
       <c r="B6" s="9">
         <v>45</v>
@@ -3867,8 +5774,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>450600102</v>
+      <c r="A7" s="15" t="s">
+        <v>906</v>
       </c>
       <c r="B7" s="9">
         <v>45</v>
@@ -3901,8 +5808,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>450800001</v>
+      <c r="A8" s="15" t="s">
+        <v>907</v>
       </c>
       <c r="B8" s="9">
         <v>45</v>
@@ -3936,8 +5843,8 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>450900202</v>
+      <c r="A9" s="15" t="s">
+        <v>908</v>
       </c>
       <c r="B9" s="9">
         <v>45</v>
@@ -3970,8 +5877,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>550150035</v>
+      <c r="A10" s="15" t="s">
+        <v>909</v>
       </c>
       <c r="B10" s="9">
         <v>55</v>
@@ -4004,8 +5911,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>550150103</v>
+      <c r="A11" s="15" t="s">
+        <v>910</v>
       </c>
       <c r="B11" s="9">
         <v>55</v>
@@ -4038,8 +5945,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>550150105</v>
+      <c r="A12" s="15" t="s">
+        <v>911</v>
       </c>
       <c r="B12" s="9">
         <v>55</v>
@@ -4072,8 +5979,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>550150106</v>
+      <c r="A13" s="15" t="s">
+        <v>912</v>
       </c>
       <c r="B13" s="9">
         <v>55</v>
@@ -4106,8 +6013,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>550150107</v>
+      <c r="A14" s="15" t="s">
+        <v>913</v>
       </c>
       <c r="B14" s="9">
         <v>55</v>
@@ -4140,8 +6047,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>550150108</v>
+      <c r="A15" s="15" t="s">
+        <v>914</v>
       </c>
       <c r="B15" s="9">
         <v>55</v>
@@ -4174,8 +6081,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>550150110</v>
+      <c r="A16" s="15" t="s">
+        <v>915</v>
       </c>
       <c r="B16" s="9">
         <v>55</v>
@@ -4208,8 +6115,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>550150137</v>
+      <c r="A17" s="15" t="s">
+        <v>916</v>
       </c>
       <c r="B17" s="9">
         <v>55</v>
@@ -4242,8 +6149,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>550150165</v>
+      <c r="A18" s="15" t="s">
+        <v>917</v>
       </c>
       <c r="B18" s="9">
         <v>55</v>
@@ -4276,8 +6183,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>550150166</v>
+      <c r="A19" s="15" t="s">
+        <v>918</v>
       </c>
       <c r="B19" s="9">
         <v>55</v>
@@ -4310,8 +6217,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>550150216</v>
+      <c r="A20" s="15" t="s">
+        <v>919</v>
       </c>
       <c r="B20" s="9">
         <v>55</v>
@@ -4344,8 +6251,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>550150221</v>
+      <c r="A21" s="15" t="s">
+        <v>920</v>
       </c>
       <c r="B21" s="9">
         <v>55</v>
@@ -4378,8 +6285,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>550150222</v>
+      <c r="A22" s="15" t="s">
+        <v>921</v>
       </c>
       <c r="B22" s="9">
         <v>55</v>
@@ -4412,8 +6319,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>550150223</v>
+      <c r="A23" s="15" t="s">
+        <v>922</v>
       </c>
       <c r="B23" s="9">
         <v>55</v>
@@ -4446,8 +6353,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>550150224</v>
+      <c r="A24" s="15" t="s">
+        <v>923</v>
       </c>
       <c r="B24" s="9">
         <v>55</v>
@@ -4480,8 +6387,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>550150225</v>
+      <c r="A25" s="15" t="s">
+        <v>924</v>
       </c>
       <c r="B25" s="9">
         <v>55</v>
@@ -4514,8 +6421,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>550150226</v>
+      <c r="A26" s="15" t="s">
+        <v>925</v>
       </c>
       <c r="B26" s="9">
         <v>55</v>
@@ -4548,8 +6455,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>550150227</v>
+      <c r="A27" s="15" t="s">
+        <v>926</v>
       </c>
       <c r="B27" s="9">
         <v>55</v>
@@ -4582,8 +6489,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>550150320</v>
+      <c r="A28" s="15" t="s">
+        <v>927</v>
       </c>
       <c r="B28" s="9">
         <v>55</v>
@@ -4616,8 +6523,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>550250085</v>
+      <c r="A29" s="15" t="s">
+        <v>928</v>
       </c>
       <c r="B29" s="9">
         <v>55</v>
@@ -4650,8 +6557,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>550250089</v>
+      <c r="A30" s="15" t="s">
+        <v>929</v>
       </c>
       <c r="B30" s="9">
         <v>55</v>
@@ -4684,8 +6591,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>550300035</v>
+      <c r="A31" s="15" t="s">
+        <v>930</v>
       </c>
       <c r="B31" s="9">
         <v>55</v>
@@ -4718,8 +6625,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>550300037</v>
+      <c r="A32" s="15" t="s">
+        <v>931</v>
       </c>
       <c r="B32" s="9">
         <v>55</v>
@@ -4752,8 +6659,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>550300060</v>
+      <c r="A33" s="15" t="s">
+        <v>932</v>
       </c>
       <c r="B33" s="9">
         <v>55</v>
@@ -4786,8 +6693,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>550300099</v>
+      <c r="A34" s="15" t="s">
+        <v>933</v>
       </c>
       <c r="B34" s="9">
         <v>55</v>
@@ -4820,8 +6727,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>550300136</v>
+      <c r="A35" s="15" t="s">
+        <v>934</v>
       </c>
       <c r="B35" s="9">
         <v>55</v>
@@ -4854,8 +6761,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>550300189</v>
+      <c r="A36" s="15" t="s">
+        <v>935</v>
       </c>
       <c r="B36" s="9">
         <v>55</v>
@@ -4888,8 +6795,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="13">
-        <v>550300237</v>
+      <c r="A37" s="15" t="s">
+        <v>936</v>
       </c>
       <c r="B37" s="9">
         <v>55</v>
@@ -4922,8 +6829,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>550300286</v>
+      <c r="A38" s="15" t="s">
+        <v>937</v>
       </c>
       <c r="B38" s="9">
         <v>55</v>
@@ -4956,8 +6863,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="13">
-        <v>550300344</v>
+      <c r="A39" s="15" t="s">
+        <v>938</v>
       </c>
       <c r="B39" s="9">
         <v>55</v>
@@ -4990,8 +6897,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="13">
-        <v>550300345</v>
+      <c r="A40" s="15" t="s">
+        <v>939</v>
       </c>
       <c r="B40" s="9">
         <v>55</v>
@@ -5024,8 +6931,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>550350005</v>
+      <c r="A41" s="15" t="s">
+        <v>940</v>
       </c>
       <c r="B41" s="9">
         <v>55</v>
@@ -5058,8 +6965,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="13">
-        <v>550350031</v>
+      <c r="A42" s="15" t="s">
+        <v>941</v>
       </c>
       <c r="B42" s="9">
         <v>55</v>
@@ -5092,8 +6999,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="13">
-        <v>550350043</v>
+      <c r="A43" s="15" t="s">
+        <v>942</v>
       </c>
       <c r="B43" s="9">
         <v>55</v>
@@ -5126,8 +7033,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>550350065</v>
+      <c r="A44" s="15" t="s">
+        <v>943</v>
       </c>
       <c r="B44" s="9">
         <v>55</v>
@@ -5160,8 +7067,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="13">
-        <v>550350084</v>
+      <c r="A45" s="15" t="s">
+        <v>944</v>
       </c>
       <c r="B45" s="9">
         <v>55</v>
@@ -5194,8 +7101,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="13">
-        <v>550350118</v>
+      <c r="A46" s="15" t="s">
+        <v>945</v>
       </c>
       <c r="B46" s="9">
         <v>55</v>
@@ -5228,8 +7135,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>550350135</v>
+      <c r="A47" s="15" t="s">
+        <v>946</v>
       </c>
       <c r="B47" s="9">
         <v>55</v>
@@ -5262,8 +7169,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>550350142</v>
+      <c r="A48" s="15" t="s">
+        <v>947</v>
       </c>
       <c r="B48" s="9">
         <v>55</v>
@@ -5296,8 +7203,8 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>550350391</v>
+      <c r="A49" s="15" t="s">
+        <v>948</v>
       </c>
       <c r="B49" s="9">
         <v>55</v>
@@ -5330,8 +7237,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>550350394</v>
+      <c r="A50" s="15" t="s">
+        <v>949</v>
       </c>
       <c r="B50" s="9">
         <v>55</v>
@@ -5364,8 +7271,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="13">
-        <v>550350400</v>
+      <c r="A51" s="15" t="s">
+        <v>950</v>
       </c>
       <c r="B51" s="9">
         <v>55</v>
@@ -5398,8 +7305,8 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="13">
-        <v>550350401</v>
+      <c r="A52" s="15" t="s">
+        <v>951</v>
       </c>
       <c r="B52" s="9">
         <v>55</v>
@@ -5432,8 +7339,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>550400004</v>
+      <c r="A53" s="15" t="s">
+        <v>952</v>
       </c>
       <c r="B53" s="9">
         <v>55</v>
@@ -5466,8 +7373,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="13">
-        <v>550400005</v>
+      <c r="A54" s="15" t="s">
+        <v>953</v>
       </c>
       <c r="B54" s="9">
         <v>55</v>
@@ -5500,8 +7407,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="13">
-        <v>550400006</v>
+      <c r="A55" s="15" t="s">
+        <v>954</v>
       </c>
       <c r="B55" s="9">
         <v>55</v>
@@ -5534,8 +7441,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>550400007</v>
+      <c r="A56" s="15" t="s">
+        <v>955</v>
       </c>
       <c r="B56" s="9">
         <v>55</v>
@@ -5568,8 +7475,8 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="13">
-        <v>550400008</v>
+      <c r="A57" s="15" t="s">
+        <v>956</v>
       </c>
       <c r="B57" s="9">
         <v>55</v>
@@ -5602,8 +7509,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="13">
-        <v>550400009</v>
+      <c r="A58" s="15" t="s">
+        <v>957</v>
       </c>
       <c r="B58" s="9">
         <v>55</v>
@@ -5636,8 +7543,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>550400010</v>
+      <c r="A59" s="15" t="s">
+        <v>958</v>
       </c>
       <c r="B59" s="9">
         <v>55</v>
@@ -5670,8 +7577,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
-        <v>550400030</v>
+      <c r="A60" s="15" t="s">
+        <v>959</v>
       </c>
       <c r="B60" s="9">
         <v>55</v>
@@ -5704,8 +7611,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>550400041</v>
+      <c r="A61" s="15" t="s">
+        <v>960</v>
       </c>
       <c r="B61" s="9">
         <v>55</v>
@@ -5738,8 +7645,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>550400050</v>
+      <c r="A62" s="15" t="s">
+        <v>961</v>
       </c>
       <c r="B62" s="9">
         <v>55</v>
@@ -5772,8 +7679,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>550400079</v>
+      <c r="A63" s="15" t="s">
+        <v>962</v>
       </c>
       <c r="B63" s="9">
         <v>55</v>
@@ -5806,8 +7713,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="13">
-        <v>550400105</v>
+      <c r="A64" s="15" t="s">
+        <v>963</v>
       </c>
       <c r="B64" s="9">
         <v>55</v>
@@ -5840,8 +7747,8 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>550400215</v>
+      <c r="A65" s="15" t="s">
+        <v>964</v>
       </c>
       <c r="B65" s="9">
         <v>55</v>
@@ -5874,8 +7781,8 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="13">
-        <v>550400216</v>
+      <c r="A66" s="15" t="s">
+        <v>965</v>
       </c>
       <c r="B66" s="9">
         <v>55</v>
@@ -5908,8 +7815,8 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="13">
-        <v>550400248</v>
+      <c r="A67" s="15" t="s">
+        <v>966</v>
       </c>
       <c r="B67" s="9">
         <v>55</v>
@@ -5942,8 +7849,8 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>550400259</v>
+      <c r="A68" s="15" t="s">
+        <v>967</v>
       </c>
       <c r="B68" s="9">
         <v>55</v>
@@ -5976,8 +7883,8 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="13">
-        <v>550400275</v>
+      <c r="A69" s="15" t="s">
+        <v>968</v>
       </c>
       <c r="B69" s="9">
         <v>55</v>
@@ -6010,8 +7917,8 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>550400319</v>
+      <c r="A70" s="15" t="s">
+        <v>969</v>
       </c>
       <c r="B70" s="9">
         <v>55</v>
@@ -6044,8 +7951,8 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>550400337</v>
+      <c r="A71" s="15" t="s">
+        <v>970</v>
       </c>
       <c r="B71" s="9">
         <v>55</v>
@@ -6078,8 +7985,8 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>550400338</v>
+      <c r="A72" s="15" t="s">
+        <v>971</v>
       </c>
       <c r="B72" s="9">
         <v>55</v>
@@ -6112,8 +8019,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
-        <v>550400357</v>
+      <c r="A73" s="15" t="s">
+        <v>972</v>
       </c>
       <c r="B73" s="9">
         <v>55</v>
@@ -6146,8 +8053,8 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="13">
-        <v>550400358</v>
+      <c r="A74" s="15" t="s">
+        <v>973</v>
       </c>
       <c r="B74" s="9">
         <v>55</v>
@@ -6180,8 +8087,8 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="13">
-        <v>550400360</v>
+      <c r="A75" s="15" t="s">
+        <v>974</v>
       </c>
       <c r="B75" s="9">
         <v>55</v>
@@ -6214,8 +8121,8 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="13">
-        <v>550400376</v>
+      <c r="A76" s="15" t="s">
+        <v>975</v>
       </c>
       <c r="B76" s="9">
         <v>55</v>
@@ -6248,8 +8155,8 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="13">
-        <v>550400418</v>
+      <c r="A77" s="15" t="s">
+        <v>976</v>
       </c>
       <c r="B77" s="9">
         <v>55</v>
@@ -6282,8 +8189,8 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
-        <v>550400419</v>
+      <c r="A78" s="15" t="s">
+        <v>977</v>
       </c>
       <c r="B78" s="9">
         <v>55</v>
@@ -6316,8 +8223,8 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>550400446</v>
+      <c r="A79" s="15" t="s">
+        <v>978</v>
       </c>
       <c r="B79" s="9">
         <v>55</v>
@@ -6350,8 +8257,8 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
-        <v>550400495</v>
+      <c r="A80" s="15" t="s">
+        <v>979</v>
       </c>
       <c r="B80" s="9">
         <v>55</v>
@@ -6384,8 +8291,8 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
-        <v>550400577</v>
+      <c r="A81" s="15" t="s">
+        <v>980</v>
       </c>
       <c r="B81" s="9">
         <v>55</v>
@@ -6418,8 +8325,8 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
-        <v>550400725</v>
+      <c r="A82" s="15" t="s">
+        <v>981</v>
       </c>
       <c r="B82" s="9">
         <v>55</v>
@@ -6452,8 +8359,8 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>550500030</v>
+      <c r="A83" s="15" t="s">
+        <v>982</v>
       </c>
       <c r="B83" s="9">
         <v>55</v>
@@ -6486,8 +8393,8 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
-        <v>550500031</v>
+      <c r="A84" s="15" t="s">
+        <v>983</v>
       </c>
       <c r="B84" s="9">
         <v>55</v>
@@ -6520,8 +8427,8 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
-        <v>550500036</v>
+      <c r="A85" s="15" t="s">
+        <v>984</v>
       </c>
       <c r="B85" s="9">
         <v>55</v>
@@ -6554,8 +8461,8 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
-        <v>550500037</v>
+      <c r="A86" s="15" t="s">
+        <v>985</v>
       </c>
       <c r="B86" s="9">
         <v>55</v>
@@ -6588,8 +8495,8 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
-        <v>550500049</v>
+      <c r="A87" s="15" t="s">
+        <v>986</v>
       </c>
       <c r="B87" s="9">
         <v>55</v>
@@ -6622,8 +8529,8 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>550500051</v>
+      <c r="A88" s="15" t="s">
+        <v>987</v>
       </c>
       <c r="B88" s="9">
         <v>55</v>
@@ -6656,8 +8563,8 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
-        <v>550500054</v>
+      <c r="A89" s="15" t="s">
+        <v>988</v>
       </c>
       <c r="B89" s="9">
         <v>55</v>
@@ -6690,8 +8597,8 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>550500069</v>
+      <c r="A90" s="15" t="s">
+        <v>989</v>
       </c>
       <c r="B90" s="9">
         <v>55</v>
@@ -6724,8 +8631,8 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
-        <v>550500073</v>
+      <c r="A91" s="15" t="s">
+        <v>990</v>
       </c>
       <c r="B91" s="9">
         <v>55</v>
@@ -6758,8 +8665,8 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="13">
-        <v>550500111</v>
+      <c r="A92" s="15" t="s">
+        <v>991</v>
       </c>
       <c r="B92" s="9">
         <v>55</v>
@@ -6792,8 +8699,8 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="13">
-        <v>550500120</v>
+      <c r="A93" s="15" t="s">
+        <v>992</v>
       </c>
       <c r="B93" s="9">
         <v>55</v>
@@ -6826,8 +8733,8 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="13">
-        <v>550500140</v>
+      <c r="A94" s="15" t="s">
+        <v>993</v>
       </c>
       <c r="B94" s="9">
         <v>55</v>
@@ -6860,8 +8767,8 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="13">
-        <v>550500142</v>
+      <c r="A95" s="15" t="s">
+        <v>994</v>
       </c>
       <c r="B95" s="9">
         <v>55</v>
@@ -6894,8 +8801,8 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>550500143</v>
+      <c r="A96" s="15" t="s">
+        <v>995</v>
       </c>
       <c r="B96" s="9">
         <v>55</v>
@@ -6928,8 +8835,8 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="13">
-        <v>550500144</v>
+      <c r="A97" s="15" t="s">
+        <v>996</v>
       </c>
       <c r="B97" s="9">
         <v>55</v>
@@ -6962,8 +8869,8 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="13">
-        <v>550500148</v>
+      <c r="A98" s="15" t="s">
+        <v>997</v>
       </c>
       <c r="B98" s="9">
         <v>55</v>
@@ -6996,8 +8903,8 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="13">
-        <v>550500182</v>
+      <c r="A99" s="15" t="s">
+        <v>998</v>
       </c>
       <c r="B99" s="9">
         <v>55</v>
@@ -7030,8 +8937,8 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>550500211</v>
+      <c r="A100" s="15" t="s">
+        <v>999</v>
       </c>
       <c r="B100" s="9">
         <v>55</v>
@@ -7064,8 +8971,8 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="13">
-        <v>550500229</v>
+      <c r="A101" s="15" t="s">
+        <v>1000</v>
       </c>
       <c r="B101" s="9">
         <v>55</v>
@@ -7098,8 +9005,8 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="13">
-        <v>550500534</v>
+      <c r="A102" s="15" t="s">
+        <v>1001</v>
       </c>
       <c r="B102" s="9">
         <v>55</v>
@@ -7132,8 +9039,8 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="13">
-        <v>550500588</v>
+      <c r="A103" s="15" t="s">
+        <v>1002</v>
       </c>
       <c r="B103" s="9">
         <v>55</v>
@@ -7166,8 +9073,8 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>550500684</v>
+      <c r="A104" s="15" t="s">
+        <v>1003</v>
       </c>
       <c r="B104" s="9">
         <v>55</v>
@@ -7200,8 +9107,8 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="13">
-        <v>550500697</v>
+      <c r="A105" s="15" t="s">
+        <v>1004</v>
       </c>
       <c r="B105" s="9">
         <v>55</v>
@@ -7234,8 +9141,8 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
-        <v>550500801</v>
+      <c r="A106" s="15" t="s">
+        <v>1005</v>
       </c>
       <c r="B106" s="9">
         <v>55</v>
@@ -7268,8 +9175,8 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="13">
-        <v>550500855</v>
+      <c r="A107" s="15" t="s">
+        <v>1006</v>
       </c>
       <c r="B107" s="9">
         <v>55</v>
@@ -7302,8 +9209,8 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="13">
-        <v>550501153</v>
+      <c r="A108" s="15" t="s">
+        <v>1007</v>
       </c>
       <c r="B108" s="9">
         <v>55</v>
@@ -7336,8 +9243,8 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="13">
-        <v>550501237</v>
+      <c r="A109" s="15" t="s">
+        <v>1008</v>
       </c>
       <c r="B109" s="9">
         <v>55</v>
@@ -7370,8 +9277,8 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="13">
-        <v>550600031</v>
+      <c r="A110" s="15" t="s">
+        <v>1009</v>
       </c>
       <c r="B110" s="9">
         <v>55</v>
@@ -7404,8 +9311,8 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="13">
-        <v>550600033</v>
+      <c r="A111" s="15" t="s">
+        <v>1010</v>
       </c>
       <c r="B111" s="9">
         <v>55</v>
@@ -7438,8 +9345,8 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
-        <v>550600038</v>
+      <c r="A112" s="15" t="s">
+        <v>1011</v>
       </c>
       <c r="B112" s="9">
         <v>55</v>
@@ -7472,8 +9379,8 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="13">
-        <v>550600048</v>
+      <c r="A113" s="15" t="s">
+        <v>1012</v>
       </c>
       <c r="B113" s="9">
         <v>55</v>
@@ -7506,8 +9413,8 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="13">
-        <v>550600050</v>
+      <c r="A114" s="15" t="s">
+        <v>1013</v>
       </c>
       <c r="B114" s="9">
         <v>55</v>
@@ -7540,8 +9447,8 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
-        <v>550600052</v>
+      <c r="A115" s="15" t="s">
+        <v>1014</v>
       </c>
       <c r="B115" s="9">
         <v>55</v>
@@ -7574,8 +9481,8 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="13">
-        <v>550600056</v>
+      <c r="A116" s="15" t="s">
+        <v>1015</v>
       </c>
       <c r="B116" s="9">
         <v>55</v>
@@ -7608,8 +9515,8 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="13">
-        <v>550600058</v>
+      <c r="A117" s="15" t="s">
+        <v>1016</v>
       </c>
       <c r="B117" s="9">
         <v>55</v>
@@ -7642,8 +9549,8 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="13">
-        <v>550600060</v>
+      <c r="A118" s="15" t="s">
+        <v>1017</v>
       </c>
       <c r="B118" s="9">
         <v>55</v>
@@ -7676,8 +9583,8 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="13">
-        <v>550600069</v>
+      <c r="A119" s="15" t="s">
+        <v>1018</v>
       </c>
       <c r="B119" s="9">
         <v>55</v>
@@ -7710,8 +9617,8 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
-        <v>550600110</v>
+      <c r="A120" s="15" t="s">
+        <v>1019</v>
       </c>
       <c r="B120" s="9">
         <v>55</v>
@@ -7744,8 +9651,8 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
-        <v>550600111</v>
+      <c r="A121" s="15" t="s">
+        <v>1020</v>
       </c>
       <c r="B121" s="9">
         <v>55</v>
@@ -7778,8 +9685,8 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="13">
-        <v>550600116</v>
+      <c r="A122" s="15" t="s">
+        <v>1021</v>
       </c>
       <c r="B122" s="9">
         <v>55</v>
@@ -7812,8 +9719,8 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="13">
-        <v>550600129</v>
+      <c r="A123" s="15" t="s">
+        <v>1022</v>
       </c>
       <c r="B123" s="9">
         <v>55</v>
@@ -7846,8 +9753,8 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
-        <v>550650047</v>
+      <c r="A124" s="15" t="s">
+        <v>1023</v>
       </c>
       <c r="B124" s="9">
         <v>55</v>
@@ -7880,8 +9787,8 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="13">
-        <v>550650050</v>
+      <c r="A125" s="15" t="s">
+        <v>1024</v>
       </c>
       <c r="B125" s="9">
         <v>55</v>
@@ -7914,8 +9821,8 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="13">
-        <v>550750060</v>
+      <c r="A126" s="15" t="s">
+        <v>1025</v>
       </c>
       <c r="B126" s="9">
         <v>55</v>
@@ -7948,8 +9855,8 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="13">
-        <v>550750124</v>
+      <c r="A127" s="15" t="s">
+        <v>1026</v>
       </c>
       <c r="B127" s="9">
         <v>55</v>
@@ -7982,8 +9889,8 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
-        <v>550800008</v>
+      <c r="A128" s="15" t="s">
+        <v>1027</v>
       </c>
       <c r="B128" s="9">
         <v>55</v>
@@ -8016,8 +9923,8 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="13">
-        <v>550800013</v>
+      <c r="A129" s="15" t="s">
+        <v>1028</v>
       </c>
       <c r="B129" s="9">
         <v>55</v>
@@ -8050,8 +9957,8 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
-        <v>550800016</v>
+      <c r="A130" s="15" t="s">
+        <v>1029</v>
       </c>
       <c r="B130" s="9">
         <v>55</v>
@@ -8084,8 +9991,8 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="13">
-        <v>550800038</v>
+      <c r="A131" s="15" t="s">
+        <v>1030</v>
       </c>
       <c r="B131" s="9">
         <v>55</v>
@@ -8118,8 +10025,8 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
-        <v>550800055</v>
+      <c r="A132" s="15" t="s">
+        <v>1031</v>
       </c>
       <c r="B132" s="9">
         <v>55</v>
@@ -8152,8 +10059,8 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="13">
-        <v>550800220</v>
+      <c r="A133" s="15" t="s">
+        <v>1032</v>
       </c>
       <c r="B133" s="9">
         <v>55</v>
@@ -8186,8 +10093,8 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="13">
-        <v>550800231</v>
+      <c r="A134" s="15" t="s">
+        <v>1033</v>
       </c>
       <c r="B134" s="9">
         <v>55</v>
@@ -8220,8 +10127,8 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="13">
-        <v>550800292</v>
+      <c r="A135" s="15" t="s">
+        <v>1034</v>
       </c>
       <c r="B135" s="9">
         <v>55</v>
@@ -8254,8 +10161,8 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
-        <v>550800391</v>
+      <c r="A136" s="15" t="s">
+        <v>1035</v>
       </c>
       <c r="B136" s="9">
         <v>55</v>
@@ -8288,8 +10195,8 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="13">
-        <v>550800501</v>
+      <c r="A137" s="15" t="s">
+        <v>1036</v>
       </c>
       <c r="B137" s="9">
         <v>55</v>
@@ -8322,8 +10229,8 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="13">
-        <v>550850001</v>
+      <c r="A138" s="15" t="s">
+        <v>1037</v>
       </c>
       <c r="B138" s="9">
         <v>55</v>
@@ -8356,8 +10263,8 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="13">
-        <v>551100111</v>
+      <c r="A139" s="15" t="s">
+        <v>1038</v>
       </c>
       <c r="B139" s="9">
         <v>55</v>
@@ -8390,8 +10297,8 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="13">
-        <v>551150004</v>
+      <c r="A140" s="15" t="s">
+        <v>1039</v>
       </c>
       <c r="B140" s="9">
         <v>55</v>
@@ -8424,8 +10331,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="13">
-        <v>551150017</v>
+      <c r="A141" s="15" t="s">
+        <v>1040</v>
       </c>
       <c r="B141" s="9">
         <v>55</v>
@@ -8458,8 +10365,8 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
-        <v>551150026</v>
+      <c r="A142" s="15" t="s">
+        <v>1041</v>
       </c>
       <c r="B142" s="9">
         <v>55</v>
@@ -8492,8 +10399,8 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A143" s="13">
-        <v>551150028</v>
+      <c r="A143" s="15" t="s">
+        <v>1042</v>
       </c>
       <c r="B143" s="9">
         <v>55</v>
@@ -8526,8 +10433,8 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
-        <v>551150032</v>
+      <c r="A144" s="15" t="s">
+        <v>1043</v>
       </c>
       <c r="B144" s="9">
         <v>55</v>
@@ -8560,8 +10467,8 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="13">
-        <v>551150033</v>
+      <c r="A145" s="15" t="s">
+        <v>1044</v>
       </c>
       <c r="B145" s="9">
         <v>55</v>
@@ -8594,8 +10501,8 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A146" s="13">
-        <v>551150034</v>
+      <c r="A146" s="15" t="s">
+        <v>1045</v>
       </c>
       <c r="B146" s="9">
         <v>55</v>
@@ -8628,8 +10535,8 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="13">
-        <v>551150036</v>
+      <c r="A147" s="15" t="s">
+        <v>1046</v>
       </c>
       <c r="B147" s="9">
         <v>55</v>
@@ -8662,8 +10569,8 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="13">
-        <v>551150037</v>
+      <c r="A148" s="15" t="s">
+        <v>1047</v>
       </c>
       <c r="B148" s="9">
         <v>55</v>
@@ -8696,8 +10603,8 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="13">
-        <v>551150038</v>
+      <c r="A149" s="15" t="s">
+        <v>1048</v>
       </c>
       <c r="B149" s="9">
         <v>55</v>
@@ -8730,8 +10637,8 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="13">
-        <v>551150039</v>
+      <c r="A150" s="15" t="s">
+        <v>1049</v>
       </c>
       <c r="B150" s="9">
         <v>55</v>
@@ -8764,8 +10671,8 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="13">
-        <v>551150166</v>
+      <c r="A151" s="15" t="s">
+        <v>1050</v>
       </c>
       <c r="B151" s="9">
         <v>55</v>
@@ -8798,8 +10705,8 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A152" s="13">
-        <v>551150223</v>
+      <c r="A152" s="15" t="s">
+        <v>1051</v>
       </c>
       <c r="B152" s="9">
         <v>55</v>
@@ -8832,8 +10739,8 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="13">
-        <v>551150224</v>
+      <c r="A153" s="15" t="s">
+        <v>1052</v>
       </c>
       <c r="B153" s="9">
         <v>55</v>
@@ -8866,8 +10773,8 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A154" s="13">
-        <v>551150225</v>
+      <c r="A154" s="15" t="s">
+        <v>1053</v>
       </c>
       <c r="B154" s="9">
         <v>55</v>
@@ -8900,8 +10807,8 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A155" s="13">
-        <v>551150228</v>
+      <c r="A155" s="15" t="s">
+        <v>1054</v>
       </c>
       <c r="B155" s="9">
         <v>55</v>
@@ -8934,8 +10841,8 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="13">
-        <v>551150239</v>
+      <c r="A156" s="15" t="s">
+        <v>1055</v>
       </c>
       <c r="B156" s="9">
         <v>55</v>
@@ -8968,8 +10875,8 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="13">
-        <v>551150240</v>
+      <c r="A157" s="15" t="s">
+        <v>1056</v>
       </c>
       <c r="B157" s="9">
         <v>55</v>
@@ -9002,8 +10909,8 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="13">
-        <v>551150241</v>
+      <c r="A158" s="15" t="s">
+        <v>1057</v>
       </c>
       <c r="B158" s="9">
         <v>55</v>
@@ -9036,8 +10943,8 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="13">
-        <v>551150243</v>
+      <c r="A159" s="15" t="s">
+        <v>1058</v>
       </c>
       <c r="B159" s="9">
         <v>55</v>
@@ -9070,8 +10977,8 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="13">
-        <v>551150244</v>
+      <c r="A160" s="15" t="s">
+        <v>1059</v>
       </c>
       <c r="B160" s="9">
         <v>55</v>
@@ -9104,8 +11011,8 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="13">
-        <v>551150245</v>
+      <c r="A161" s="15" t="s">
+        <v>1060</v>
       </c>
       <c r="B161" s="9">
         <v>55</v>
@@ -9138,8 +11045,8 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="13">
-        <v>551150246</v>
+      <c r="A162" s="15" t="s">
+        <v>1061</v>
       </c>
       <c r="B162" s="9">
         <v>55</v>
@@ -9172,8 +11079,8 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="13">
-        <v>600450007</v>
+      <c r="A163" s="15" t="s">
+        <v>1062</v>
       </c>
       <c r="B163" s="9">
         <v>60</v>
@@ -9206,8 +11113,8 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="13">
-        <v>650050034</v>
+      <c r="A164" s="15" t="s">
+        <v>1063</v>
       </c>
       <c r="B164" s="9">
         <v>65</v>
@@ -9240,8 +11147,8 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="13">
-        <v>650050087</v>
+      <c r="A165" s="15" t="s">
+        <v>1064</v>
       </c>
       <c r="B165" s="9">
         <v>65</v>
@@ -9274,8 +11181,8 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="13">
-        <v>650050088</v>
+      <c r="A166" s="15" t="s">
+        <v>1065</v>
       </c>
       <c r="B166" s="9">
         <v>65</v>
@@ -9308,8 +11215,8 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="13">
-        <v>650050089</v>
+      <c r="A167" s="15" t="s">
+        <v>1066</v>
       </c>
       <c r="B167" s="9">
         <v>65</v>
@@ -9342,8 +11249,8 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="13">
-        <v>650200096</v>
+      <c r="A168" s="15" t="s">
+        <v>1067</v>
       </c>
       <c r="B168" s="9">
         <v>65</v>
@@ -9376,8 +11283,8 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="13">
-        <v>700150015</v>
+      <c r="A169" s="15" t="s">
+        <v>1068</v>
       </c>
       <c r="B169" s="9">
         <v>70</v>
@@ -9410,8 +11317,8 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="13">
-        <v>700150263</v>
+      <c r="A170" s="15" t="s">
+        <v>1069</v>
       </c>
       <c r="B170" s="9">
         <v>70</v>
@@ -9444,8 +11351,8 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="13">
-        <v>700150264</v>
+      <c r="A171" s="15" t="s">
+        <v>1070</v>
       </c>
       <c r="B171" s="9">
         <v>70</v>
@@ -9478,8 +11385,8 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="13">
-        <v>700150265</v>
+      <c r="A172" s="15" t="s">
+        <v>1071</v>
       </c>
       <c r="B172" s="9">
         <v>70</v>
@@ -9512,8 +11419,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="13">
-        <v>700150266</v>
+      <c r="A173" s="15" t="s">
+        <v>1072</v>
       </c>
       <c r="B173" s="9">
         <v>70</v>
@@ -9546,8 +11453,8 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="13">
-        <v>700150267</v>
+      <c r="A174" s="15" t="s">
+        <v>1073</v>
       </c>
       <c r="B174" s="9">
         <v>70</v>
@@ -9580,8 +11487,8 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="13">
-        <v>700150270</v>
+      <c r="A175" s="15" t="s">
+        <v>1074</v>
       </c>
       <c r="B175" s="9">
         <v>70</v>
@@ -9614,8 +11521,8 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="13">
-        <v>700150271</v>
+      <c r="A176" s="15" t="s">
+        <v>1075</v>
       </c>
       <c r="B176" s="9">
         <v>70</v>
@@ -9648,8 +11555,8 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="13">
-        <v>700150276</v>
+      <c r="A177" s="15" t="s">
+        <v>1076</v>
       </c>
       <c r="B177" s="9">
         <v>70</v>
@@ -9682,8 +11589,8 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="13">
-        <v>700150373</v>
+      <c r="A178" s="15" t="s">
+        <v>1077</v>
       </c>
       <c r="B178" s="9">
         <v>70</v>
@@ -9716,8 +11623,8 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="13">
-        <v>700150501</v>
+      <c r="A179" s="15" t="s">
+        <v>1078</v>
       </c>
       <c r="B179" s="9">
         <v>70</v>
@@ -9750,8 +11657,8 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="13">
-        <v>700200034</v>
+      <c r="A180" s="15" t="s">
+        <v>1079</v>
       </c>
       <c r="B180" s="9">
         <v>70</v>
@@ -9784,8 +11691,8 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="13">
-        <v>700200153</v>
+      <c r="A181" s="15" t="s">
+        <v>1080</v>
       </c>
       <c r="B181" s="9">
         <v>70</v>
@@ -9818,8 +11725,8 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="13">
-        <v>700500154</v>
+      <c r="A182" s="15" t="s">
+        <v>1081</v>
       </c>
       <c r="B182" s="9">
         <v>70</v>
@@ -9852,8 +11759,8 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="13">
-        <v>700500192</v>
+      <c r="A183" s="15" t="s">
+        <v>1082</v>
       </c>
       <c r="B183" s="9">
         <v>70</v>
@@ -9886,8 +11793,8 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="13">
-        <v>700500408</v>
+      <c r="A184" s="15" t="s">
+        <v>1083</v>
       </c>
       <c r="B184" s="9">
         <v>70</v>
@@ -9920,8 +11827,8 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="13">
-        <v>700500410</v>
+      <c r="A185" s="15" t="s">
+        <v>1084</v>
       </c>
       <c r="B185" s="9">
         <v>70</v>
@@ -9954,8 +11861,8 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="13">
-        <v>700500412</v>
+      <c r="A186" s="15" t="s">
+        <v>1085</v>
       </c>
       <c r="B186" s="9">
         <v>70</v>
@@ -9988,8 +11895,8 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="13">
-        <v>700500418</v>
+      <c r="A187" s="15" t="s">
+        <v>1086</v>
       </c>
       <c r="B187" s="9">
         <v>70</v>
@@ -10022,8 +11929,8 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="13">
-        <v>700500419</v>
+      <c r="A188" s="15" t="s">
+        <v>1087</v>
       </c>
       <c r="B188" s="9">
         <v>70</v>
@@ -10056,8 +11963,8 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="13">
-        <v>700500421</v>
+      <c r="A189" s="15" t="s">
+        <v>1088</v>
       </c>
       <c r="B189" s="9">
         <v>70</v>
@@ -10090,8 +11997,8 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="13">
-        <v>700500433</v>
+      <c r="A190" s="15" t="s">
+        <v>1089</v>
       </c>
       <c r="B190" s="9">
         <v>70</v>
@@ -10124,8 +12031,8 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="13">
-        <v>700500440</v>
+      <c r="A191" s="15" t="s">
+        <v>1090</v>
       </c>
       <c r="B191" s="9">
         <v>70</v>
@@ -10158,8 +12065,8 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="13">
-        <v>700500500</v>
+      <c r="A192" s="15" t="s">
+        <v>1091</v>
       </c>
       <c r="B192" s="9">
         <v>70</v>
@@ -10192,8 +12099,8 @@
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="13">
-        <v>700500512</v>
+      <c r="A193" s="15" t="s">
+        <v>1092</v>
       </c>
       <c r="B193" s="9">
         <v>70</v>
@@ -10226,8 +12133,8 @@
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="13">
-        <v>700500521</v>
+      <c r="A194" s="15" t="s">
+        <v>1093</v>
       </c>
       <c r="B194" s="9">
         <v>70</v>
@@ -10260,8 +12167,8 @@
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="13">
-        <v>700500536</v>
+      <c r="A195" s="15" t="s">
+        <v>1094</v>
       </c>
       <c r="B195" s="9">
         <v>70</v>
@@ -10294,8 +12201,8 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="13">
-        <v>700500554</v>
+      <c r="A196" s="15" t="s">
+        <v>1095</v>
       </c>
       <c r="B196" s="9">
         <v>70</v>
@@ -10328,8 +12235,8 @@
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="13">
-        <v>700500557</v>
+      <c r="A197" s="15" t="s">
+        <v>1096</v>
       </c>
       <c r="B197" s="9">
         <v>70</v>
@@ -10362,8 +12269,8 @@
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="13">
-        <v>700500571</v>
+      <c r="A198" s="15" t="s">
+        <v>1097</v>
       </c>
       <c r="B198" s="9">
         <v>70</v>
@@ -10396,8 +12303,8 @@
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="13">
-        <v>700500600</v>
+      <c r="A199" s="15" t="s">
+        <v>1098</v>
       </c>
       <c r="B199" s="9">
         <v>70</v>
@@ -10430,8 +12337,8 @@
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="13">
-        <v>700500699</v>
+      <c r="A200" s="15" t="s">
+        <v>1099</v>
       </c>
       <c r="B200" s="9">
         <v>70</v>
@@ -10464,8 +12371,8 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="13">
-        <v>700500722</v>
+      <c r="A201" s="15" t="s">
+        <v>1100</v>
       </c>
       <c r="B201" s="9">
         <v>70</v>
@@ -10498,8 +12405,8 @@
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="13">
-        <v>700500727</v>
+      <c r="A202" s="15" t="s">
+        <v>1101</v>
       </c>
       <c r="B202" s="9">
         <v>70</v>
@@ -10532,8 +12439,8 @@
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="13">
-        <v>700500735</v>
+      <c r="A203" s="15" t="s">
+        <v>1102</v>
       </c>
       <c r="B203" s="9">
         <v>70</v>
@@ -10566,8 +12473,8 @@
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="13">
-        <v>700500753</v>
+      <c r="A204" s="15" t="s">
+        <v>1103</v>
       </c>
       <c r="B204" s="9">
         <v>70</v>
@@ -10600,8 +12507,8 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="13">
-        <v>700500782</v>
+      <c r="A205" s="15" t="s">
+        <v>1104</v>
       </c>
       <c r="B205" s="9">
         <v>70</v>
@@ -10634,8 +12541,8 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="13">
-        <v>700550183</v>
+      <c r="A206" s="15" t="s">
+        <v>1105</v>
       </c>
       <c r="B206" s="9">
         <v>70</v>
@@ -10668,8 +12575,8 @@
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="13">
-        <v>700550264</v>
+      <c r="A207" s="15" t="s">
+        <v>1106</v>
       </c>
       <c r="B207" s="9">
         <v>70</v>
@@ -10702,8 +12609,8 @@
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="13">
-        <v>700550332</v>
+      <c r="A208" s="15" t="s">
+        <v>1107</v>
       </c>
       <c r="B208" s="9">
         <v>70</v>
@@ -10736,8 +12643,8 @@
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="13">
-        <v>700550333</v>
+      <c r="A209" s="15" t="s">
+        <v>1108</v>
       </c>
       <c r="B209" s="9">
         <v>70</v>
@@ -10770,8 +12677,8 @@
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="13">
-        <v>700550334</v>
+      <c r="A210" s="15" t="s">
+        <v>1109</v>
       </c>
       <c r="B210" s="9">
         <v>70</v>
@@ -10804,8 +12711,8 @@
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="13">
-        <v>700550383</v>
+      <c r="A211" s="15" t="s">
+        <v>1110</v>
       </c>
       <c r="B211" s="9">
         <v>70</v>
@@ -10838,8 +12745,8 @@
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="13">
-        <v>700550392</v>
+      <c r="A212" s="15" t="s">
+        <v>1111</v>
       </c>
       <c r="B212" s="9">
         <v>70</v>
@@ -10872,8 +12779,8 @@
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="13">
-        <v>700600002</v>
+      <c r="A213" s="15" t="s">
+        <v>1112</v>
       </c>
       <c r="B213" s="9">
         <v>70</v>
@@ -10906,8 +12813,8 @@
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="13">
-        <v>700650021</v>
+      <c r="A214" s="15" t="s">
+        <v>1113</v>
       </c>
       <c r="B214" s="9">
         <v>70</v>
@@ -10940,8 +12847,8 @@
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="13">
-        <v>700850020</v>
+      <c r="A215" s="15" t="s">
+        <v>1114</v>
       </c>
       <c r="B215" s="9">
         <v>70</v>
@@ -10974,8 +12881,8 @@
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="13">
-        <v>700850038</v>
+      <c r="A216" s="15" t="s">
+        <v>1115</v>
       </c>
       <c r="B216" s="9">
         <v>70</v>
@@ -11008,8 +12915,8 @@
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="13">
-        <v>700850050</v>
+      <c r="A217" s="15" t="s">
+        <v>1116</v>
       </c>
       <c r="B217" s="9">
         <v>70</v>
@@ -11042,8 +12949,8 @@
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="13">
-        <v>700850056</v>
+      <c r="A218" s="15" t="s">
+        <v>1117</v>
       </c>
       <c r="B218" s="9">
         <v>70</v>
@@ -11076,8 +12983,8 @@
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="13">
-        <v>700850059</v>
+      <c r="A219" s="15" t="s">
+        <v>1118</v>
       </c>
       <c r="B219" s="9">
         <v>70</v>
@@ -11110,8 +13017,8 @@
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="13">
-        <v>700850074</v>
+      <c r="A220" s="15" t="s">
+        <v>1119</v>
       </c>
       <c r="B220" s="9">
         <v>70</v>
@@ -11144,8 +13051,8 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="13">
-        <v>700850078</v>
+      <c r="A221" s="15" t="s">
+        <v>1120</v>
       </c>
       <c r="B221" s="9">
         <v>70</v>
@@ -11178,8 +13085,8 @@
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="13">
-        <v>700850079</v>
+      <c r="A222" s="15" t="s">
+        <v>1121</v>
       </c>
       <c r="B222" s="9">
         <v>70</v>
@@ -11212,8 +13119,8 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="13">
-        <v>700850097</v>
+      <c r="A223" s="15" t="s">
+        <v>1122</v>
       </c>
       <c r="B223" s="9">
         <v>70</v>
@@ -11246,8 +13153,8 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="13">
-        <v>700850098</v>
+      <c r="A224" s="15" t="s">
+        <v>1123</v>
       </c>
       <c r="B224" s="9">
         <v>70</v>
@@ -11280,8 +13187,8 @@
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="13">
-        <v>700850099</v>
+      <c r="A225" s="15" t="s">
+        <v>1124</v>
       </c>
       <c r="B225" s="9">
         <v>70</v>
@@ -11314,8 +13221,8 @@
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="13">
-        <v>700850102</v>
+      <c r="A226" s="15" t="s">
+        <v>1125</v>
       </c>
       <c r="B226" s="9">
         <v>70</v>
@@ -11348,8 +13255,8 @@
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="13">
-        <v>700850107</v>
+      <c r="A227" s="15" t="s">
+        <v>1126</v>
       </c>
       <c r="B227" s="9">
         <v>70</v>
@@ -11382,8 +13289,8 @@
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="13">
-        <v>700850110</v>
+      <c r="A228" s="15" t="s">
+        <v>1127</v>
       </c>
       <c r="B228" s="9">
         <v>70</v>
@@ -11416,8 +13323,8 @@
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A229" s="13">
-        <v>700850115</v>
+      <c r="A229" s="15" t="s">
+        <v>1128</v>
       </c>
       <c r="B229" s="9">
         <v>70</v>
@@ -11450,8 +13357,8 @@
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A230" s="13">
-        <v>700850116</v>
+      <c r="A230" s="15" t="s">
+        <v>1129</v>
       </c>
       <c r="B230" s="9">
         <v>70</v>
@@ -11484,8 +13391,8 @@
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A231" s="13">
-        <v>700850119</v>
+      <c r="A231" s="15" t="s">
+        <v>1130</v>
       </c>
       <c r="B231" s="9">
         <v>70</v>
@@ -11518,8 +13425,8 @@
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="13">
-        <v>700850124</v>
+      <c r="A232" s="15" t="s">
+        <v>1131</v>
       </c>
       <c r="B232" s="9">
         <v>70</v>
@@ -11552,8 +13459,8 @@
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="13">
-        <v>700850130</v>
+      <c r="A233" s="15" t="s">
+        <v>1132</v>
       </c>
       <c r="B233" s="9">
         <v>70</v>
@@ -11586,8 +13493,8 @@
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="13">
-        <v>700850147</v>
+      <c r="A234" s="15" t="s">
+        <v>1133</v>
       </c>
       <c r="B234" s="9">
         <v>70</v>
@@ -11620,8 +13527,8 @@
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="13">
-        <v>700850148</v>
+      <c r="A235" s="15" t="s">
+        <v>1134</v>
       </c>
       <c r="B235" s="9">
         <v>70</v>
@@ -11654,8 +13561,8 @@
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A236" s="13">
-        <v>700850151</v>
+      <c r="A236" s="15" t="s">
+        <v>1135</v>
       </c>
       <c r="B236" s="9">
         <v>70</v>
@@ -11688,8 +13595,8 @@
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="13">
-        <v>700850161</v>
+      <c r="A237" s="15" t="s">
+        <v>1136</v>
       </c>
       <c r="B237" s="9">
         <v>70</v>
@@ -11722,8 +13629,8 @@
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A238" s="13">
-        <v>700850162</v>
+      <c r="A238" s="15" t="s">
+        <v>1137</v>
       </c>
       <c r="B238" s="9">
         <v>70</v>
@@ -11756,8 +13663,8 @@
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A239" s="13">
-        <v>700850171</v>
+      <c r="A239" s="15" t="s">
+        <v>1138</v>
       </c>
       <c r="B239" s="9">
         <v>70</v>
@@ -11790,8 +13697,8 @@
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A240" s="13">
-        <v>700850173</v>
+      <c r="A240" s="15" t="s">
+        <v>1139</v>
       </c>
       <c r="B240" s="9">
         <v>70</v>
@@ -11824,8 +13731,8 @@
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A241" s="13">
-        <v>700850263</v>
+      <c r="A241" s="15" t="s">
+        <v>1140</v>
       </c>
       <c r="B241" s="9">
         <v>70</v>
@@ -11858,8 +13765,8 @@
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="13">
-        <v>700850301</v>
+      <c r="A242" s="15" t="s">
+        <v>1141</v>
       </c>
       <c r="B242" s="9">
         <v>70</v>
@@ -11892,8 +13799,8 @@
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="13">
-        <v>700850310</v>
+      <c r="A243" s="15" t="s">
+        <v>1142</v>
       </c>
       <c r="B243" s="9">
         <v>70</v>
@@ -11926,8 +13833,8 @@
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="13">
-        <v>700850323</v>
+      <c r="A244" s="15" t="s">
+        <v>1143</v>
       </c>
       <c r="B244" s="9">
         <v>70</v>
@@ -11960,8 +13867,8 @@
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="13">
-        <v>700850324</v>
+      <c r="A245" s="15" t="s">
+        <v>1144</v>
       </c>
       <c r="B245" s="9">
         <v>70</v>
@@ -11994,8 +13901,8 @@
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A246" s="13">
-        <v>700850325</v>
+      <c r="A246" s="15" t="s">
+        <v>1145</v>
       </c>
       <c r="B246" s="9">
         <v>70</v>
@@ -12028,8 +13935,8 @@
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="13">
-        <v>700850352</v>
+      <c r="A247" s="15" t="s">
+        <v>1146</v>
       </c>
       <c r="B247" s="9">
         <v>70</v>
@@ -12062,8 +13969,8 @@
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A248" s="13">
-        <v>700850427</v>
+      <c r="A248" s="15" t="s">
+        <v>1147</v>
       </c>
       <c r="B248" s="9">
         <v>70</v>
@@ -12096,8 +14003,8 @@
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A249" s="13">
-        <v>700850443</v>
+      <c r="A249" s="15" t="s">
+        <v>1148</v>
       </c>
       <c r="B249" s="9">
         <v>70</v>
@@ -12130,8 +14037,8 @@
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A250" s="13">
-        <v>700850446</v>
+      <c r="A250" s="15" t="s">
+        <v>1149</v>
       </c>
       <c r="B250" s="9">
         <v>70</v>
@@ -12164,8 +14071,8 @@
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A251" s="13">
-        <v>700850448</v>
+      <c r="A251" s="15" t="s">
+        <v>1150</v>
       </c>
       <c r="B251" s="9">
         <v>70</v>
@@ -12198,8 +14105,8 @@
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="13">
-        <v>700850449</v>
+      <c r="A252" s="15" t="s">
+        <v>1151</v>
       </c>
       <c r="B252" s="9">
         <v>70</v>
@@ -12232,8 +14139,8 @@
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="13">
-        <v>700850452</v>
+      <c r="A253" s="15" t="s">
+        <v>1152</v>
       </c>
       <c r="B253" s="9">
         <v>70</v>
@@ -12266,8 +14173,8 @@
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="13">
-        <v>700850454</v>
+      <c r="A254" s="15" t="s">
+        <v>1153</v>
       </c>
       <c r="B254" s="9">
         <v>70</v>
@@ -12300,8 +14207,8 @@
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A255" s="13">
-        <v>700850498</v>
+      <c r="A255" s="15" t="s">
+        <v>1154</v>
       </c>
       <c r="B255" s="9">
         <v>70</v>
@@ -12334,8 +14241,8 @@
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="13">
-        <v>700850499</v>
+      <c r="A256" s="15" t="s">
+        <v>1155</v>
       </c>
       <c r="B256" s="9">
         <v>70</v>
@@ -12368,8 +14275,8 @@
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A257" s="13">
-        <v>700850755</v>
+      <c r="A257" s="15" t="s">
+        <v>1156</v>
       </c>
       <c r="B257" s="9">
         <v>70</v>
@@ -12402,8 +14309,8 @@
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="13">
-        <v>700850820</v>
+      <c r="A258" s="15" t="s">
+        <v>1157</v>
       </c>
       <c r="B258" s="9">
         <v>70</v>
@@ -12436,8 +14343,8 @@
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A259" s="13">
-        <v>700850921</v>
+      <c r="A259" s="15" t="s">
+        <v>1158</v>
       </c>
       <c r="B259" s="9">
         <v>70</v>
@@ -12470,8 +14377,8 @@
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A260" s="13">
-        <v>700850925</v>
+      <c r="A260" s="15" t="s">
+        <v>1159</v>
       </c>
       <c r="B260" s="9">
         <v>70</v>
@@ -12504,8 +14411,8 @@
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A261" s="13">
-        <v>700851022</v>
+      <c r="A261" s="15" t="s">
+        <v>1160</v>
       </c>
       <c r="B261" s="9">
         <v>70</v>
@@ -12538,8 +14445,8 @@
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A262" s="13">
-        <v>700851026</v>
+      <c r="A262" s="15" t="s">
+        <v>1161</v>
       </c>
       <c r="B262" s="9">
         <v>70</v>
@@ -12572,8 +14479,8 @@
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A263" s="13">
-        <v>700851327</v>
+      <c r="A263" s="15" t="s">
+        <v>1162</v>
       </c>
       <c r="B263" s="9">
         <v>70</v>
@@ -12606,8 +14513,8 @@
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A264" s="13">
-        <v>700851372</v>
+      <c r="A264" s="15" t="s">
+        <v>1163</v>
       </c>
       <c r="B264" s="9">
         <v>70</v>
@@ -12640,8 +14547,8 @@
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A265" s="13">
-        <v>700851717</v>
+      <c r="A265" s="15" t="s">
+        <v>1164</v>
       </c>
       <c r="B265" s="9">
         <v>70</v>
@@ -12674,8 +14581,8 @@
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A266" s="13">
-        <v>700851724</v>
+      <c r="A266" s="15" t="s">
+        <v>1165</v>
       </c>
       <c r="B266" s="9">
         <v>70</v>
@@ -12708,8 +14615,8 @@
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A267" s="13">
-        <v>700851761</v>
+      <c r="A267" s="15" t="s">
+        <v>1166</v>
       </c>
       <c r="B267" s="9">
         <v>70</v>
@@ -12742,8 +14649,8 @@
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A268" s="13">
-        <v>700851890</v>
+      <c r="A268" s="15" t="s">
+        <v>1167</v>
       </c>
       <c r="B268" s="9">
         <v>70</v>
@@ -12776,8 +14683,8 @@
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A269" s="13">
-        <v>700851924</v>
+      <c r="A269" s="15" t="s">
+        <v>1168</v>
       </c>
       <c r="B269" s="9">
         <v>70</v>
@@ -12810,8 +14717,8 @@
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A270" s="13">
-        <v>700852014</v>
+      <c r="A270" s="15" t="s">
+        <v>1169</v>
       </c>
       <c r="B270" s="9">
         <v>70</v>
@@ -12844,8 +14751,8 @@
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A271" s="13">
-        <v>700852059</v>
+      <c r="A271" s="15" t="s">
+        <v>1170</v>
       </c>
       <c r="B271" s="9">
         <v>70</v>
@@ -12878,8 +14785,8 @@
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A272" s="13">
-        <v>700852081</v>
+      <c r="A272" s="15" t="s">
+        <v>1171</v>
       </c>
       <c r="B272" s="9">
         <v>70</v>
@@ -12912,8 +14819,8 @@
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A273" s="13">
-        <v>700852238</v>
+      <c r="A273" s="15" t="s">
+        <v>1172</v>
       </c>
       <c r="B273" s="9">
         <v>70</v>
@@ -12946,8 +14853,8 @@
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A274" s="13">
-        <v>700852256</v>
+      <c r="A274" s="15" t="s">
+        <v>1173</v>
       </c>
       <c r="B274" s="9">
         <v>70</v>
@@ -12980,8 +14887,8 @@
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="13">
-        <v>700852258</v>
+      <c r="A275" s="15" t="s">
+        <v>1174</v>
       </c>
       <c r="B275" s="9">
         <v>70</v>
@@ -13014,8 +14921,8 @@
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A276" s="13">
-        <v>700852265</v>
+      <c r="A276" s="15" t="s">
+        <v>1175</v>
       </c>
       <c r="B276" s="9">
         <v>70</v>
@@ -13048,8 +14955,8 @@
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A277" s="13">
-        <v>700852289</v>
+      <c r="A277" s="15" t="s">
+        <v>1176</v>
       </c>
       <c r="B277" s="9">
         <v>70</v>
@@ -13082,8 +14989,8 @@
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A278" s="13">
-        <v>700852357</v>
+      <c r="A278" s="15" t="s">
+        <v>1177</v>
       </c>
       <c r="B278" s="9">
         <v>70</v>
@@ -13116,8 +15023,8 @@
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A279" s="13">
-        <v>700852360</v>
+      <c r="A279" s="15" t="s">
+        <v>1178</v>
       </c>
       <c r="B279" s="9">
         <v>70</v>
@@ -13150,8 +15057,8 @@
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A280" s="13">
-        <v>700852377</v>
+      <c r="A280" s="15" t="s">
+        <v>1179</v>
       </c>
       <c r="B280" s="9">
         <v>70</v>
@@ -13184,8 +15091,8 @@
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A281" s="13">
-        <v>700852420</v>
+      <c r="A281" s="15" t="s">
+        <v>1180</v>
       </c>
       <c r="B281" s="9">
         <v>70</v>
@@ -13218,8 +15125,8 @@
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A282" s="13">
-        <v>700852489</v>
+      <c r="A282" s="15" t="s">
+        <v>1181</v>
       </c>
       <c r="B282" s="9">
         <v>70</v>
@@ -13252,8 +15159,8 @@
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A283" s="13">
-        <v>700852606</v>
+      <c r="A283" s="15" t="s">
+        <v>1182</v>
       </c>
       <c r="B283" s="9">
         <v>70</v>
@@ -13286,8 +15193,8 @@
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A284" s="13">
-        <v>700852635</v>
+      <c r="A284" s="15" t="s">
+        <v>1183</v>
       </c>
       <c r="B284" s="9">
         <v>70</v>
@@ -13320,8 +15227,8 @@
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A285" s="13">
-        <v>700852638</v>
+      <c r="A285" s="15" t="s">
+        <v>1184</v>
       </c>
       <c r="B285" s="9">
         <v>70</v>
@@ -13354,8 +15261,8 @@
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A286" s="13">
-        <v>700852642</v>
+      <c r="A286" s="15" t="s">
+        <v>1185</v>
       </c>
       <c r="B286" s="9">
         <v>70</v>
@@ -13388,8 +15295,8 @@
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A287" s="13">
-        <v>700852733</v>
+      <c r="A287" s="15" t="s">
+        <v>1186</v>
       </c>
       <c r="B287" s="9">
         <v>70</v>
@@ -13422,8 +15329,8 @@
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="13">
-        <v>700852734</v>
+      <c r="A288" s="15" t="s">
+        <v>1187</v>
       </c>
       <c r="B288" s="9">
         <v>70</v>
@@ -13456,8 +15363,8 @@
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A289" s="13">
-        <v>700852736</v>
+      <c r="A289" s="15" t="s">
+        <v>1188</v>
       </c>
       <c r="B289" s="9">
         <v>70</v>
@@ -13490,8 +15397,8 @@
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A290" s="13">
-        <v>700852740</v>
+      <c r="A290" s="15" t="s">
+        <v>1189</v>
       </c>
       <c r="B290" s="9">
         <v>70</v>
@@ -13524,8 +15431,8 @@
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A291" s="13">
-        <v>700852741</v>
+      <c r="A291" s="15" t="s">
+        <v>1190</v>
       </c>
       <c r="B291" s="9">
         <v>70</v>
@@ -13558,8 +15465,8 @@
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A292" s="13">
-        <v>700852768</v>
+      <c r="A292" s="15" t="s">
+        <v>1191</v>
       </c>
       <c r="B292" s="9">
         <v>70</v>
@@ -13592,8 +15499,8 @@
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A293" s="13">
-        <v>700852775</v>
+      <c r="A293" s="15" t="s">
+        <v>1192</v>
       </c>
       <c r="B293" s="9">
         <v>70</v>
@@ -13626,8 +15533,8 @@
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A294" s="13">
-        <v>700852776</v>
+      <c r="A294" s="15" t="s">
+        <v>1193</v>
       </c>
       <c r="B294" s="9">
         <v>70</v>
@@ -13660,8 +15567,8 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A295" s="13">
-        <v>700852779</v>
+      <c r="A295" s="15" t="s">
+        <v>1194</v>
       </c>
       <c r="B295" s="9">
         <v>70</v>
@@ -13694,8 +15601,8 @@
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A296" s="13">
-        <v>700852780</v>
+      <c r="A296" s="15" t="s">
+        <v>1195</v>
       </c>
       <c r="B296" s="9">
         <v>70</v>
@@ -13728,8 +15635,8 @@
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A297" s="13">
-        <v>700852781</v>
+      <c r="A297" s="15" t="s">
+        <v>1196</v>
       </c>
       <c r="B297" s="9">
         <v>70</v>
@@ -13762,8 +15669,8 @@
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A298" s="13">
-        <v>700852796</v>
+      <c r="A298" s="15" t="s">
+        <v>1197</v>
       </c>
       <c r="B298" s="9">
         <v>70</v>
@@ -13796,8 +15703,8 @@
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A299" s="13">
-        <v>700852797</v>
+      <c r="A299" s="15" t="s">
+        <v>1198</v>
       </c>
       <c r="B299" s="9">
         <v>70</v>
@@ -13830,8 +15737,8 @@
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A300" s="13">
-        <v>700852798</v>
+      <c r="A300" s="15" t="s">
+        <v>1199</v>
       </c>
       <c r="B300" s="9">
         <v>70</v>
@@ -13864,8 +15771,8 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="13">
-        <v>700852816</v>
+      <c r="A301" s="15" t="s">
+        <v>1200</v>
       </c>
       <c r="B301" s="9">
         <v>70</v>
@@ -13898,8 +15805,8 @@
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A302" s="13">
-        <v>700852821</v>
+      <c r="A302" s="15" t="s">
+        <v>1201</v>
       </c>
       <c r="B302" s="9">
         <v>70</v>
@@ -13932,8 +15839,8 @@
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A303" s="13">
-        <v>700852883</v>
+      <c r="A303" s="15" t="s">
+        <v>1202</v>
       </c>
       <c r="B303" s="9">
         <v>70</v>
@@ -13966,8 +15873,8 @@
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A304" s="13">
-        <v>700852957</v>
+      <c r="A304" s="15" t="s">
+        <v>1203</v>
       </c>
       <c r="B304" s="9">
         <v>70</v>
@@ -14000,8 +15907,8 @@
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A305" s="13">
-        <v>700853024</v>
+      <c r="A305" s="15" t="s">
+        <v>1204</v>
       </c>
       <c r="B305" s="9">
         <v>70</v>
@@ -14034,8 +15941,8 @@
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A306" s="13">
-        <v>700853026</v>
+      <c r="A306" s="15" t="s">
+        <v>1205</v>
       </c>
       <c r="B306" s="9">
         <v>70</v>
@@ -14068,8 +15975,8 @@
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A307" s="13">
-        <v>700853027</v>
+      <c r="A307" s="15" t="s">
+        <v>1206</v>
       </c>
       <c r="B307" s="9">
         <v>70</v>
@@ -14102,8 +16009,8 @@
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A308" s="13">
-        <v>700853028</v>
+      <c r="A308" s="15" t="s">
+        <v>1207</v>
       </c>
       <c r="B308" s="9">
         <v>70</v>
@@ -14136,8 +16043,8 @@
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A309" s="13">
-        <v>700853029</v>
+      <c r="A309" s="15" t="s">
+        <v>1208</v>
       </c>
       <c r="B309" s="9">
         <v>70</v>
@@ -14170,8 +16077,8 @@
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A310" s="13">
-        <v>700853033</v>
+      <c r="A310" s="15" t="s">
+        <v>1209</v>
       </c>
       <c r="B310" s="9">
         <v>70</v>
@@ -14204,8 +16111,8 @@
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A311" s="13">
-        <v>700853380</v>
+      <c r="A311" s="15" t="s">
+        <v>1210</v>
       </c>
       <c r="B311" s="9">
         <v>70</v>
@@ -14238,8 +16145,8 @@
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A312" s="13">
-        <v>700853388</v>
+      <c r="A312" s="15" t="s">
+        <v>1211</v>
       </c>
       <c r="B312" s="9">
         <v>70</v>
@@ -14272,8 +16179,8 @@
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A313" s="13">
-        <v>700853389</v>
+      <c r="A313" s="15" t="s">
+        <v>1212</v>
       </c>
       <c r="B313" s="9">
         <v>70</v>
@@ -14306,8 +16213,8 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="13">
-        <v>700853417</v>
+      <c r="A314" s="15" t="s">
+        <v>1213</v>
       </c>
       <c r="B314" s="9">
         <v>70</v>
@@ -14340,8 +16247,8 @@
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A315" s="13">
-        <v>700853458</v>
+      <c r="A315" s="15" t="s">
+        <v>1214</v>
       </c>
       <c r="B315" s="9">
         <v>70</v>
@@ -14374,8 +16281,8 @@
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A316" s="13">
-        <v>700853459</v>
+      <c r="A316" s="15" t="s">
+        <v>1215</v>
       </c>
       <c r="B316" s="9">
         <v>70</v>
@@ -14408,8 +16315,8 @@
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A317" s="13">
-        <v>700853487</v>
+      <c r="A317" s="15" t="s">
+        <v>1216</v>
       </c>
       <c r="B317" s="9">
         <v>70</v>
@@ -14442,8 +16349,8 @@
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A318" s="13">
-        <v>700853697</v>
+      <c r="A318" s="15" t="s">
+        <v>1217</v>
       </c>
       <c r="B318" s="9">
         <v>70</v>
@@ -14476,8 +16383,8 @@
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A319" s="13">
-        <v>700853706</v>
+      <c r="A319" s="15" t="s">
+        <v>1218</v>
       </c>
       <c r="B319" s="9">
         <v>70</v>
@@ -14510,8 +16417,8 @@
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A320" s="13">
-        <v>700853779</v>
+      <c r="A320" s="15" t="s">
+        <v>1219</v>
       </c>
       <c r="B320" s="9">
         <v>70</v>
@@ -14544,8 +16451,8 @@
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A321" s="13">
-        <v>700853867</v>
+      <c r="A321" s="15" t="s">
+        <v>1220</v>
       </c>
       <c r="B321" s="9">
         <v>70</v>
@@ -14578,8 +16485,8 @@
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A322" s="13">
-        <v>700854016</v>
+      <c r="A322" s="15" t="s">
+        <v>1221</v>
       </c>
       <c r="B322" s="9">
         <v>70</v>
@@ -14612,8 +16519,8 @@
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A323" s="13">
-        <v>700854463</v>
+      <c r="A323" s="15" t="s">
+        <v>1222</v>
       </c>
       <c r="B323" s="9">
         <v>70</v>
@@ -14646,8 +16553,8 @@
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A324" s="13">
-        <v>700900001</v>
+      <c r="A324" s="15" t="s">
+        <v>1223</v>
       </c>
       <c r="B324" s="9">
         <v>70</v>
@@ -14680,8 +16587,8 @@
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A325" s="13">
-        <v>700950012</v>
+      <c r="A325" s="15" t="s">
+        <v>1224</v>
       </c>
       <c r="B325" s="9">
         <v>70</v>
@@ -14714,8 +16621,8 @@
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A326" s="13">
-        <v>700950054</v>
+      <c r="A326" s="15" t="s">
+        <v>1225</v>
       </c>
       <c r="B326" s="9">
         <v>70</v>
@@ -14748,8 +16655,8 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="13">
-        <v>700950085</v>
+      <c r="A327" s="15" t="s">
+        <v>1226</v>
       </c>
       <c r="B327" s="9">
         <v>70</v>
@@ -14782,8 +16689,8 @@
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A328" s="13">
-        <v>700950215</v>
+      <c r="A328" s="15" t="s">
+        <v>1227</v>
       </c>
       <c r="B328" s="9">
         <v>70</v>
@@ -14816,8 +16723,8 @@
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A329" s="13">
-        <v>700950222</v>
+      <c r="A329" s="15" t="s">
+        <v>1228</v>
       </c>
       <c r="B329" s="9">
         <v>70</v>
@@ -14850,8 +16757,8 @@
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A330" s="13">
-        <v>700950233</v>
+      <c r="A330" s="15" t="s">
+        <v>1229</v>
       </c>
       <c r="B330" s="9">
         <v>70</v>
@@ -14884,8 +16791,8 @@
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A331" s="13">
-        <v>700950286</v>
+      <c r="A331" s="15" t="s">
+        <v>1230</v>
       </c>
       <c r="B331" s="9">
         <v>70</v>
@@ -14918,8 +16825,8 @@
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A332" s="13">
-        <v>700950358</v>
+      <c r="A332" s="15" t="s">
+        <v>1231</v>
       </c>
       <c r="B332" s="9">
         <v>70</v>
@@ -14952,8 +16859,8 @@
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A333" s="13">
-        <v>700950403</v>
+      <c r="A333" s="15" t="s">
+        <v>1232</v>
       </c>
       <c r="B333" s="9">
         <v>70</v>
@@ -14986,8 +16893,8 @@
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A334" s="13">
-        <v>700950468</v>
+      <c r="A334" s="15" t="s">
+        <v>1233</v>
       </c>
       <c r="B334" s="9">
         <v>70</v>
@@ -15020,8 +16927,8 @@
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A335" s="13">
-        <v>700950469</v>
+      <c r="A335" s="15" t="s">
+        <v>1234</v>
       </c>
       <c r="B335" s="9">
         <v>70</v>
@@ -15054,8 +16961,8 @@
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A336" s="13">
-        <v>700950501</v>
+      <c r="A336" s="15" t="s">
+        <v>1235</v>
       </c>
       <c r="B336" s="9">
         <v>70</v>
@@ -15088,8 +16995,8 @@
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A337" s="13">
-        <v>701000001</v>
+      <c r="A337" s="15" t="s">
+        <v>1236</v>
       </c>
       <c r="B337" s="9">
         <v>70</v>
@@ -15122,8 +17029,8 @@
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A338" s="13">
-        <v>701000051</v>
+      <c r="A338" s="15" t="s">
+        <v>1237</v>
       </c>
       <c r="B338" s="9">
         <v>70</v>
@@ -15156,8 +17063,8 @@
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A339" s="13">
-        <v>701000109</v>
+      <c r="A339" s="15" t="s">
+        <v>1238</v>
       </c>
       <c r="B339" s="9">
         <v>70</v>
@@ -15190,8 +17097,8 @@
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A340" s="13">
-        <v>701000266</v>
+      <c r="A340" s="15" t="s">
+        <v>1239</v>
       </c>
       <c r="B340" s="9">
         <v>70</v>
@@ -15224,8 +17131,8 @@
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A341" s="13">
-        <v>701050012</v>
+      <c r="A341" s="15" t="s">
+        <v>1240</v>
       </c>
       <c r="B341" s="9">
         <v>70</v>
@@ -15258,8 +17165,8 @@
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A342" s="13">
-        <v>701050013</v>
+      <c r="A342" s="15" t="s">
+        <v>1241</v>
       </c>
       <c r="B342" s="9">
         <v>70</v>
@@ -15292,8 +17199,8 @@
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A343" s="13">
-        <v>701050074</v>
+      <c r="A343" s="15" t="s">
+        <v>1242</v>
       </c>
       <c r="B343" s="9">
         <v>70</v>
@@ -15326,8 +17233,8 @@
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A344" s="13">
-        <v>701050125</v>
+      <c r="A344" s="15" t="s">
+        <v>1243</v>
       </c>
       <c r="B344" s="9">
         <v>70</v>
@@ -15360,8 +17267,8 @@
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A345" s="13">
-        <v>701050132</v>
+      <c r="A345" s="15" t="s">
+        <v>1244</v>
       </c>
       <c r="B345" s="9">
         <v>70</v>
@@ -15394,8 +17301,8 @@
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A346" s="13">
-        <v>701050172</v>
+      <c r="A346" s="15" t="s">
+        <v>1245</v>
       </c>
       <c r="B346" s="9">
         <v>70</v>
@@ -15428,8 +17335,8 @@
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A347" s="13">
-        <v>701050177</v>
+      <c r="A347" s="15" t="s">
+        <v>1246</v>
       </c>
       <c r="B347" s="9">
         <v>70</v>
@@ -15462,8 +17369,8 @@
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A348" s="13">
-        <v>701050213</v>
+      <c r="A348" s="15" t="s">
+        <v>1247</v>
       </c>
       <c r="B348" s="9">
         <v>70</v>
@@ -15496,8 +17403,8 @@
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A349" s="13">
-        <v>701050223</v>
+      <c r="A349" s="15" t="s">
+        <v>1248</v>
       </c>
       <c r="B349" s="9">
         <v>70</v>
@@ -15530,8 +17437,8 @@
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A350" s="13">
-        <v>701050259</v>
+      <c r="A350" s="15" t="s">
+        <v>1249</v>
       </c>
       <c r="B350" s="9">
         <v>70</v>
@@ -15564,8 +17471,8 @@
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A351" s="13">
-        <v>701050263</v>
+      <c r="A351" s="15" t="s">
+        <v>1250</v>
       </c>
       <c r="B351" s="9">
         <v>70</v>
@@ -15598,8 +17505,8 @@
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A352" s="13">
-        <v>701050267</v>
+      <c r="A352" s="15" t="s">
+        <v>1251</v>
       </c>
       <c r="B352" s="9">
         <v>70</v>
@@ -15632,8 +17539,8 @@
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="13">
-        <v>701050279</v>
+      <c r="A353" s="15" t="s">
+        <v>1252</v>
       </c>
       <c r="B353" s="9">
         <v>70</v>
@@ -15666,8 +17573,8 @@
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A354" s="13">
-        <v>701100051</v>
+      <c r="A354" s="15" t="s">
+        <v>1253</v>
       </c>
       <c r="B354" s="9">
         <v>70</v>
@@ -15700,8 +17607,8 @@
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A355" s="13">
-        <v>701100064</v>
+      <c r="A355" s="15" t="s">
+        <v>1254</v>
       </c>
       <c r="B355" s="9">
         <v>70</v>
@@ -15734,8 +17641,8 @@
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A356" s="13">
-        <v>701100066</v>
+      <c r="A356" s="15" t="s">
+        <v>1255</v>
       </c>
       <c r="B356" s="9">
         <v>70</v>
@@ -15768,8 +17675,8 @@
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A357" s="13">
-        <v>701150025</v>
+      <c r="A357" s="15" t="s">
+        <v>1256</v>
       </c>
       <c r="B357" s="9">
         <v>70</v>
@@ -15802,8 +17709,8 @@
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A358" s="13">
-        <v>701150026</v>
+      <c r="A358" s="15" t="s">
+        <v>1257</v>
       </c>
       <c r="B358" s="9">
         <v>70</v>
@@ -15836,8 +17743,8 @@
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A359" s="13">
-        <v>701150028</v>
+      <c r="A359" s="15" t="s">
+        <v>1258</v>
       </c>
       <c r="B359" s="9">
         <v>70</v>
@@ -15870,8 +17777,8 @@
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A360" s="13">
-        <v>701150029</v>
+      <c r="A360" s="15" t="s">
+        <v>1259</v>
       </c>
       <c r="B360" s="9">
         <v>70</v>
@@ -15904,8 +17811,8 @@
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A361" s="13">
-        <v>701150066</v>
+      <c r="A361" s="15" t="s">
+        <v>1260</v>
       </c>
       <c r="B361" s="9">
         <v>70</v>
@@ -15938,8 +17845,8 @@
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A362" s="13">
-        <v>701150069</v>
+      <c r="A362" s="15" t="s">
+        <v>1261</v>
       </c>
       <c r="B362" s="9">
         <v>70</v>
@@ -15972,8 +17879,8 @@
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A363" s="13">
-        <v>701150091</v>
+      <c r="A363" s="15" t="s">
+        <v>1262</v>
       </c>
       <c r="B363" s="9">
         <v>70</v>
@@ -16006,8 +17913,8 @@
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A364" s="13">
-        <v>701150093</v>
+      <c r="A364" s="15" t="s">
+        <v>1263</v>
       </c>
       <c r="B364" s="9">
         <v>70</v>
@@ -16040,8 +17947,8 @@
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A365" s="13">
-        <v>701150098</v>
+      <c r="A365" s="15" t="s">
+        <v>1264</v>
       </c>
       <c r="B365" s="9">
         <v>70</v>
@@ -16074,8 +17981,8 @@
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A366" s="13">
-        <v>701150103</v>
+      <c r="A366" s="15" t="s">
+        <v>1265</v>
       </c>
       <c r="B366" s="9">
         <v>70</v>
@@ -16108,8 +18015,8 @@
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A367" s="13">
-        <v>701150113</v>
+      <c r="A367" s="15" t="s">
+        <v>1266</v>
       </c>
       <c r="B367" s="9">
         <v>70</v>
@@ -16142,8 +18049,8 @@
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A368" s="13">
-        <v>701150138</v>
+      <c r="A368" s="15" t="s">
+        <v>1267</v>
       </c>
       <c r="B368" s="9">
         <v>70</v>
@@ -16176,8 +18083,8 @@
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A369" s="13">
-        <v>701150140</v>
+      <c r="A369" s="15" t="s">
+        <v>1268</v>
       </c>
       <c r="B369" s="9">
         <v>70</v>
@@ -16210,8 +18117,8 @@
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A370" s="13">
-        <v>701150219</v>
+      <c r="A370" s="15" t="s">
+        <v>1269</v>
       </c>
       <c r="B370" s="9">
         <v>70</v>
@@ -16244,8 +18151,8 @@
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A371" s="13">
-        <v>701200016</v>
+      <c r="A371" s="15" t="s">
+        <v>1270</v>
       </c>
       <c r="B371" s="9">
         <v>70</v>
@@ -16278,8 +18185,8 @@
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A372" s="13">
-        <v>701200036</v>
+      <c r="A372" s="15" t="s">
+        <v>1271</v>
       </c>
       <c r="B372" s="9">
         <v>70</v>
@@ -16312,8 +18219,8 @@
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A373" s="13">
-        <v>701200047</v>
+      <c r="A373" s="15" t="s">
+        <v>1272</v>
       </c>
       <c r="B373" s="9">
         <v>70</v>
@@ -16346,8 +18253,8 @@
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A374" s="13">
-        <v>701200048</v>
+      <c r="A374" s="15" t="s">
+        <v>1273</v>
       </c>
       <c r="B374" s="9">
         <v>70</v>
@@ -16380,8 +18287,8 @@
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A375" s="13">
-        <v>701200056</v>
+      <c r="A375" s="15" t="s">
+        <v>1274</v>
       </c>
       <c r="B375" s="9">
         <v>70</v>
@@ -16414,8 +18321,8 @@
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A376" s="13">
-        <v>701250011</v>
+      <c r="A376" s="15" t="s">
+        <v>1275</v>
       </c>
       <c r="B376" s="9">
         <v>70</v>
@@ -16448,8 +18355,8 @@
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A377" s="13">
-        <v>701250015</v>
+      <c r="A377" s="15" t="s">
+        <v>1276</v>
       </c>
       <c r="B377" s="9">
         <v>70</v>
@@ -16482,8 +18389,8 @@
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A378" s="13">
-        <v>701250016</v>
+      <c r="A378" s="15" t="s">
+        <v>1277</v>
       </c>
       <c r="B378" s="9">
         <v>70</v>
@@ -16516,8 +18423,8 @@
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A379" s="13">
-        <v>701250021</v>
+      <c r="A379" s="15" t="s">
+        <v>1278</v>
       </c>
       <c r="B379" s="9">
         <v>70</v>
@@ -16550,8 +18457,8 @@
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A380" s="13">
-        <v>701250029</v>
+      <c r="A380" s="15" t="s">
+        <v>1279</v>
       </c>
       <c r="B380" s="9">
         <v>70</v>
@@ -16584,8 +18491,8 @@
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A381" s="13">
-        <v>701250048</v>
+      <c r="A381" s="15" t="s">
+        <v>1280</v>
       </c>
       <c r="B381" s="9">
         <v>70</v>
@@ -16618,8 +18525,8 @@
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A382" s="13">
-        <v>701250053</v>
+      <c r="A382" s="15" t="s">
+        <v>1281</v>
       </c>
       <c r="B382" s="9">
         <v>70</v>
@@ -16652,8 +18559,8 @@
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A383" s="13">
-        <v>701250055</v>
+      <c r="A383" s="15" t="s">
+        <v>1282</v>
       </c>
       <c r="B383" s="9">
         <v>70</v>
@@ -16686,8 +18593,8 @@
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A384" s="13">
-        <v>701250057</v>
+      <c r="A384" s="15" t="s">
+        <v>1283</v>
       </c>
       <c r="B384" s="9">
         <v>70</v>
@@ -16720,8 +18627,8 @@
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A385" s="13">
-        <v>701250061</v>
+      <c r="A385" s="15" t="s">
+        <v>1284</v>
       </c>
       <c r="B385" s="9">
         <v>70</v>
@@ -16754,8 +18661,8 @@
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A386" s="13">
-        <v>701250062</v>
+      <c r="A386" s="15" t="s">
+        <v>1285</v>
       </c>
       <c r="B386" s="9">
         <v>70</v>
@@ -16788,8 +18695,8 @@
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A387" s="13">
-        <v>701250065</v>
+      <c r="A387" s="15" t="s">
+        <v>1286</v>
       </c>
       <c r="B387" s="9">
         <v>70</v>
@@ -16822,8 +18729,8 @@
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A388" s="13">
-        <v>701250075</v>
+      <c r="A388" s="15" t="s">
+        <v>1287</v>
       </c>
       <c r="B388" s="9">
         <v>70</v>
@@ -16856,8 +18763,8 @@
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A389" s="13">
-        <v>701250076</v>
+      <c r="A389" s="15" t="s">
+        <v>1288</v>
       </c>
       <c r="B389" s="9">
         <v>70</v>
@@ -16890,8 +18797,8 @@
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A390" s="13">
-        <v>701250091</v>
+      <c r="A390" s="15" t="s">
+        <v>1289</v>
       </c>
       <c r="B390" s="9">
         <v>70</v>
@@ -16924,8 +18831,8 @@
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A391" s="13">
-        <v>701250092</v>
+      <c r="A391" s="15" t="s">
+        <v>1290</v>
       </c>
       <c r="B391" s="9">
         <v>70</v>
@@ -16958,8 +18865,8 @@
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A392" s="13">
-        <v>701250094</v>
+      <c r="A392" s="15" t="s">
+        <v>1291</v>
       </c>
       <c r="B392" s="9">
         <v>70</v>
@@ -16992,8 +18899,8 @@
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A393" s="13">
-        <v>701250101</v>
+      <c r="A393" s="15" t="s">
+        <v>1292</v>
       </c>
       <c r="B393" s="9">
         <v>70</v>
@@ -17026,8 +18933,8 @@
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A394" s="13">
-        <v>701250107</v>
+      <c r="A394" s="15" t="s">
+        <v>1293</v>
       </c>
       <c r="B394" s="9">
         <v>70</v>
@@ -17060,8 +18967,8 @@
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A395" s="13">
-        <v>701250111</v>
+      <c r="A395" s="15" t="s">
+        <v>1294</v>
       </c>
       <c r="B395" s="9">
         <v>70</v>
@@ -17094,8 +19001,8 @@
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A396" s="13">
-        <v>701250120</v>
+      <c r="A396" s="15" t="s">
+        <v>1295</v>
       </c>
       <c r="B396" s="9">
         <v>70</v>
@@ -17128,8 +19035,8 @@
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A397" s="13">
-        <v>701250148</v>
+      <c r="A397" s="15" t="s">
+        <v>1296</v>
       </c>
       <c r="B397" s="9">
         <v>70</v>
@@ -17162,8 +19069,8 @@
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A398" s="13">
-        <v>701250152</v>
+      <c r="A398" s="15" t="s">
+        <v>1297</v>
       </c>
       <c r="B398" s="9">
         <v>70</v>
@@ -17196,8 +19103,8 @@
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A399" s="13">
-        <v>701250156</v>
+      <c r="A399" s="15" t="s">
+        <v>1298</v>
       </c>
       <c r="B399" s="9">
         <v>70</v>
@@ -17230,8 +19137,8 @@
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A400" s="13">
-        <v>701250163</v>
+      <c r="A400" s="15" t="s">
+        <v>1299</v>
       </c>
       <c r="B400" s="9">
         <v>70</v>
@@ -17264,8 +19171,8 @@
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A401" s="13">
-        <v>701250166</v>
+      <c r="A401" s="15" t="s">
+        <v>1300</v>
       </c>
       <c r="B401" s="9">
         <v>70</v>
@@ -17298,8 +19205,8 @@
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A402" s="13">
-        <v>701250168</v>
+      <c r="A402" s="15" t="s">
+        <v>1301</v>
       </c>
       <c r="B402" s="9">
         <v>70</v>
@@ -17332,8 +19239,8 @@
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A403" s="13">
-        <v>701250171</v>
+      <c r="A403" s="15" t="s">
+        <v>1302</v>
       </c>
       <c r="B403" s="9">
         <v>70</v>
@@ -17366,8 +19273,8 @@
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A404" s="13">
-        <v>701250172</v>
+      <c r="A404" s="15" t="s">
+        <v>1303</v>
       </c>
       <c r="B404" s="9">
         <v>70</v>
@@ -17400,8 +19307,8 @@
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A405" s="13">
-        <v>701250175</v>
+      <c r="A405" s="15" t="s">
+        <v>1304</v>
       </c>
       <c r="B405" s="9">
         <v>70</v>
@@ -17434,8 +19341,8 @@
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A406" s="13">
-        <v>701250192</v>
+      <c r="A406" s="15" t="s">
+        <v>1305</v>
       </c>
       <c r="B406" s="9">
         <v>70</v>
@@ -17468,8 +19375,8 @@
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A407" s="13">
-        <v>701250194</v>
+      <c r="A407" s="15" t="s">
+        <v>1306</v>
       </c>
       <c r="B407" s="9">
         <v>70</v>
@@ -17502,8 +19409,8 @@
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A408" s="13">
-        <v>701250196</v>
+      <c r="A408" s="15" t="s">
+        <v>1307</v>
       </c>
       <c r="B408" s="9">
         <v>70</v>
@@ -17536,8 +19443,8 @@
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A409" s="13">
-        <v>701250198</v>
+      <c r="A409" s="15" t="s">
+        <v>1308</v>
       </c>
       <c r="B409" s="9">
         <v>70</v>
@@ -17570,8 +19477,8 @@
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A410" s="13">
-        <v>701250204</v>
+      <c r="A410" s="15" t="s">
+        <v>1309</v>
       </c>
       <c r="B410" s="9">
         <v>70</v>
@@ -17604,8 +19511,8 @@
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A411" s="13">
-        <v>701250210</v>
+      <c r="A411" s="15" t="s">
+        <v>1310</v>
       </c>
       <c r="B411" s="9">
         <v>70</v>
@@ -17638,8 +19545,8 @@
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A412" s="13">
-        <v>701250214</v>
+      <c r="A412" s="15" t="s">
+        <v>1311</v>
       </c>
       <c r="B412" s="9">
         <v>70</v>
@@ -17672,8 +19579,8 @@
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A413" s="13">
-        <v>701250215</v>
+      <c r="A413" s="15" t="s">
+        <v>1312</v>
       </c>
       <c r="B413" s="9">
         <v>70</v>
@@ -17706,8 +19613,8 @@
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A414" s="13">
-        <v>701250219</v>
+      <c r="A414" s="15" t="s">
+        <v>1313</v>
       </c>
       <c r="B414" s="9">
         <v>70</v>
@@ -17740,8 +19647,8 @@
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A415" s="13">
-        <v>701250226</v>
+      <c r="A415" s="15" t="s">
+        <v>1314</v>
       </c>
       <c r="B415" s="9">
         <v>70</v>
@@ -17774,8 +19681,8 @@
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A416" s="13">
-        <v>701250230</v>
+      <c r="A416" s="15" t="s">
+        <v>1315</v>
       </c>
       <c r="B416" s="9">
         <v>70</v>
@@ -17808,8 +19715,8 @@
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A417" s="13">
-        <v>701250278</v>
+      <c r="A417" s="15" t="s">
+        <v>1316</v>
       </c>
       <c r="B417" s="9">
         <v>70</v>
@@ -17842,8 +19749,8 @@
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A418" s="13">
-        <v>701250407</v>
+      <c r="A418" s="15" t="s">
+        <v>1317</v>
       </c>
       <c r="B418" s="9">
         <v>70</v>
@@ -17876,8 +19783,8 @@
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A419" s="13">
-        <v>701250416</v>
+      <c r="A419" s="15" t="s">
+        <v>1318</v>
       </c>
       <c r="B419" s="9">
         <v>70</v>
@@ -17910,8 +19817,8 @@
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A420" s="13">
-        <v>701250449</v>
+      <c r="A420" s="15" t="s">
+        <v>1319</v>
       </c>
       <c r="B420" s="9">
         <v>70</v>
@@ -17944,8 +19851,8 @@
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A421" s="13">
-        <v>701250462</v>
+      <c r="A421" s="15" t="s">
+        <v>1320</v>
       </c>
       <c r="B421" s="9">
         <v>70</v>
@@ -17978,8 +19885,8 @@
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A422" s="13">
-        <v>701250464</v>
+      <c r="A422" s="15" t="s">
+        <v>1321</v>
       </c>
       <c r="B422" s="9">
         <v>70</v>
@@ -18012,8 +19919,8 @@
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A423" s="13">
-        <v>701250465</v>
+      <c r="A423" s="15" t="s">
+        <v>1322</v>
       </c>
       <c r="B423" s="9">
         <v>70</v>
@@ -18046,8 +19953,8 @@
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A424" s="13">
-        <v>701250467</v>
+      <c r="A424" s="15" t="s">
+        <v>1323</v>
       </c>
       <c r="B424" s="9">
         <v>70</v>
@@ -18080,8 +19987,8 @@
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A425" s="13">
-        <v>701250524</v>
+      <c r="A425" s="15" t="s">
+        <v>1324</v>
       </c>
       <c r="B425" s="9">
         <v>70</v>
@@ -18114,8 +20021,8 @@
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A426" s="13">
-        <v>701250578</v>
+      <c r="A426" s="15" t="s">
+        <v>1325</v>
       </c>
       <c r="B426" s="9">
         <v>70</v>
@@ -18148,8 +20055,8 @@
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A427" s="13">
-        <v>701250593</v>
+      <c r="A427" s="15" t="s">
+        <v>1326</v>
       </c>
       <c r="B427" s="9">
         <v>70</v>
@@ -18182,8 +20089,8 @@
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A428" s="13">
-        <v>701250612</v>
+      <c r="A428" s="15" t="s">
+        <v>1327</v>
       </c>
       <c r="B428" s="9">
         <v>70</v>
@@ -18216,8 +20123,8 @@
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A429" s="13">
-        <v>701250906</v>
+      <c r="A429" s="15" t="s">
+        <v>1328</v>
       </c>
       <c r="B429" s="9">
         <v>70</v>
@@ -18250,8 +20157,8 @@
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A430" s="13">
-        <v>701250907</v>
+      <c r="A430" s="15" t="s">
+        <v>1329</v>
       </c>
       <c r="B430" s="9">
         <v>70</v>
@@ -18284,8 +20191,8 @@
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A431" s="13">
-        <v>701450034</v>
+      <c r="A431" s="15" t="s">
+        <v>1330</v>
       </c>
       <c r="B431" s="9">
         <v>70</v>
@@ -18318,8 +20225,8 @@
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A432" s="13">
-        <v>701450071</v>
+      <c r="A432" s="15" t="s">
+        <v>1331</v>
       </c>
       <c r="B432" s="9">
         <v>70</v>
@@ -18352,8 +20259,8 @@
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A433" s="13">
-        <v>701450271</v>
+      <c r="A433" s="15" t="s">
+        <v>1332</v>
       </c>
       <c r="B433" s="9">
         <v>70</v>
@@ -18386,8 +20293,8 @@
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A434" s="13">
-        <v>701500014</v>
+      <c r="A434" s="15" t="s">
+        <v>1333</v>
       </c>
       <c r="B434" s="9">
         <v>70</v>
@@ -18420,8 +20327,8 @@
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A435" s="13">
-        <v>701550005</v>
+      <c r="A435" s="15" t="s">
+        <v>1334</v>
       </c>
       <c r="B435" s="9">
         <v>70</v>
@@ -18454,8 +20361,8 @@
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A436" s="13">
-        <v>701650010</v>
+      <c r="A436" s="15" t="s">
+        <v>1335</v>
       </c>
       <c r="B436" s="9">
         <v>70</v>
@@ -18488,8 +20395,8 @@
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A437" s="13">
-        <v>701650017</v>
+      <c r="A437" s="15" t="s">
+        <v>1336</v>
       </c>
       <c r="B437" s="9">
         <v>70</v>
@@ -18522,8 +20429,8 @@
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A438" s="13">
-        <v>701650030</v>
+      <c r="A438" s="15" t="s">
+        <v>1337</v>
       </c>
       <c r="B438" s="9">
         <v>70</v>
@@ -18556,8 +20463,8 @@
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A439" s="13">
-        <v>701650078</v>
+      <c r="A439" s="15" t="s">
+        <v>1338</v>
       </c>
       <c r="B439" s="9">
         <v>70</v>
@@ -18590,8 +20497,8 @@
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A440" s="13">
-        <v>701650114</v>
+      <c r="A440" s="15" t="s">
+        <v>1339</v>
       </c>
       <c r="B440" s="9">
         <v>70</v>
@@ -18624,8 +20531,8 @@
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A441" s="13">
-        <v>701800037</v>
+      <c r="A441" s="15" t="s">
+        <v>1340</v>
       </c>
       <c r="B441" s="9">
         <v>70</v>
@@ -18658,8 +20565,8 @@
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A442" s="13">
-        <v>701800090</v>
+      <c r="A442" s="15" t="s">
+        <v>1341</v>
       </c>
       <c r="B442" s="9">
         <v>70</v>
@@ -18692,8 +20599,8 @@
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A443" s="13">
-        <v>701800124</v>
+      <c r="A443" s="15" t="s">
+        <v>1342</v>
       </c>
       <c r="B443" s="9">
         <v>70</v>
@@ -18726,8 +20633,8 @@
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A444" s="13">
-        <v>701800129</v>
+      <c r="A444" s="15" t="s">
+        <v>1343</v>
       </c>
       <c r="B444" s="9">
         <v>70</v>
@@ -18760,8 +20667,8 @@
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A445" s="13">
-        <v>701900055</v>
+      <c r="A445" s="15" t="s">
+        <v>1344</v>
       </c>
       <c r="B445" s="9">
         <v>70</v>
@@ -18794,8 +20701,8 @@
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A446" s="13">
-        <v>701900060</v>
+      <c r="A446" s="15" t="s">
+        <v>1345</v>
       </c>
       <c r="B446" s="9">
         <v>70</v>
@@ -18828,8 +20735,8 @@
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A447" s="13">
-        <v>701900063</v>
+      <c r="A447" s="15" t="s">
+        <v>1346</v>
       </c>
       <c r="B447" s="9">
         <v>70</v>
@@ -18862,8 +20769,8 @@
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A448" s="13">
-        <v>701900064</v>
+      <c r="A448" s="15" t="s">
+        <v>1347</v>
       </c>
       <c r="B448" s="9">
         <v>70</v>
@@ -18896,8 +20803,8 @@
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A449" s="13">
-        <v>701900123</v>
+      <c r="A449" s="15" t="s">
+        <v>1348</v>
       </c>
       <c r="B449" s="9">
         <v>70</v>
@@ -18930,8 +20837,8 @@
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A450" s="13">
-        <v>701900156</v>
+      <c r="A450" s="15" t="s">
+        <v>1349</v>
       </c>
       <c r="B450" s="9">
         <v>70</v>
@@ -18964,8 +20871,8 @@
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A451" s="13">
-        <v>702000004</v>
+      <c r="A451" s="15" t="s">
+        <v>1350</v>
       </c>
       <c r="B451" s="9">
         <v>70</v>
@@ -18998,8 +20905,8 @@
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A452" s="13">
-        <v>702250009</v>
+      <c r="A452" s="15" t="s">
+        <v>1351</v>
       </c>
       <c r="B452" s="9">
         <v>70</v>
@@ -19032,8 +20939,8 @@
       </c>
     </row>
     <row r="453" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A453" s="13">
-        <v>702250012</v>
+      <c r="A453" s="15" t="s">
+        <v>1352</v>
       </c>
       <c r="B453" s="9">
         <v>70</v>
@@ -19066,8 +20973,8 @@
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A454" s="13">
-        <v>702250016</v>
+      <c r="A454" s="15" t="s">
+        <v>1353</v>
       </c>
       <c r="B454" s="9">
         <v>70</v>
@@ -19100,8 +21007,8 @@
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A455" s="13">
-        <v>702250018</v>
+      <c r="A455" s="15" t="s">
+        <v>1354</v>
       </c>
       <c r="B455" s="9">
         <v>70</v>
@@ -19134,8 +21041,8 @@
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A456" s="13">
-        <v>702250023</v>
+      <c r="A456" s="15" t="s">
+        <v>1355</v>
       </c>
       <c r="B456" s="9">
         <v>70</v>
@@ -19168,8 +21075,8 @@
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A457" s="13">
-        <v>702250037</v>
+      <c r="A457" s="15" t="s">
+        <v>1356</v>
       </c>
       <c r="B457" s="9">
         <v>70</v>
@@ -19202,8 +21109,8 @@
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A458" s="13">
-        <v>702250040</v>
+      <c r="A458" s="15" t="s">
+        <v>1357</v>
       </c>
       <c r="B458" s="9">
         <v>70</v>
@@ -19236,8 +21143,8 @@
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A459" s="13">
-        <v>702250043</v>
+      <c r="A459" s="15" t="s">
+        <v>1358</v>
       </c>
       <c r="B459" s="9">
         <v>70</v>
@@ -19270,8 +21177,8 @@
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A460" s="13">
-        <v>702250046</v>
+      <c r="A460" s="15" t="s">
+        <v>1359</v>
       </c>
       <c r="B460" s="9">
         <v>70</v>
@@ -19304,8 +21211,8 @@
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A461" s="13">
-        <v>702250047</v>
+      <c r="A461" s="15" t="s">
+        <v>1360</v>
       </c>
       <c r="B461" s="9">
         <v>70</v>
@@ -19338,8 +21245,8 @@
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A462" s="13">
-        <v>702250061</v>
+      <c r="A462" s="15" t="s">
+        <v>1361</v>
       </c>
       <c r="B462" s="9">
         <v>70</v>
@@ -19372,8 +21279,8 @@
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A463" s="13">
-        <v>702250107</v>
+      <c r="A463" s="15" t="s">
+        <v>1362</v>
       </c>
       <c r="B463" s="9">
         <v>70</v>
@@ -19406,8 +21313,8 @@
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A464" s="13">
-        <v>702250132</v>
+      <c r="A464" s="15" t="s">
+        <v>1363</v>
       </c>
       <c r="B464" s="9">
         <v>70</v>
@@ -19440,8 +21347,8 @@
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A465" s="13">
-        <v>702250133</v>
+      <c r="A465" s="15" t="s">
+        <v>1364</v>
       </c>
       <c r="B465" s="9">
         <v>70</v>
@@ -19474,8 +21381,8 @@
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A466" s="13">
-        <v>702250139</v>
+      <c r="A466" s="15" t="s">
+        <v>1365</v>
       </c>
       <c r="B466" s="9">
         <v>70</v>
@@ -19508,8 +21415,8 @@
       </c>
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A467" s="13">
-        <v>702250157</v>
+      <c r="A467" s="15" t="s">
+        <v>1366</v>
       </c>
       <c r="B467" s="9">
         <v>70</v>
@@ -19542,8 +21449,8 @@
       </c>
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A468" s="13">
-        <v>702250175</v>
+      <c r="A468" s="15" t="s">
+        <v>1367</v>
       </c>
       <c r="B468" s="9">
         <v>70</v>
@@ -19576,8 +21483,8 @@
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A469" s="13">
-        <v>702250180</v>
+      <c r="A469" s="15" t="s">
+        <v>1368</v>
       </c>
       <c r="B469" s="9">
         <v>70</v>
@@ -19610,8 +21517,8 @@
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A470" s="13">
-        <v>702250199</v>
+      <c r="A470" s="15" t="s">
+        <v>1369</v>
       </c>
       <c r="B470" s="9">
         <v>70</v>
@@ -19644,8 +21551,8 @@
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A471" s="13">
-        <v>800350433</v>
+      <c r="A471" s="15" t="s">
+        <v>1370</v>
       </c>
       <c r="B471" s="9">
         <v>80</v>
@@ -19678,8 +21585,8 @@
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A472" s="13">
-        <v>850650020</v>
+      <c r="A472" s="15" t="s">
+        <v>1371</v>
       </c>
       <c r="B472" s="9">
         <v>85</v>
@@ -19712,8 +21619,8 @@
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A473" s="13">
-        <v>850650023</v>
+      <c r="A473" s="15" t="s">
+        <v>1372</v>
       </c>
       <c r="B473" s="9">
         <v>85</v>
@@ -19746,8 +21653,8 @@
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A474" s="13">
-        <v>850650040</v>
+      <c r="A474" s="15" t="s">
+        <v>1373</v>
       </c>
       <c r="B474" s="9">
         <v>85</v>
@@ -19780,8 +21687,8 @@
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A475" s="13">
-        <v>850850203</v>
+      <c r="A475" s="15" t="s">
+        <v>1374</v>
       </c>
       <c r="B475" s="9">
         <v>85</v>
@@ -19814,8 +21721,8 @@
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A476" s="13">
-        <v>850850223</v>
+      <c r="A476" s="15" t="s">
+        <v>1375</v>
       </c>
       <c r="B476" s="9">
         <v>85</v>
@@ -19848,8 +21755,8 @@
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A477" s="13">
-        <v>850850441</v>
+      <c r="A477" s="15" t="s">
+        <v>1376</v>
       </c>
       <c r="B477" s="9">
         <v>85</v>
@@ -19882,8 +21789,8 @@
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A478" s="13">
-        <v>850850524</v>
+      <c r="A478" s="15" t="s">
+        <v>1377</v>
       </c>
       <c r="B478" s="9">
         <v>85</v>
@@ -19916,8 +21823,8 @@
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A479" s="13">
-        <v>851000015</v>
+      <c r="A479" s="15" t="s">
+        <v>1378</v>
       </c>
       <c r="B479" s="9">
         <v>85</v>
@@ -19950,8 +21857,8 @@
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A480" s="13">
-        <v>851150023</v>
+      <c r="A480" s="15" t="s">
+        <v>1379</v>
       </c>
       <c r="B480" s="9">
         <v>85</v>
@@ -19984,8 +21891,8 @@
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A481" s="13">
-        <v>851150041</v>
+      <c r="A481" s="15" t="s">
+        <v>1380</v>
       </c>
       <c r="B481" s="9">
         <v>85</v>
@@ -20018,8 +21925,8 @@
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A482" s="13">
-        <v>950050045</v>
+      <c r="A482" s="15" t="s">
+        <v>1381</v>
       </c>
       <c r="B482" s="9">
         <v>95</v>
@@ -20052,8 +21959,8 @@
       </c>
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A483" s="13">
-        <v>950050064</v>
+      <c r="A483" s="15" t="s">
+        <v>1382</v>
       </c>
       <c r="B483" s="9">
         <v>95</v>
@@ -20086,8 +21993,8 @@
       </c>
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A484" s="13">
-        <v>950150035</v>
+      <c r="A484" s="15" t="s">
+        <v>1383</v>
       </c>
       <c r="B484" s="9">
         <v>95</v>
@@ -20120,8 +22027,8 @@
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A485" s="13">
-        <v>950150047</v>
+      <c r="A485" s="15" t="s">
+        <v>1384</v>
       </c>
       <c r="B485" s="9">
         <v>95</v>
@@ -20154,8 +22061,8 @@
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A486" s="13">
-        <v>950150054</v>
+      <c r="A486" s="15" t="s">
+        <v>1385</v>
       </c>
       <c r="B486" s="9">
         <v>95</v>
@@ -20188,8 +22095,8 @@
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A487" s="13">
-        <v>950150175</v>
+      <c r="A487" s="15" t="s">
+        <v>1386</v>
       </c>
       <c r="B487" s="9">
         <v>95</v>
@@ -20222,8 +22129,8 @@
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A488" s="13">
-        <v>950150176</v>
+      <c r="A488" s="15" t="s">
+        <v>1387</v>
       </c>
       <c r="B488" s="9">
         <v>95</v>
@@ -20256,8 +22163,8 @@
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A489" s="13">
-        <v>950200068</v>
+      <c r="A489" s="15" t="s">
+        <v>1388</v>
       </c>
       <c r="B489" s="9">
         <v>95</v>
@@ -20290,8 +22197,8 @@
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A490" s="13">
-        <v>950300002</v>
+      <c r="A490" s="15" t="s">
+        <v>1389</v>
       </c>
       <c r="B490" s="9">
         <v>95</v>
@@ -20324,8 +22231,8 @@
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A491" s="13">
-        <v>950300017</v>
+      <c r="A491" s="15" t="s">
+        <v>1390</v>
       </c>
       <c r="B491" s="9">
         <v>95</v>
@@ -20358,8 +22265,8 @@
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A492" s="13">
-        <v>950300216</v>
+      <c r="A492" s="15" t="s">
+        <v>1391</v>
       </c>
       <c r="B492" s="9">
         <v>95</v>
@@ -20392,8 +22299,8 @@
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A493" s="13">
-        <v>950400035</v>
+      <c r="A493" s="15" t="s">
+        <v>1392</v>
       </c>
       <c r="B493" s="9">
         <v>95</v>
@@ -20426,8 +22333,8 @@
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A494" s="13">
-        <v>950400089</v>
+      <c r="A494" s="15" t="s">
+        <v>1393</v>
       </c>
       <c r="B494" s="9">
         <v>95</v>
@@ -20460,8 +22367,8 @@
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A495" s="13">
-        <v>950450001</v>
+      <c r="A495" s="15" t="s">
+        <v>1394</v>
       </c>
       <c r="B495" s="9">
         <v>95</v>
@@ -20494,8 +22401,8 @@
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A496" s="13">
-        <v>950450006</v>
+      <c r="A496" s="15" t="s">
+        <v>1395</v>
       </c>
       <c r="B496" s="9">
         <v>95</v>
@@ -20528,8 +22435,8 @@
       </c>
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A497" s="13">
-        <v>950700009</v>
+      <c r="A497" s="15" t="s">
+        <v>1396</v>
       </c>
       <c r="B497" s="9">
         <v>95</v>
@@ -20562,8 +22469,8 @@
       </c>
     </row>
     <row r="498" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A498" s="13">
-        <v>950700015</v>
+      <c r="A498" s="15" t="s">
+        <v>1397</v>
       </c>
       <c r="B498" s="9">
         <v>95</v>
@@ -20596,8 +22503,8 @@
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A499" s="13">
-        <v>950700016</v>
+      <c r="A499" s="15" t="s">
+        <v>1398</v>
       </c>
       <c r="B499" s="9">
         <v>95</v>
@@ -20630,8 +22537,8 @@
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A500" s="13">
-        <v>950700018</v>
+      <c r="A500" s="15" t="s">
+        <v>1399</v>
       </c>
       <c r="B500" s="9">
         <v>95</v>
@@ -20664,8 +22571,8 @@
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A501" s="13">
-        <v>950700019</v>
+      <c r="A501" s="15" t="s">
+        <v>1400</v>
       </c>
       <c r="B501" s="9">
         <v>95</v>
@@ -20698,8 +22605,8 @@
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A502" s="13">
-        <v>950700022</v>
+      <c r="A502" s="15" t="s">
+        <v>1401</v>
       </c>
       <c r="B502" s="9">
         <v>95</v>
@@ -20732,8 +22639,8 @@
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A503" s="13">
-        <v>950700023</v>
+      <c r="A503" s="15" t="s">
+        <v>1402</v>
       </c>
       <c r="B503" s="9">
         <v>95</v>
@@ -20766,8 +22673,8 @@
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A504" s="13">
-        <v>950700026</v>
+      <c r="A504" s="15" t="s">
+        <v>1403</v>
       </c>
       <c r="B504" s="9">
         <v>95</v>
@@ -20800,8 +22707,8 @@
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A505" s="13">
-        <v>950700027</v>
+      <c r="A505" s="15" t="s">
+        <v>1404</v>
       </c>
       <c r="B505" s="9">
         <v>95</v>
@@ -20834,8 +22741,8 @@
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A506" s="13">
-        <v>950700028</v>
+      <c r="A506" s="15" t="s">
+        <v>1405</v>
       </c>
       <c r="B506" s="9">
         <v>95</v>
@@ -20868,8 +22775,8 @@
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A507" s="13">
-        <v>950700029</v>
+      <c r="A507" s="15" t="s">
+        <v>1406</v>
       </c>
       <c r="B507" s="9">
         <v>95</v>
@@ -20902,8 +22809,8 @@
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A508" s="13">
-        <v>950700031</v>
+      <c r="A508" s="15" t="s">
+        <v>1407</v>
       </c>
       <c r="B508" s="9">
         <v>95</v>
@@ -20936,8 +22843,8 @@
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A509" s="13">
-        <v>950700035</v>
+      <c r="A509" s="15" t="s">
+        <v>1408</v>
       </c>
       <c r="B509" s="9">
         <v>95</v>
@@ -20970,8 +22877,8 @@
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A510" s="13">
-        <v>950700037</v>
+      <c r="A510" s="15" t="s">
+        <v>1409</v>
       </c>
       <c r="B510" s="9">
         <v>95</v>
@@ -21004,8 +22911,8 @@
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A511" s="13">
-        <v>950700038</v>
+      <c r="A511" s="15" t="s">
+        <v>1410</v>
       </c>
       <c r="B511" s="9">
         <v>95</v>
@@ -21038,8 +22945,8 @@
       </c>
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A512" s="13">
-        <v>950700040</v>
+      <c r="A512" s="15" t="s">
+        <v>1411</v>
       </c>
       <c r="B512" s="9">
         <v>95</v>
@@ -21072,8 +22979,8 @@
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A513" s="13">
-        <v>950700044</v>
+      <c r="A513" s="15" t="s">
+        <v>1412</v>
       </c>
       <c r="B513" s="9">
         <v>95</v>
@@ -21106,8 +23013,8 @@
       </c>
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A514" s="13">
-        <v>950700046</v>
+      <c r="A514" s="15" t="s">
+        <v>1413</v>
       </c>
       <c r="B514" s="9">
         <v>95</v>
@@ -21140,8 +23047,8 @@
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A515" s="13">
-        <v>950700051</v>
+      <c r="A515" s="15" t="s">
+        <v>1414</v>
       </c>
       <c r="B515" s="9">
         <v>95</v>
@@ -21174,8 +23081,8 @@
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A516" s="13">
-        <v>950700081</v>
+      <c r="A516" s="15" t="s">
+        <v>1415</v>
       </c>
       <c r="B516" s="9">
         <v>95</v>
@@ -21208,8 +23115,8 @@
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A517" s="13">
-        <v>950700086</v>
+      <c r="A517" s="15" t="s">
+        <v>1416</v>
       </c>
       <c r="B517" s="9">
         <v>95</v>
@@ -21242,8 +23149,8 @@
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A518" s="13">
-        <v>950700089</v>
+      <c r="A518" s="15" t="s">
+        <v>1417</v>
       </c>
       <c r="B518" s="9">
         <v>95</v>
@@ -21276,8 +23183,8 @@
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A519" s="13">
-        <v>950700090</v>
+      <c r="A519" s="15" t="s">
+        <v>1418</v>
       </c>
       <c r="B519" s="9">
         <v>95</v>
@@ -21310,8 +23217,8 @@
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A520" s="13">
-        <v>950700095</v>
+      <c r="A520" s="15" t="s">
+        <v>1419</v>
       </c>
       <c r="B520" s="9">
         <v>95</v>
@@ -21344,8 +23251,8 @@
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A521" s="13">
-        <v>950700097</v>
+      <c r="A521" s="15" t="s">
+        <v>1420</v>
       </c>
       <c r="B521" s="9">
         <v>95</v>
@@ -21378,8 +23285,8 @@
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A522" s="13">
-        <v>950700108</v>
+      <c r="A522" s="15" t="s">
+        <v>1421</v>
       </c>
       <c r="B522" s="9">
         <v>95</v>
@@ -21412,8 +23319,8 @@
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A523" s="13">
-        <v>950700113</v>
+      <c r="A523" s="15" t="s">
+        <v>1422</v>
       </c>
       <c r="B523" s="9">
         <v>95</v>
@@ -21446,8 +23353,8 @@
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A524" s="13">
-        <v>950700135</v>
+      <c r="A524" s="15" t="s">
+        <v>1423</v>
       </c>
       <c r="B524" s="9">
         <v>95</v>
@@ -21480,8 +23387,8 @@
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A525" s="13">
-        <v>950700161</v>
+      <c r="A525" s="15" t="s">
+        <v>1424</v>
       </c>
       <c r="B525" s="9">
         <v>95</v>
@@ -21514,8 +23421,8 @@
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A526" s="13">
-        <v>950700173</v>
+      <c r="A526" s="15" t="s">
+        <v>1425</v>
       </c>
       <c r="B526" s="9">
         <v>95</v>
@@ -21548,8 +23455,8 @@
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A527" s="13">
-        <v>950700176</v>
+      <c r="A527" s="15" t="s">
+        <v>1426</v>
       </c>
       <c r="B527" s="9">
         <v>95</v>
@@ -21582,8 +23489,8 @@
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A528" s="13">
-        <v>950700178</v>
+      <c r="A528" s="15" t="s">
+        <v>1427</v>
       </c>
       <c r="B528" s="9">
         <v>95</v>
@@ -21616,8 +23523,8 @@
       </c>
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A529" s="13">
-        <v>950700181</v>
+      <c r="A529" s="15" t="s">
+        <v>1428</v>
       </c>
       <c r="B529" s="9">
         <v>95</v>
@@ -21650,8 +23557,8 @@
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A530" s="13">
-        <v>950850356</v>
+      <c r="A530" s="15" t="s">
+        <v>1429</v>
       </c>
       <c r="B530" s="9">
         <v>95</v>
@@ -21684,8 +23591,8 @@
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A531" s="13">
-        <v>950850666</v>
+      <c r="A531" s="15" t="s">
+        <v>1430</v>
       </c>
       <c r="B531" s="9">
         <v>95</v>
@@ -21718,8 +23625,8 @@
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A532" s="13">
-        <v>951100009</v>
+      <c r="A532" s="15" t="s">
+        <v>1431</v>
       </c>
       <c r="B532" s="9">
         <v>95</v>
@@ -21752,8 +23659,8 @@
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A533" s="13">
-        <v>951300248</v>
+      <c r="A533" s="15" t="s">
+        <v>1432</v>
       </c>
       <c r="B533" s="9">
         <v>95</v>
@@ -21786,8 +23693,8 @@
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A534" s="13">
-        <v>951300399</v>
+      <c r="A534" s="15" t="s">
+        <v>1433</v>
       </c>
       <c r="B534" s="9">
         <v>95</v>
@@ -21820,8 +23727,8 @@
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A535" s="13">
-        <v>951300438</v>
+      <c r="A535" s="15" t="s">
+        <v>1434</v>
       </c>
       <c r="B535" s="9">
         <v>95</v>
@@ -21854,8 +23761,8 @@
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A536" s="13">
-        <v>951450005</v>
+      <c r="A536" s="15" t="s">
+        <v>1435</v>
       </c>
       <c r="B536" s="9">
         <v>95</v>
@@ -21888,8 +23795,8 @@
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A537" s="13">
-        <v>951450007</v>
+      <c r="A537" s="15" t="s">
+        <v>1436</v>
       </c>
       <c r="B537" s="9">
         <v>95</v>
@@ -21922,8 +23829,8 @@
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A538" s="13">
-        <v>951450010</v>
+      <c r="A538" s="15" t="s">
+        <v>1437</v>
       </c>
       <c r="B538" s="9">
         <v>95</v>
@@ -21956,8 +23863,8 @@
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A539" s="13">
-        <v>951450013</v>
+      <c r="A539" s="15" t="s">
+        <v>1438</v>
       </c>
       <c r="B539" s="9">
         <v>95</v>
@@ -21990,8 +23897,8 @@
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A540" s="13">
-        <v>951450014</v>
+      <c r="A540" s="15" t="s">
+        <v>1439</v>
       </c>
       <c r="B540" s="9">
         <v>95</v>
@@ -22024,8 +23931,8 @@
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A541" s="13">
-        <v>951450026</v>
+      <c r="A541" s="15" t="s">
+        <v>1440</v>
       </c>
       <c r="B541" s="9">
         <v>95</v>
@@ -22058,8 +23965,8 @@
       </c>
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A542" s="13">
-        <v>951450029</v>
+      <c r="A542" s="15" t="s">
+        <v>1441</v>
       </c>
       <c r="B542" s="9">
         <v>95</v>
@@ -22092,8 +23999,8 @@
       </c>
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A543" s="13">
-        <v>951450030</v>
+      <c r="A543" s="15" t="s">
+        <v>1442</v>
       </c>
       <c r="B543" s="9">
         <v>95</v>
@@ -22126,8 +24033,8 @@
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A544" s="13">
-        <v>951450036</v>
+      <c r="A544" s="15" t="s">
+        <v>1443</v>
       </c>
       <c r="B544" s="9">
         <v>95</v>
@@ -22160,8 +24067,8 @@
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A545" s="13">
-        <v>951450037</v>
+      <c r="A545" s="15" t="s">
+        <v>1444</v>
       </c>
       <c r="B545" s="9">
         <v>95</v>
@@ -22194,8 +24101,8 @@
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A546" s="13">
-        <v>951450039</v>
+      <c r="A546" s="15" t="s">
+        <v>1445</v>
       </c>
       <c r="B546" s="9">
         <v>95</v>
@@ -22228,8 +24135,8 @@
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A547" s="13">
-        <v>951450040</v>
+      <c r="A547" s="15" t="s">
+        <v>1446</v>
       </c>
       <c r="B547" s="9">
         <v>95</v>
@@ -22262,8 +24169,8 @@
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A548" s="13">
-        <v>951450048</v>
+      <c r="A548" s="15" t="s">
+        <v>1447</v>
       </c>
       <c r="B548" s="9">
         <v>95</v>
@@ -22296,8 +24203,8 @@
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A549" s="13">
-        <v>951450053</v>
+      <c r="A549" s="15" t="s">
+        <v>1448</v>
       </c>
       <c r="B549" s="9">
         <v>95</v>
@@ -22330,8 +24237,8 @@
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A550" s="13">
-        <v>951450054</v>
+      <c r="A550" s="15" t="s">
+        <v>1449</v>
       </c>
       <c r="B550" s="9">
         <v>95</v>
@@ -22364,8 +24271,8 @@
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A551" s="13">
-        <v>951450059</v>
+      <c r="A551" s="15" t="s">
+        <v>1450</v>
       </c>
       <c r="B551" s="9">
         <v>95</v>
@@ -22398,8 +24305,8 @@
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A552" s="13">
-        <v>951450063</v>
+      <c r="A552" s="15" t="s">
+        <v>1451</v>
       </c>
       <c r="B552" s="9">
         <v>95</v>
@@ -22432,8 +24339,8 @@
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A553" s="13">
-        <v>951450065</v>
+      <c r="A553" s="15" t="s">
+        <v>1452</v>
       </c>
       <c r="B553" s="9">
         <v>95</v>
@@ -22466,8 +24373,8 @@
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A554" s="13">
-        <v>951450104</v>
+      <c r="A554" s="15" t="s">
+        <v>1453</v>
       </c>
       <c r="B554" s="9">
         <v>95</v>
@@ -22500,8 +24407,8 @@
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A555" s="13">
-        <v>951550085</v>
+      <c r="A555" s="15" t="s">
+        <v>1454</v>
       </c>
       <c r="B555" s="9">
         <v>95</v>
@@ -22534,8 +24441,8 @@
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A556" s="13">
-        <v>951600180</v>
+      <c r="A556" s="15" t="s">
+        <v>1455</v>
       </c>
       <c r="B556" s="9">
         <v>95</v>
@@ -22568,8 +24475,8 @@
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A557" s="13">
-        <v>951700011</v>
+      <c r="A557" s="15" t="s">
+        <v>1456</v>
       </c>
       <c r="B557" s="9">
         <v>95</v>
@@ -22602,8 +24509,8 @@
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A558" s="13">
-        <v>951700021</v>
+      <c r="A558" s="15" t="s">
+        <v>1457</v>
       </c>
       <c r="B558" s="9">
         <v>95</v>
@@ -22636,8 +24543,8 @@
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A559" s="13">
-        <v>951700023</v>
+      <c r="A559" s="15" t="s">
+        <v>1458</v>
       </c>
       <c r="B559" s="9">
         <v>95</v>
@@ -22670,8 +24577,8 @@
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A560" s="13">
-        <v>951700025</v>
+      <c r="A560" s="15" t="s">
+        <v>1459</v>
       </c>
       <c r="B560" s="9">
         <v>95</v>
@@ -22704,8 +24611,8 @@
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A561" s="13">
-        <v>951700028</v>
+      <c r="A561" s="15" t="s">
+        <v>1460</v>
       </c>
       <c r="B561" s="9">
         <v>95</v>
@@ -22738,8 +24645,8 @@
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A562" s="13">
-        <v>951700043</v>
+      <c r="A562" s="15" t="s">
+        <v>1461</v>
       </c>
       <c r="B562" s="9">
         <v>95</v>
@@ -22772,8 +24679,8 @@
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A563" s="13">
-        <v>951700045</v>
+      <c r="A563" s="15" t="s">
+        <v>1462</v>
       </c>
       <c r="B563" s="9">
         <v>95</v>
@@ -22806,8 +24713,8 @@
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A564" s="13">
-        <v>951700053</v>
+      <c r="A564" s="15" t="s">
+        <v>1463</v>
       </c>
       <c r="B564" s="9">
         <v>95</v>
@@ -22840,8 +24747,8 @@
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A565" s="13">
-        <v>951700055</v>
+      <c r="A565" s="15" t="s">
+        <v>1464</v>
       </c>
       <c r="B565" s="9">
         <v>95</v>
@@ -22874,8 +24781,8 @@
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A566" s="13">
-        <v>951700056</v>
+      <c r="A566" s="15" t="s">
+        <v>1465</v>
       </c>
       <c r="B566" s="9">
         <v>95</v>
@@ -22908,8 +24815,8 @@
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A567" s="13">
-        <v>951700058</v>
+      <c r="A567" s="15" t="s">
+        <v>1466</v>
       </c>
       <c r="B567" s="9">
         <v>95</v>
@@ -22942,8 +24849,8 @@
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A568" s="13">
-        <v>951700064</v>
+      <c r="A568" s="15" t="s">
+        <v>1467</v>
       </c>
       <c r="B568" s="9">
         <v>95</v>
@@ -22976,8 +24883,8 @@
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A569" s="13">
-        <v>951700067</v>
+      <c r="A569" s="15" t="s">
+        <v>1468</v>
       </c>
       <c r="B569" s="9">
         <v>95</v>
@@ -23010,8 +24917,8 @@
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A570" s="13">
-        <v>951700073</v>
+      <c r="A570" s="15" t="s">
+        <v>1469</v>
       </c>
       <c r="B570" s="9">
         <v>95</v>
@@ -23044,8 +24951,8 @@
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A571" s="13">
-        <v>951700074</v>
+      <c r="A571" s="15" t="s">
+        <v>1470</v>
       </c>
       <c r="B571" s="9">
         <v>95</v>
@@ -23078,8 +24985,8 @@
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A572" s="13">
-        <v>951700077</v>
+      <c r="A572" s="15" t="s">
+        <v>1471</v>
       </c>
       <c r="B572" s="9">
         <v>95</v>
@@ -23112,8 +25019,8 @@
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A573" s="13">
-        <v>951700104</v>
+      <c r="A573" s="15" t="s">
+        <v>1472</v>
       </c>
       <c r="B573" s="9">
         <v>95</v>
@@ -23146,8 +25053,8 @@
       </c>
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A574" s="13">
-        <v>951700105</v>
+      <c r="A574" s="15" t="s">
+        <v>1473</v>
       </c>
       <c r="B574" s="9">
         <v>95</v>
@@ -23180,8 +25087,8 @@
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A575" s="13">
-        <v>951700106</v>
+      <c r="A575" s="15" t="s">
+        <v>1474</v>
       </c>
       <c r="B575" s="9">
         <v>95</v>
@@ -23214,8 +25121,8 @@
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A576" s="13">
-        <v>951700109</v>
+      <c r="A576" s="15" t="s">
+        <v>1475</v>
       </c>
       <c r="B576" s="9">
         <v>95</v>
@@ -23248,8 +25155,8 @@
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A577" s="13">
-        <v>951700117</v>
+      <c r="A577" s="15" t="s">
+        <v>1476</v>
       </c>
       <c r="B577" s="9">
         <v>95</v>
@@ -23282,8 +25189,8 @@
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A578" s="13">
-        <v>951700122</v>
+      <c r="A578" s="15" t="s">
+        <v>1477</v>
       </c>
       <c r="B578" s="9">
         <v>95</v>
@@ -23316,8 +25223,8 @@
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A579" s="13">
-        <v>951700125</v>
+      <c r="A579" s="15" t="s">
+        <v>1478</v>
       </c>
       <c r="B579" s="9">
         <v>95</v>
@@ -23350,8 +25257,8 @@
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A580" s="13">
-        <v>951700126</v>
+      <c r="A580" s="15" t="s">
+        <v>1479</v>
       </c>
       <c r="B580" s="9">
         <v>95</v>
@@ -23384,8 +25291,8 @@
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A581" s="13">
-        <v>951700203</v>
+      <c r="A581" s="15" t="s">
+        <v>1480</v>
       </c>
       <c r="B581" s="9">
         <v>95</v>
@@ -23418,8 +25325,8 @@
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A582" s="13">
-        <v>951700269</v>
+      <c r="A582" s="15" t="s">
+        <v>1481</v>
       </c>
       <c r="B582" s="9">
         <v>95</v>
@@ -23452,8 +25359,8 @@
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A583" s="13">
-        <v>951700274</v>
+      <c r="A583" s="15" t="s">
+        <v>1482</v>
       </c>
       <c r="B583" s="9">
         <v>95</v>
@@ -23486,8 +25393,8 @@
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A584" s="13">
-        <v>951700279</v>
+      <c r="A584" s="15" t="s">
+        <v>1483</v>
       </c>
       <c r="B584" s="9">
         <v>95</v>
@@ -23520,8 +25427,8 @@
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A585" s="13">
-        <v>951700291</v>
+      <c r="A585" s="15" t="s">
+        <v>1484</v>
       </c>
       <c r="B585" s="9">
         <v>95</v>
@@ -23554,8 +25461,8 @@
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A586" s="13">
-        <v>951700307</v>
+      <c r="A586" s="15" t="s">
+        <v>1485</v>
       </c>
       <c r="B586" s="9">
         <v>95</v>
@@ -23588,8 +25495,8 @@
       </c>
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A587" s="13">
-        <v>951700325</v>
+      <c r="A587" s="15" t="s">
+        <v>1486</v>
       </c>
       <c r="B587" s="9">
         <v>95</v>
@@ -23622,8 +25529,8 @@
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A588" s="13">
-        <v>951700352</v>
+      <c r="A588" s="15" t="s">
+        <v>1487</v>
       </c>
       <c r="B588" s="9">
         <v>95</v>
@@ -23656,8 +25563,8 @@
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A589" s="13">
-        <v>951700371</v>
+      <c r="A589" s="15" t="s">
+        <v>1488</v>
       </c>
       <c r="B589" s="9">
         <v>95</v>
@@ -23690,8 +25597,8 @@
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A590" s="13">
-        <v>951700372</v>
+      <c r="A590" s="15" t="s">
+        <v>1489</v>
       </c>
       <c r="B590" s="9">
         <v>95</v>
@@ -23724,8 +25631,8 @@
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A591" s="13">
-        <v>951700373</v>
+      <c r="A591" s="15" t="s">
+        <v>1490</v>
       </c>
       <c r="B591" s="9">
         <v>95</v>
@@ -23758,8 +25665,8 @@
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A592" s="13">
-        <v>951700374</v>
+      <c r="A592" s="15" t="s">
+        <v>1491</v>
       </c>
       <c r="B592" s="9">
         <v>95</v>
@@ -23792,8 +25699,8 @@
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A593" s="13">
-        <v>951700375</v>
+      <c r="A593" s="15" t="s">
+        <v>1492</v>
       </c>
       <c r="B593" s="9">
         <v>95</v>
@@ -23826,8 +25733,8 @@
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A594" s="13">
-        <v>951700376</v>
+      <c r="A594" s="15" t="s">
+        <v>1493</v>
       </c>
       <c r="B594" s="9">
         <v>95</v>
@@ -23860,8 +25767,8 @@
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A595" s="13">
-        <v>951700381</v>
+      <c r="A595" s="15" t="s">
+        <v>1494</v>
       </c>
       <c r="B595" s="9">
         <v>95</v>
@@ -23894,8 +25801,8 @@
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A596" s="13">
-        <v>951700382</v>
+      <c r="A596" s="15" t="s">
+        <v>1495</v>
       </c>
       <c r="B596" s="9">
         <v>95</v>
@@ -23928,8 +25835,8 @@
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A597" s="13">
-        <v>951700416</v>
+      <c r="A597" s="15" t="s">
+        <v>1496</v>
       </c>
       <c r="B597" s="9">
         <v>95</v>
@@ -23962,8 +25869,8 @@
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A598" s="13">
-        <v>951700427</v>
+      <c r="A598" s="15" t="s">
+        <v>1497</v>
       </c>
       <c r="B598" s="9">
         <v>95</v>
@@ -23996,8 +25903,8 @@
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A599" s="13">
-        <v>951700428</v>
+      <c r="A599" s="15" t="s">
+        <v>1498</v>
       </c>
       <c r="B599" s="9">
         <v>95</v>
@@ -24030,8 +25937,8 @@
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A600" s="13">
-        <v>951700429</v>
+      <c r="A600" s="15" t="s">
+        <v>1499</v>
       </c>
       <c r="B600" s="9">
         <v>95</v>
@@ -24064,8 +25971,8 @@
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A601" s="13">
-        <v>951700442</v>
+      <c r="A601" s="15" t="s">
+        <v>1500</v>
       </c>
       <c r="B601" s="9">
         <v>95</v>
@@ -24098,8 +26005,8 @@
       </c>
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A602" s="13">
-        <v>951800057</v>
+      <c r="A602" s="15" t="s">
+        <v>1501</v>
       </c>
       <c r="B602" s="9">
         <v>95</v>
@@ -24132,8 +26039,8 @@
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A603" s="13">
-        <v>1000600031</v>
+      <c r="A603" s="15" t="s">
+        <v>1502</v>
       </c>
       <c r="B603" s="9">
         <v>100</v>
@@ -24166,8 +26073,8 @@
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A604" s="13">
-        <v>1001150109</v>
+      <c r="A604" s="15" t="s">
+        <v>1503</v>
       </c>
       <c r="B604" s="9">
         <v>100</v>
@@ -24200,8 +26107,8 @@
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A605" s="13">
-        <v>1001950045</v>
+      <c r="A605" s="15" t="s">
+        <v>1504</v>
       </c>
       <c r="B605" s="9">
         <v>100</v>
@@ -24234,8 +26141,8 @@
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A606" s="13">
-        <v>1001950925</v>
+      <c r="A606" s="15" t="s">
+        <v>1505</v>
       </c>
       <c r="B606" s="9">
         <v>100</v>
@@ -24268,8 +26175,8 @@
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A607" s="13">
-        <v>1002100336</v>
+      <c r="A607" s="15" t="s">
+        <v>1506</v>
       </c>
       <c r="B607" s="9">
         <v>100</v>
@@ -24302,8 +26209,8 @@
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A608" s="13">
-        <v>1050050015</v>
+      <c r="A608" s="15" t="s">
+        <v>1507</v>
       </c>
       <c r="B608" s="9">
         <v>105</v>
@@ -24336,8 +26243,8 @@
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A609" s="13">
-        <v>1050050235</v>
+      <c r="A609" s="15" t="s">
+        <v>1508</v>
       </c>
       <c r="B609" s="9">
         <v>105</v>
@@ -24370,8 +26277,8 @@
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A610" s="13">
-        <v>1050100083</v>
+      <c r="A610" s="15" t="s">
+        <v>1509</v>
       </c>
       <c r="B610" s="9">
         <v>105</v>
@@ -24404,8 +26311,8 @@
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A611" s="13">
-        <v>1050100086</v>
+      <c r="A611" s="15" t="s">
+        <v>1510</v>
       </c>
       <c r="B611" s="9">
         <v>105</v>
@@ -24438,8 +26345,8 @@
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A612" s="13">
-        <v>1050100112</v>
+      <c r="A612" s="15" t="s">
+        <v>1511</v>
       </c>
       <c r="B612" s="9">
         <v>105</v>
@@ -24472,8 +26379,8 @@
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A613" s="13">
-        <v>1050100114</v>
+      <c r="A613" s="15" t="s">
+        <v>1512</v>
       </c>
       <c r="B613" s="9">
         <v>105</v>
@@ -24506,8 +26413,8 @@
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A614" s="13">
-        <v>1050100188</v>
+      <c r="A614" s="15" t="s">
+        <v>1513</v>
       </c>
       <c r="B614" s="9">
         <v>105</v>
@@ -24540,8 +26447,8 @@
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A615" s="13">
-        <v>1050100344</v>
+      <c r="A615" s="15" t="s">
+        <v>1514</v>
       </c>
       <c r="B615" s="9">
         <v>105</v>
@@ -24574,8 +26481,8 @@
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A616" s="13">
-        <v>1050100388</v>
+      <c r="A616" s="15" t="s">
+        <v>1515</v>
       </c>
       <c r="B616" s="9">
         <v>105</v>
@@ -24608,8 +26515,8 @@
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A617" s="13">
-        <v>1050100447</v>
+      <c r="A617" s="15" t="s">
+        <v>1516</v>
       </c>
       <c r="B617" s="9">
         <v>105</v>
@@ -24642,8 +26549,8 @@
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A618" s="13">
-        <v>1050100454</v>
+      <c r="A618" s="15" t="s">
+        <v>1517</v>
       </c>
       <c r="B618" s="9">
         <v>105</v>
@@ -24676,8 +26583,8 @@
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A619" s="13">
-        <v>1050100456</v>
+      <c r="A619" s="15" t="s">
+        <v>1518</v>
       </c>
       <c r="B619" s="9">
         <v>105</v>
@@ -24710,8 +26617,8 @@
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A620" s="13">
-        <v>1050100458</v>
+      <c r="A620" s="15" t="s">
+        <v>1519</v>
       </c>
       <c r="B620" s="9">
         <v>105</v>
@@ -24744,8 +26651,8 @@
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A621" s="13">
-        <v>1050100459</v>
+      <c r="A621" s="15" t="s">
+        <v>1520</v>
       </c>
       <c r="B621" s="9">
         <v>105</v>
@@ -24778,8 +26685,8 @@
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A622" s="13">
-        <v>1050150046</v>
+      <c r="A622" s="15" t="s">
+        <v>1521</v>
       </c>
       <c r="B622" s="9">
         <v>105</v>
@@ -24812,8 +26719,8 @@
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A623" s="13">
-        <v>1050150059</v>
+      <c r="A623" s="15" t="s">
+        <v>1522</v>
       </c>
       <c r="B623" s="9">
         <v>105</v>
@@ -28682,6 +30589,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B71EA2D9964CC9449323D3108A891EB7" ma:contentTypeVersion="14" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ff891be549735ec397d6022c2fc7d626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e01e24f2-7f6a-4a90-94b6-6e522386aa06" xmlns:ns4="fa81e86c-0da7-4393-b309-29a6ef7a5f24" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b10f1121eb9749427907c3ca261214ba" ns3:_="" ns4:_="">
     <xsd:import namespace="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
@@ -28908,14 +30823,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa81e86c-0da7-4393-b309-29a6ef7a5f24" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28926,6 +30833,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
+    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8F2AC3A-AC86-409D-815E-3B0EA5A11767}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28944,23 +30868,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{513BCF89-A9CB-468C-A691-70C46AADBEF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="fa81e86c-0da7-4393-b309-29a6ef7a5f24"/>
-    <ds:schemaRef ds:uri="e01e24f2-7f6a-4a90-94b6-6e522386aa06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EC453ED-C9D9-4590-B2CE-823208C59FDB}">
   <ds:schemaRefs>
